--- a/literature_research/FS_scopus/FS_agriculture.xlsx
+++ b/literature_research/FS_scopus/FS_agriculture.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,15 +476,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rebalance power and strengthen farmers’ position in the EU food system? A CDA of the Farm to Fork Strategy</t>
+          <t>Agroecology as a Philosophy of Life</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The Farm to Fork (F2F) Strategy at the heart of the European Union’s Green Deal set out to create a “just transition” towards a sustainable food system, with benefits for all actors. We conducted a critical discourse analysis (CDA) to explore discourses around power in the food system and farmers’ position in the communication and implementation of the Farm to Fork Strategy. Discourse analysis encapsulates various scientific methodologies for deciphering the meaning behind the creation and communication of different forms of language and identify power dynamics, amongst other aspects. We identified two prior discourses in one of the objectives of the European Union’s new Common Agricultural Policy (2023-27). Our analysis found that the discourses, namely “rebalance power in food system” and “strengthening farmers’ position in value chains,” are marginalized in favour of an innovation-investment discourse, indicative of greater financialization and technologization based on techno-finances fixes in transforming the European Union agri-food system. We argue that entities representing agri-business interests have been influential in the policymaking process and voices representing smallholder and medium-sized farmers’ transformational discourses have been excluded. © The Author(s) 2023.</t>
+          <t>Use of the term “agroecology” has greatly increased over the past few decades, with scholars, civil society actors, and intergovernmental organizations identifying agroecology as a promising pathway for realizing more just and sustainable food systems. Using a community-engaged approach, we explore how diverse agroecological actors in southern Brazil describe and define agroecology. We find that across a range of social differences, agroecological actors come together in describing agroecology as a philosophy of life that promotes well-being, positioning agroecology as a counter-narrative to global discourses on “development” that promote economic growth and productivism as the path to a good life. Our findings suggest that the practice of agroecology can enhance diverse rural peoples’ well-being by providing a pathway to overcoming alienation, commodification, and exploitation, although broader political-economic conditions constrain this potential. As socioecological crises continue to accelerate and undermine human and environmental health and well-being, the capacity for agroecology to promote wellness from various ontological and epistemological positions warrants further attention. © 2023, The Author(s), under exclusive licence to Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -512,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The organizational challenge of international agricultural research: The fifty-year odyssey of the CGIAR</t>
+          <t>Rebalance power and strengthen farmers’ position in the EU food system? A CDA of the Farm to Fork Strategy</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -520,7 +520,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Over its 50-year history, CGIAR has with increasing frequency revisited the question of how best to organize its research to address growing complexity of agricultural, food, and ecological systems, a multiplying set of development goals, changes in global science, increasing diversity of funding, and evolving capacities of partner organizations. We review this evolution over four periods noting inevitable trade-offs and tensions in a system of autonomous centers and sovereign donors, in developing common research strategies, appropriate lines of management, and aligning resources around agreed priorities. As a result, organizational changes have not met expectations and funding has continued to fragment around short-term payoffs at the expense of producing global public goods over the long term. The paper concludes with suggestions for building on the lessons of organizational reform to improve the collective action performance of funders and centers to drive and sustain needed changes. © 2024 Elsevier Ltd</t>
+          <t>The Farm to Fork (F2F) Strategy at the heart of the European Union’s Green Deal set out to create a “just transition” towards a sustainable food system, with benefits for all actors. We conducted a critical discourse analysis (CDA) to explore discourses around power in the food system and farmers’ position in the communication and implementation of the Farm to Fork Strategy. Discourse analysis encapsulates various scientific methodologies for deciphering the meaning behind the creation and communication of different forms of language and identify power dynamics, amongst other aspects. We identified two prior discourses in one of the objectives of the European Union’s new Common Agricultural Policy (2023-27). Our analysis found that the discourses, namely “rebalance power in food system” and “strengthening farmers’ position in value chains,” are marginalized in favour of an innovation-investment discourse, indicative of greater financialization and technologization based on techno-finances fixes in transforming the European Union agri-food system. We argue that entities representing agri-business interests have been influential in the policymaking process and voices representing smallholder and medium-sized farmers’ transformational discourses have been excluded. © The Author(s) 2023.</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -548,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>How trust is lost: the Food Systems Summit 2021 and the delegitimation of UN food governance</t>
+          <t>The organizational challenge of international agricultural research: The fifty-year odyssey of the CGIAR</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -556,7 +556,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Social movements see participation formats of international organizations (IOs) with suspicion. They increasingly retreat from cooperation to contest IOs from the outside, because they fear co-optation without real policy impact. However, the Food and Agricultural Organization (FAO) was an exception to this trend because its opening up was seen as long-term dialogue facilitating discussions about the nature of food production, and because it created credible institutional mechanisms that were trusted by activists to give influence to farmers and peasant movements. Therefore, the food sovereignty movement participated within the FAO framework in a remarkably institutionalized way throughout the 2010s. But in 2019, when the United Nations (UN) announced to hold a food systems summit (United Nations Food Systems Summit (UNFSS)), this changed dramatically. The food sovereignty movement, many non-governmental organizations (NGOs), and eventually scientists, decided to boycott the summit, instead organizing an alternative Peoples’ Summit, and withdrawing from long-held institutional roles in the FAO. How can this be explained? This article traces the process from the announcement of the UNFSS to its implementation, stressing how institutional trust was damaged by several decisions in the process that undermined the good faith of activists. As we show in detail, the circumvention of established institutional mechanisms, and the feeling of betrayal on the side of the movement, was decisive for losing institutional trust. Importantly, a mixture of substantive and institutional changes in the context of UNFSS not only undermined the movement’s trust into the integrity and ability of the summit organizers, but thereby also provoked movement efforts to delegitimize UN food governance at large. © The Author(s) 2023.</t>
+          <t>Over its 50-year history, CGIAR has with increasing frequency revisited the question of how best to organize its research to address growing complexity of agricultural, food, and ecological systems, a multiplying set of development goals, changes in global science, increasing diversity of funding, and evolving capacities of partner organizations. We review this evolution over four periods noting inevitable trade-offs and tensions in a system of autonomous centers and sovereign donors, in developing common research strategies, appropriate lines of management, and aligning resources around agreed priorities. As a result, organizational changes have not met expectations and funding has continued to fragment around short-term payoffs at the expense of producing global public goods over the long term. The paper concludes with suggestions for building on the lessons of organizational reform to improve the collective action performance of funders and centers to drive and sustain needed changes. © 2024 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -584,15 +584,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Examining the Criminal Aspects of the Indonesian Plant Varieties Regime and Farmer Protection for Food Sovereignty</t>
+          <t>Biocultural Elements and Multifunctionality of Cassava Flour Production in Agrarian Reform Settlements in the Extreme South of Bahia, Brazil</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>This research investigates the Plant Varieties Regime's role in safeguarding farmers’ rights in plant development and cultivation in Indonesia. Specifically, it scrutinizes criminal provisions concerning farmers accused of producing seeds without the right holder's consent, as evident in multiple court decisions. These verdicts have ignited legal debates that conflict with the principles of food sovereignty. Given that nearly 90% of corn plants are cultivated through traditional farmer knowledge, the increasing dependence on the seed industry disrupts agricultural practices passed down through generations. The Plant Variety Protection Act (PVP Act) inadvertently encourages seed industry monopolization. This paper advocates a coherent approach in compliance with Article 27(2) of the 1945 Constitution to address these legal issues and establish a just legal framework. The primary legal discourse centers on equitable protection, necessitating a re-evaluation of the PVP Law, which is perceived as restricting plant development opportunities and discriminating against farmers. Farmers, as stewards of seed development and livelihood, should not face criminal charges encroaching upon their rights. Employing a normative methodology involving statutory, conceptual, and case analyses, this study examines the criminal aspects and legal protection of farmers' rights in corn seed cultivation. Ultimately, the paper recommends revising the PVP Law, emphasizing the importance of coherent legal thinking when shaping criminal policies. On a practical level, it calls for collaborative efforts among stakeholders to bolster agricultural sovereignty, particularly in the corn sector, by prioritizing farmers’ rights. In summary, this research aims to provide recommendations for enhancing farmers' protection against the criminal provisions outlined in the PVP Act, which holds a pivotal role in shielding farmers engaged in corn seed cultivation. © 2023 by Author(s).</t>
+          <t>Artisanal manufacture of cassava flour in Brazil has a cultural and biological framework developed over generations of traditional rural workers. We conducted a broad study of flour production in the Extreme South of Bahia in 2019 across 30 rural settlements in 11 municipalities, where we evaluated 107 flour producers. Our results present the socioeconomic profiles of local farmers, cassava varieties, types of flour, particularities of production, and characteristics of commercialization. We highlight the multiple functions of artisanal production of cassava flour, especially as related to social and economic maintenance of households, the promotion of food security, and sovereignty within and around the communities, and the conservation of agrobiodiversity in the rural landscape. © The Author(s), under exclusive licence to Springer Science+Business Media, LLC, part of Springer Nature 2024.</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -620,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>“Listen to us”: small-scale farmers’ understandings of social-ecological changes and their drivers in Important Agricultural Heritage Systems</t>
+          <t>Examining the Criminal Aspects of the Indonesian Plant Varieties Regime and Farmer Protection for Food Sovereignty</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -628,7 +628,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Current social-ecological changes affect territories and people’s livelihoods worldwide. Many of these changes have detrimental effects on small-scale agricultural systems, with concomitant negative consequences on global and local food security and sovereignty. The objectives of this study were to explore (i) local knowledge on social-ecological changes and (ii) the perceived drivers of those changes occurring in a mountainscape and an islandscape in two Important Agricultural Heritage Systems of southern South America, both located within a Global Biodiversity Hotspot. This was done by conducting in-depth semi-structured interviews with local campesinos, whose livelihoods are based on the use and management of agrosilvopastoral systems. We found that local communities experience a wide range of globally and locally induced social-ecological changes acting in their territories. Campesinos mentioned 79 different observations of social-ecological changes and identified drivers for 77% of them. Changes in the atmospheric system, specifically regarding changes in precipitation, drought, and temperatures, were commonly observed by campesinos in both sites. Participants also observed complex interrelations between these changes and the drivers influencing them, climatic drivers being the most important. Even though general changes in climatic patterns were identified as drivers of changes by campesinos, other situated changes derived from the site’s biophysical, social, and economic conditions were also important. Our results highlight the importance of considering local knowledge to understand social-ecological changes and to support the development and implementation of public policies that promote contextualized adaptation measures to global changes that affect local livelihoods. © 2023, The Author(s).</t>
+          <t>This research investigates the Plant Varieties Regime's role in safeguarding farmers’ rights in plant development and cultivation in Indonesia. Specifically, it scrutinizes criminal provisions concerning farmers accused of producing seeds without the right holder's consent, as evident in multiple court decisions. These verdicts have ignited legal debates that conflict with the principles of food sovereignty. Given that nearly 90% of corn plants are cultivated through traditional farmer knowledge, the increasing dependence on the seed industry disrupts agricultural practices passed down through generations. The Plant Variety Protection Act (PVP Act) inadvertently encourages seed industry monopolization. This paper advocates a coherent approach in compliance with Article 27(2) of the 1945 Constitution to address these legal issues and establish a just legal framework. The primary legal discourse centers on equitable protection, necessitating a re-evaluation of the PVP Law, which is perceived as restricting plant development opportunities and discriminating against farmers. Farmers, as stewards of seed development and livelihood, should not face criminal charges encroaching upon their rights. Employing a normative methodology involving statutory, conceptual, and case analyses, this study examines the criminal aspects and legal protection of farmers' rights in corn seed cultivation. Ultimately, the paper recommends revising the PVP Law, emphasizing the importance of coherent legal thinking when shaping criminal policies. On a practical level, it calls for collaborative efforts among stakeholders to bolster agricultural sovereignty, particularly in the corn sector, by prioritizing farmers’ rights. In summary, this research aims to provide recommendations for enhancing farmers' protection against the criminal provisions outlined in the PVP Act, which holds a pivotal role in shielding farmers engaged in corn seed cultivation. © 2023 by Author(s).</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -656,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Social enterprise, food justice, and food sovereignty: Strange bedfellows or systemic supports?</t>
+          <t>Building the intrinsic infrastructure of agroecology: collectivising to deal with the problem of the state</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -664,7 +664,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>There is a debate in the literature about whether one can address food system problems with mar-ket-based approaches while seeking food justice or food sovereignty. However, as part of a team of researchers and community leaders, we have found that this debate is less relevant in practice. The concepts are interrelated within real-world food systems. As such, we were motivated to ask, how do social enterprises (SEs) interact with food jus- tice and food sovereignty movements and their visions in order to realize more democratic and equitable local food systems in communities? To answer this question, we conducted a systematic review at the intersection of SE, food sovereignty, and food justice literature. Analyzing nine articles, which included 17 food-related SEs, we found evidence of potential interactions between food SEs, food justice, and food sovereignty that are compat-ible (e.g., create employment) and incompatible (e.g., limited ability to address issues like community employability and green gentrification). The literature includes at least three important character-istics that inform how food-related SEs may interact with food justice and sovereignty, includ-ing employee and ownership demographics, the enterprise business model, and aspects of the food system targeted by the enterprise via market activi-ties. If we consider a systems perspective, we can envision the ways in which the aspects are embed-ded and interdependent in a neoliberal society. SEs, as market-based agents for social change, exist in the same system as justice and sovereignty. © 2024 by the Authors. Published by the Lyson Center for Civic Agriculture and Food Systems.</t>
+          <t>Corporate actors in capitalist food systems continue to consolidate ownership of the means of production in ever fewer hands, posing a critical barrier to food sovereignty and to an agroecological transition. Further, corporate influence on the state is often direct and blatant, but there are also more insidious governance barriers– hegemonic structures of power and ‘common sense’ theories of value that exclude smallholders and local communities from participation in decision-making processes. This is especially pertinent in land use planning and in building processing facilities, usually referred to as ‘value chain infrastructure’, or what I call the ‘intrinsic infrastructure of agroecology’. Using a case study approach, I evaluate the successes and failures of two campaigns for agrarian reform in the Australian state of Victoria, concluding that civil society must act collectively to gain the thick legitimacy needed to work with the state to enact enabling policies for an agroecological transition. © The Author(s) 2024.</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -692,15 +692,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Representing justice in global land-use scenarios can align biodiversity benefits with protection from land grabbing</t>
+          <t>“Listen to us”: small-scale farmers’ understandings of social-ecological changes and their drivers in Important Agricultural Heritage Systems</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Protecting biodiversity while meeting food demands is a critical challenge due to rising competition over land. The predominant focus on spatial efficiency in land-use modeling frameworks can dichotomize these objectives and ignore local realities by disregarding biodiversity outside priority areas and the land-use needs of communities who depend on local land systems for their nutrition. We develop a spatially explicit exploratory scenario for 2050 that promotes whole-region biodiversity intactness using a land-system-specific intactness index and incorporates differentiated food futures by protecting important land systems for land-dependent communities from conversion for larger-scale objectives. These are pursued alongside SSP2 “business-as-usual” agricultural demands, uncovering potential tradeoffs. Our results highlight the importance of forest mosaics in agricultural landscapes alongside targeted intensification for meeting food and biodiversity goals and that protecting land-dependent communities does not compromise larger-scale objectives. This demonstrates that land-use models can integrate diverse values, including certain conceptualizations of justice, into sustainability scenarios. © 2024 Elsevier Inc.</t>
+          <t>Current social-ecological changes affect territories and people’s livelihoods worldwide. Many of these changes have detrimental effects on small-scale agricultural systems, with concomitant negative consequences on global and local food security and sovereignty. The objectives of this study were to explore (i) local knowledge on social-ecological changes and (ii) the perceived drivers of those changes occurring in a mountainscape and an islandscape in two Important Agricultural Heritage Systems of southern South America, both located within a Global Biodiversity Hotspot. This was done by conducting in-depth semi-structured interviews with local campesinos, whose livelihoods are based on the use and management of agrosilvopastoral systems. We found that local communities experience a wide range of globally and locally induced social-ecological changes acting in their territories. Campesinos mentioned 79 different observations of social-ecological changes and identified drivers for 77% of them. Changes in the atmospheric system, specifically regarding changes in precipitation, drought, and temperatures, were commonly observed by campesinos in both sites. Participants also observed complex interrelations between these changes and the drivers influencing them, climatic drivers being the most important. Even though general changes in climatic patterns were identified as drivers of changes by campesinos, other situated changes derived from the site’s biophysical, social, and economic conditions were also important. Our results highlight the importance of considering local knowledge to understand social-ecological changes and to support the development and implementation of public policies that promote contextualized adaptation measures to global changes that affect local livelihoods. © 2023, The Author(s).</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -728,15 +728,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The doctors of agrifood studies</t>
+          <t>Social enterprise, food justice, and food sovereignty: Strange bedfellows or systemic supports?</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>The Agriculture, Food and Human Values Society and the journal Agriculture and Human Values provided a crucial intellectual space for the early transdisciplinary critique of the industrial agrifood system. This paper describes that process and presents the concept of “The Doctors of Agrifood Studies” as a metaphor for the key role critical agrifood social scientists played in documenting the unsustainability of conventional agriculture and working to create an alternative, ethical, sustainable agrifood system. After the introduction, the paper details the “Critical Turn” in agrifood studies, followed by a reconsideration of my “Four Questions” framework, focusing on the current tension between the food security and food sovereignty discourses and movements. © 2022, The Author(s), under exclusive licence to Springer Nature B.V.</t>
+          <t>There is a debate in the literature about whether one can address food system problems with mar-ket-based approaches while seeking food justice or food sovereignty. However, as part of a team of researchers and community leaders, we have found that this debate is less relevant in practice. The concepts are interrelated within real-world food systems. As such, we were motivated to ask, how do social enterprises (SEs) interact with food jus- tice and food sovereignty movements and their visions in order to realize more democratic and equitable local food systems in communities? To answer this question, we conducted a systematic review at the intersection of SE, food sovereignty, and food justice literature. Analyzing nine articles, which included 17 food-related SEs, we found evidence of potential interactions between food SEs, food justice, and food sovereignty that are compat-ible (e.g., create employment) and incompatible (e.g., limited ability to address issues like community employability and green gentrification). The literature includes at least three important character-istics that inform how food-related SEs may interact with food justice and sovereignty, includ-ing employee and ownership demographics, the enterprise business model, and aspects of the food system targeted by the enterprise via market activi-ties. If we consider a systems perspective, we can envision the ways in which the aspects are embed-ded and interdependent in a neoliberal society. SEs, as market-based agents for social change, exist in the same system as justice and sovereignty. © 2024 by the Authors. Published by the Lyson Center for Civic Agriculture and Food Systems.</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -764,15 +764,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Food systems in depressed and contested agro-territories: Participatory Rural Appraisal in Odemira, Portugal</t>
+          <t>Representing justice in global land-use scenarios can align biodiversity benefits with protection from land grabbing</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Farming regions in Europe, particularly in the South, are increasingly feeling the effects of climate change due to factors such as drought, extreme weather events, and desertification, with severe consequences for food security and food sovereignty. Additionally, decades of rural mismanagement have left countless of these farming territories severely depressed as well as at the mercy of competition for their natural resources. This paper presents and discusses the results of a Participatory Rural Appraisal conducted in the region of Odemira, Southwest Portugal. Rooted in the frameworks of agroecology and food democracy, this mixed methodology aims to support people in multiply stressed agro-territories to diagnose the state of their food systems and agroecosystems from a democratic and ecological point of view and engage local actors in imagining fairer and healthier food futures for their regions. Local food actors were invited to identify and qualify the main problems in the region's food systems, complemented by an agroecological assessment of farm production systems. The results of the study confirm the status of Odemira as a depressed and contested agro-territory, whose social, economic, and ecological vulnerability is being compounded by the clash between the model of traditional smallholder farming and that of large-scale intensive agriculture. The study also shows the potential of sustainable farming practices as well as collaboration between the different food actors to support an agroecological transition in the region. However, to jointly realise food democracy and food system sustainability, the tensions resulting from the current political support for hyper-industrialisation and the lack of democratic, institutional, and legal mechanisms available to local actors will need to be addressed head-on. Copyright © 2023 Horstink, Schwemmlein and Encarnação.</t>
+          <t>Protecting biodiversity while meeting food demands is a critical challenge due to rising competition over land. The predominant focus on spatial efficiency in land-use modeling frameworks can dichotomize these objectives and ignore local realities by disregarding biodiversity outside priority areas and the land-use needs of communities who depend on local land systems for their nutrition. We develop a spatially explicit exploratory scenario for 2050 that promotes whole-region biodiversity intactness using a land-system-specific intactness index and incorporates differentiated food futures by protecting important land systems for land-dependent communities from conversion for larger-scale objectives. These are pursued alongside SSP2 “business-as-usual” agricultural demands, uncovering potential tradeoffs. Our results highlight the importance of forest mosaics in agricultural landscapes alongside targeted intensification for meeting food and biodiversity goals and that protecting land-dependent communities does not compromise larger-scale objectives. This demonstrates that land-use models can integrate diverse values, including certain conceptualizations of justice, into sustainability scenarios. © 2024 Elsevier Inc.</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -800,15 +800,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Accessing biological control genetic resources and sharing benefits resulting from their utilization</t>
+          <t>Sustainable farm work in agroecology: how do systemic factors matter?</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>With the adoption of the Convention on Biological Diversity (CBD) in 1992, the sovereign rights of states over their natural resources were explicitly recognized and the authority of national governments to determine access to genetic resources confirmed. The CBD had a major impact on the global exchange of genetic resources, including genetic resources for food and agriculture. At national level, the CBD triggered the development of access and benefit-sharing (ABS) measures through which governments aim to enforce national sovereignty over genetic resources with the aim to partake in the benefits derived from the use of these resources. At global level, the CBD triggered multiple normative initiatives, including the adoption of an international instrument on plant genetic resources and the development of a Protocol to the CBD. The history of the Commission on Genetic Resources for Food and Agriculture, established in 1983 by the Food and Agriculture Organization of the United Nations (FAO), is paradigmatic for the historical transition from “common heritage” to “national sovereignty” over biological diversity, including genetic resources. This article briefly recapitulates key milestones in the development of ABS policies and measures. The article identifies some of the difficulties ABS measures may create for relevant stakeholders, in particular the biological control sector and explores options for this sector to cope with the new reality of the Nagoya Protocol and the diversity of national ABS measures. It is of pivotal importance that national governments when developing and implementing ABS measures take into account the distinctive needs and features of the food and agriculture sector, including those of the biological control sector. © 2023, Food and Agriculture Organization of the United Nations, under exclusive licence to International Organization for Biological Control.</t>
+          <t>Agroecological farming is widely considered to reconcile improved working and living conditions of farmers while promoting social, economic, and ecological sustainability. However, most existing research primarily focuses on relatively narrow trade-offs between workload, economic and ecological outcomes at farm level and overlooks the critical role of contextual factors. This article conducts a critical literature review on the complex nature of agroecological farm work and proposes the holistic concept of sustainable farm work (SFW) in agroecology together with a heuristic evaluation framework. The latter was applied to ten case studies to test its relevance, affirming positive outcomes of agroecology on SFW, such as improved food sovereignty, biodiversity conservation, and social inclusiveness, but also showing trade-offs, including increased workload and potential yield reductions. Further, results show that contextual factors, such as policy support, market regulation, and access to resources, heavily influence the impact of agroecological practices on SFW. This article strongly argues for the importance of a holistic understanding of SFW and its contextualization within multiple socio-ecological system levels. The proposed framework establishes clear relationships between agroecology and SFW. An explicit recognition of these multidimensional relationships is essential for maximizing positive outcomes of agroecology in different contexts and fostering SFW. On a theoretical level, this research concludes that, from a holistic perspective, work is an entry point to studying the potential of agroecology to drive a sustainable agroecological transition in economic, social, and ecological terms. © The Author(s) 2024.</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -836,7 +836,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Unraveling On-Farm Wheat Loss in Fars Province, Iran: A Qualitative Analysis and Exploration of Potential Solutions with Emphasis on Agricultural Cooperatives</t>
+          <t>The doctors of agrifood studies</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -844,7 +844,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Given wheat’s global significance as a primary food crop, and its importance in providing essential nutrition to millions of people worldwide, reducing on-farm losses is crucial to promoting food security, sustainable agriculture, and economic stability. Wheat plays a critical role in food security in Iran, as it is a staple food consumed daily by a large proportion of the population, and is also a vital component of the country’s food self-sufficiency policy. The present study aims to identify the causes and extent of on-farm wheat loss in Fars province, a major wheat-producing area in Iran. Nine experts were interviewed, using open-ended questions, in October 2018. The study revealed that a considerable amount of wheat is lost due to seed overuse, pest infestation, and improper harvesting. The paper discusses the underlying factors associated with these over-arching causes, and highlights their adverse environmental, economic, and societal impacts. The paper also explores potential approaches to take in addressing the issue, and suggests empowering agricultural cooperatives through changes in the government’s engagement with wheat production. This study provides valuable insights for policymakers and stakeholders which are useful for developing effective strategies to reduce on-farm loss, particularly in countries where intensified farming is promoted. These strategies may include limiting the government’s central control and, instead, empowering agricultural cooperatives, as well as adopting supportive approaches, such as improving farmers’ access to proper machinery, and enhancing their sovereignty and freedom. © 2023 by the authors.</t>
+          <t>The Agriculture, Food and Human Values Society and the journal Agriculture and Human Values provided a crucial intellectual space for the early transdisciplinary critique of the industrial agrifood system. This paper describes that process and presents the concept of “The Doctors of Agrifood Studies” as a metaphor for the key role critical agrifood social scientists played in documenting the unsustainability of conventional agriculture and working to create an alternative, ethical, sustainable agrifood system. After the introduction, the paper details the “Critical Turn” in agrifood studies, followed by a reconsideration of my “Four Questions” framework, focusing on the current tension between the food security and food sovereignty discourses and movements. © 2022, The Author(s), under exclusive licence to Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -872,7 +872,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Localization of the corporate food regime and the food sovereignty movement: taiwan’s food sovereignty movement under “third regionalism”</t>
+          <t>Food systems in depressed and contested agro-territories: Participatory Rural Appraisal in Odemira, Portugal</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -880,7 +880,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Third regionalism explains the liberalization of trade centered around the Asia-Pacific region in the 21st century. Under regionalism, domestic agricultural markets that formerly enjoyed national food-security policies have loosened. This caused traditional domestic farmers’ organizations to become more regionally interconnected, forming a food sovereignty movement under the auspices of La Via Campesina. Localized food-production chains are promoted to mitigate the impact of regionalism on the Asia-Pacific agricultural sector. The Taiwan Rural Front (TRF) joined La Via Campesina and the food sovereignty movement in the 2010s. During the process of adopting regionalism, Taiwanese agricultural trade and technologies were protected by public agencies and state-owned enterprises. This context differs from that of Southeast Asia, where the food sovereignty movement has thrived. Therefore, the following question is raised: Why was it possible for the food sovereignty movement to originate in Taiwan? This paper describes the developmental characteristics of Taiwan’s food-security governance mechanism as a state-guided corporate food regime amid third regionalism. Further, the TRF does not advocate for localized food-production chains. Due to the formation of a state-guided corporate food regime, the food sovereignty movement has become connected with farmland protection movements that set the Taiwanese sovereignty movement apart. © 2022 Association for the Study of Food and Society.</t>
+          <t>Farming regions in Europe, particularly in the South, are increasingly feeling the effects of climate change due to factors such as drought, extreme weather events, and desertification, with severe consequences for food security and food sovereignty. Additionally, decades of rural mismanagement have left countless of these farming territories severely depressed as well as at the mercy of competition for their natural resources. This paper presents and discusses the results of a Participatory Rural Appraisal conducted in the region of Odemira, Southwest Portugal. Rooted in the frameworks of agroecology and food democracy, this mixed methodology aims to support people in multiply stressed agro-territories to diagnose the state of their food systems and agroecosystems from a democratic and ecological point of view and engage local actors in imagining fairer and healthier food futures for their regions. Local food actors were invited to identify and qualify the main problems in the region's food systems, complemented by an agroecological assessment of farm production systems. The results of the study confirm the status of Odemira as a depressed and contested agro-territory, whose social, economic, and ecological vulnerability is being compounded by the clash between the model of traditional smallholder farming and that of large-scale intensive agriculture. The study also shows the potential of sustainable farming practices as well as collaboration between the different food actors to support an agroecological transition in the region. However, to jointly realise food democracy and food system sustainability, the tensions resulting from the current political support for hyper-industrialisation and the lack of democratic, institutional, and legal mechanisms available to local actors will need to be addressed head-on. Copyright © 2023 Horstink, Schwemmlein and Encarnação.</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -908,7 +908,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Reimagining the Food System: Kropotkin, Food Sovereignty and OrganicLea</t>
+          <t>Food security in times of war: Double discourse and violent conflicts. The case of Russia, 2014–2022</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -916,7 +916,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>This paper explores the similarities between Kropotkin’s vision of a just food system and the food sovereignty movement, with the concrete example of the work of OrganicLea. It will begin with an analysis of the deepening problems of our food system through food insecurity and its negative impact upon the environment. The second part will introduce the idea of food sovereignty and show how it intersects with Kropotkin’s work, with it being argued that a just food system is one that recognises central aspects of both; alongside local and collective ownership, the well-being of all, regenerative agriculture and a commitment to wider social and environmental justice. I will then show how such principles are being put into practice through the work and direct action of OrganicLea. This will reveal how Kropotkin’s thought is still relevant today and how it can be used to address contemporary concerns such as food insecurity and climate change. The paper will also consider the limitations of Kropotkin, including his time-restricted ideas, and the need for new perspectives such as those found in OrganicLea and the food sovereignty movement. © 2023, Lawrence and Wishart. All rights reserved.</t>
+          <t>The food security doctrine was adopted by the Russian Federation in 2010. Developed under the leadership of President Dmitry Medvedev, it established food security as a central component of national security. The concept emerged as an issue of global public debate in response to the 2006–2008 hunger crisis in the Global South. In Russia though, the initial interpretation of the concept, which emphasised the accessibility of food resources, was transformed into a slogan advocating domestic agri-food production. The article examines the Russian case from 2014 to 2022. It analyses how the narrative on food security constructs common goods such as ‘domestic territory’ or ‘food sovereignty’ and its subsequent implications for the prioritisation of certain values (e.g. production, sovereignty), social groups (e.g. producers over consumers), and roles in economic life (e.g. trade). Finally, this article will incorporate an updated analysis of official discourses on food security produced by the government following the invasion of Ukraine in 2022. © The Author(s) 2023.</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -944,7 +944,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Flavour, culture and food security: The spicy entanglements of chile pepper conservation in 21st century Mexico</t>
+          <t>Resilience processes and positioning of agroecological farmers in an urban horticultural fair in northwest Patagonia</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -952,7 +952,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Political interests and power structures shape state-led crop conservation and food policy. As a crop that relates to culture and belonging, the chile crop is ideal for exploring how food security policy and crop conservation schemes integrate aspects beyond staple crops, calories and/or electoral incentives. What do these schemes mean for the food and ingredients we love? Reflecting from this perspective can be useful to grasp, re-frame and create more effective and inclusive food policies—ones that embody and valorise flavour, identities and territories beyond statements on paper. Summary: In line with the Food and Agriculture Organisation's (FAO) international action plan for crop genetic resources, the Mexican state inaugurated the National System of Genetic Resources for Food and Agriculture (SINAREFI) in 2002. In this paper, I explore SINAREFI's interest in landraces and in situ conservation through the case of chile pepper, set under the Ministry of Agriculture's interests of promoting industrial agriculture and paternalistic food security welfare programmes. Through the analyses of existing literature on food security in Mexico state programmes, archival work and interviews, this article analyses how discourses on food security shape research trajectories, some of which are inevitably constrained by current market-based agricultural systems. By exploring the state's chile research and conservation programme, this work demonstrates the complexity of international food security discourse and its application domestically. Particularly, this analysis highlights the limitations of state crop research and conservation efforts imposed by contradictory agricultural policies. In the case of chile, its link to Mexican culture and diet uncovers an important, but often overlooked, aspect of food security: flavour. In the case of chile, a non-staple but culturally symbolic crop, welfare programmes remained paternalistic and focused on caloric intake despite the transformation of national discourse on food security towards the integration of landraces and local cultures through the inauguration of SINAREFI. This case study reflects on the limits of current framings and strategies regarding food security and the need to direct policies towards local food sovereignty to achieve the necessary stability for food security to endure. © 2023 The Authors. Plants, People, Planet published by John Wiley &amp; Sons Ltd on behalf of New Phytologist Foundation.</t>
+          <t>Background: Horticultural fairs are spaces that promote regional agrobiodiversity, transmitting and recreating multiple knowledge and emotions between horticulturists and customers. The adaptive processes by which fairs are sustained over time in the face of socio-economic, climatic, and sanitary changes are still little known. Considering the principles of socio-environmental resilience, the aims of this research were: 1) to analyze the positionings of horticulturists that favor the process of resilience in the Free Fair of Family Farmers from Nahuel Huapi, San Carlos de Bariloche (Patagonia, Argentina) and 2) to reflect on the vulnerabilities and challenges faced by this fair for its sustainability over time. Methods: A qualitative study was carried out that included interviews, participant observation, and virtual ethnography. Results: One hundred and eighty-six ethnospecies, mostly of exotic origin (99%) are part of the agrobiodiversity of the fair. The main principles that foster the resilience of the fair are: high agrobiodiversity and functional redundancy that reflect and promote local food customs; learning and connectivity for innovation and information exchange; and cooperation and adaptive systemic thinking based on experiences, attachment to the land, and reciprocity. The affective dimension crosses each of these principles, strengthening the cultural fabric of horticulturists and customers. However, the economic and cultural viability of the fair is uncertain, mainly due to the drastic socio-environmental changes that the region is experiencing. Conclusions: To reduce the vulnerabilities of the fair, it will be necessary to strengthen the principles mentioned above and to increase the participation of the broader levels of governance (technical and governmental sectors). © 2023, Ilia State University, Institute of Botany, Department of Ethnobotany. All rights reserved.</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -980,7 +980,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Rethinking scientists’ ongoing participation in “feeding the world”</t>
+          <t>Biodiversity of Soil Mesofauna Associated with the Design of Home Gardens in Mapuche Agroecosystems—Case Study in the Araucanía Region</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -988,7 +988,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Agricultural science necessarily involves a commitment to some form of humanitarian and environmental ethics. For the past century, agricultural science has been based on a productivist ethic of maximizing agricultural production in pursuit or support of food security. Recognition of the ethical and political disposition of contemporary agricultural science can help scientists reorient their work to better address the urgent problems of the upcoming century: environmental degradation, climate change, and social inequality. A commitment to solving these problems is well within the scope of modern agricultural science. Supporting and furthering multidimensional food systems should replace productivism as an explicit goal of agricultural development and scientific innovation. Copyright © 2023 Haring, Pesci Schmulevich, Manser and Cooper.</t>
+          <t>Home gardens play a transcendental role in food sovereignty, for which the management of habitats above ground and underground are complementary strategies. This study aims to compare the biodiversity of soil mesofauna groups between agroecosystems with a conventional and an agroecological design. Through the combination of quantitative (plant inventories) and qualitative (mobile interviewing and talking maps) techniques, the units of this study was described. Soil samples were mounted in a Berlesse–Tullgren system, and the abundance, richness, diversity, and equality of soil organisms were determined. The relationships between functional groups were compared taxonomically and biocenotically. The results indicated higher equality in the conventional home garden, while the communities studied present a medium taxocenotic similarity, without great biocenotic differences. The diversity and richness of taxa, as well as the abundance in each group identified, were higher in the agroecological garden, which had more medicinal and aromatic plants. © 2023 by the authors.</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parity as radical pragmatism: Centering farm justice and agrarian expertise in agricultural policy</t>
+          <t>Unraveling On-Farm Wheat Loss in Fars Province, Iran: A Qualitative Analysis and Exploration of Potential Solutions with Emphasis on Agricultural Cooperatives</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Rather than treating symptoms of a destructive agri-food system, agricultural policy, research, and advocacy need both to address the root causes of dysfunction and to learn from longstanding interventions to counter it. Specifically, this paper focuses on agricultural parity policies – farmer-led, government-enacted programs to secure a price floor and manage supply to prevent the economic and ecological devastation of unfettered corporate agro-capitalism. Though these programs remain off the radar in dominant policy, scholarship, and civil society activism, but in the past few years, vast swaths of humanity have mobilized in India to call for agri-food systems transformation through farmgate pricing and market protections. This paper asks what constitutes true farm justice and how it could be updated and expanded as an avenue for radically reimagining agriculture and thus food systems at large. Parity refers to both a pricing ratio to ensure livelihood, but also a broader farm justice movement built on principles of fair farmgate prices and cooperatively coordinated supply management. The programs and principles are now mostly considered “radical,” deemed inefficient, irrelevant, obsolete, and grievous government overeach—but from the vantage, we argue, of a system that profits from commodity crop overproduction and agroindustry consolidation. However, by examining parity through a producer-centric lens cognizant of farmers‘ ability, desire, and need to care for the land, ideas of price protection and supply coordination become foundational, so that farmers can make a dignified livelihood stewarding land and water while producing nourishing food. This paradox—that an agricultural governance principle can seem both radical and common sense, far-fetched and pragmatic—deserves attention and analysis. As overall numbers of farmers decline in Global North contexts, their voices dwindle from these conversations, leaving space for worldviews favoring de-agrarianization altogether. In Global South contexts maintaining robust farming populations, such policies for deliberate de-agrarianization bely an aggression toward rural and peasant ways of life and land tenure. Alongside the history of parity programs, principles, and movements in U.S., the paper will examine a vast version of a parity program in India – the Minimum Support Price (MSP) system, which Indian farmers defended and now struggle to expand into a legal right. From East India to the plains of the United States and beyond, parity principles and programs have the potential to offer a pragmatic direction for countering global agro-industrial corporate capture, along with its de-agrarianization, and environmental destruction. The paper explores what and why of parity programs and movements, even as it addresses the complexity of how international parity agreements would unfold. It ends with the need for global supply coordination grounded in food sovereignty and solidarity, and thus the methodological urgency of centering farm justice and agrarian expertise. Copyright © 2023 Graddy-Lovelace, Krikorian, Jewett, Vivekanandan, Stahl, Singh, Wilson, Naylor, Naylor and Pennick.</t>
+          <t>Given wheat’s global significance as a primary food crop, and its importance in providing essential nutrition to millions of people worldwide, reducing on-farm losses is crucial to promoting food security, sustainable agriculture, and economic stability. Wheat plays a critical role in food security in Iran, as it is a staple food consumed daily by a large proportion of the population, and is also a vital component of the country’s food self-sufficiency policy. The present study aims to identify the causes and extent of on-farm wheat loss in Fars province, a major wheat-producing area in Iran. Nine experts were interviewed, using open-ended questions, in October 2018. The study revealed that a considerable amount of wheat is lost due to seed overuse, pest infestation, and improper harvesting. The paper discusses the underlying factors associated with these over-arching causes, and highlights their adverse environmental, economic, and societal impacts. The paper also explores potential approaches to take in addressing the issue, and suggests empowering agricultural cooperatives through changes in the government’s engagement with wheat production. This study provides valuable insights for policymakers and stakeholders which are useful for developing effective strategies to reduce on-farm loss, particularly in countries where intensified farming is promoted. These strategies may include limiting the government’s central control and, instead, empowering agricultural cooperatives, as well as adopting supportive approaches, such as improving farmers’ access to proper machinery, and enhancing their sovereignty and freedom. © 2023 by the authors.</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Food anarchy and the State monopoly on hunger</t>
+          <t>Reuniting the Three Sisters: collaborative science with Native growers to improve soil and community health</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>This article applies an anarchist lens to the food sovereignty movement. It analyzes food regimes as capitalist agriculture regimes which rely on the State’s monopoly on hunger, wherein the State relies on the dispossession of people from their land and food systems, the protection of property, and the primacy of capital. The interdependence of this State-capital-property trinity is violently enforced, and manufactures compliance through counterinsurgent strategies of social war. The State monopoly on hunger justifies a new offshoot of the larger food sovereignty movement, a prefigurative praxis which dismantles all food regimes to build new counter-worlds: food anarchy. © 2022 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Before Euro-American settlement, many Native American nations intercropped maize (Zea mays), beans (Phaseolus vulgaris), and squash (Cucurbita pepo) in what is colloquially called the “Three Sisters.” Here we review the historic importance and consequences of rejuvenation of Three Sisters intercropping (3SI), outline a framework to engage Native growers in community science with positive feedbacks to university research, and present preliminary findings from ethnography and a randomized, replicated 3SI experiment. We developed mutually beneficial collaborative research agendas with four Midwestern US Native American nations. Ethnographic data highlighted a culturally based respect for 3SI as living beings, the importance it holds for all cultural facets of these Native nations, and the critical impact the practice has on environmental sustainability. One concern expressed by Native growers during ethnographic research was improving soil health—part of the rationale for establishing the 3SI agronomic experiment. To address this, we collaboratively designed a 3SI experiment. After 1 year, 3SI increased short-term soil respiration by 24%, decreased salt-extractable nitrate by 54%, had no effect on soil microbial biomass (but increased its carbon-to-nitrogen ratio by 32%) compared to the average of monoculture crops. The overarching purpose of this collaborative project is to develop a deeper understanding of 3SI, its cultural importance to Native communities, and how reinvigorating the practice—and intercropping in general—can make agroecosystems more sustainable for people and the environment. © 2022, The Author(s).</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1088,15 +1088,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Characterization of the Territory and Estimation of a Synthetic Index of Social Welfare</t>
+          <t>Localization of the corporate food regime and the food sovereignty movement: taiwan’s food sovereignty movement under “third regionalism”</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>The rural approach to territorial development has challenged globalization; the countries have opened their agricultural borders through trade agreements that benefit the rural sector. Europe has become an agricultural power, leading the design of foreign trade policies for products of agricultural origin, expanding its areas of influence to underdeveloped countries, proposing changes in the world economy. This approach proposes to build and strengthen cultural identity in rural territories and improving the quality of life. This research proposes the development of a synthetic well-being index for fifteen rural municipalities in the province of Malaga, in the south of the Autonomous Community of Andalusia. The results show that the results of the studied territories are homogeneous, with small differences in the capital of the Antequera Region. © 2022 María‐Salomé Ochoa‐Rico et al.</t>
+          <t>Third regionalism explains the liberalization of trade centered around the Asia-Pacific region in the 21st century. Under regionalism, domestic agricultural markets that formerly enjoyed national food-security policies have loosened. This caused traditional domestic farmers’ organizations to become more regionally interconnected, forming a food sovereignty movement under the auspices of La Via Campesina. Localized food-production chains are promoted to mitigate the impact of regionalism on the Asia-Pacific agricultural sector. The Taiwan Rural Front (TRF) joined La Via Campesina and the food sovereignty movement in the 2010s. During the process of adopting regionalism, Taiwanese agricultural trade and technologies were protected by public agencies and state-owned enterprises. This context differs from that of Southeast Asia, where the food sovereignty movement has thrived. Therefore, the following question is raised: Why was it possible for the food sovereignty movement to originate in Taiwan? This paper describes the developmental characteristics of Taiwan’s food-security governance mechanism as a state-guided corporate food regime amid third regionalism. Further, the TRF does not advocate for localized food-production chains. Due to the formation of a state-guided corporate food regime, the food sovereignty movement has become connected with farmland protection movements that set the Taiwanese sovereignty movement apart. © 2022 Association for the Study of Food and Society.</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1124,15 +1124,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Why do some Participatory Guarantee Systems emerge, become effective, and are sustained over time, while others fail? An application of the Ostrom social-ecological system framework</t>
+          <t>The making of peasant subalternity in Portugal: histories of marginalisation and resistance to agrarian modernisation</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Participatory Guarantee Systems (PGS) can play an important role in territorial re-embedding of agri-food systems into their Social-Ecological Systems (SES), thereby stimulating multifunctionality of agriculture and the diversification of the production system. This represents an opportunity to promote endogenous rural development, employment and the viability of rural communities, as well as to support family agriculture, food sovereignty, and food security. However, the underlying biophysical, social, and economic conditions of the SES that affect the likelihood of building these institutions through collective action have hardly been studied. In order to explore this, we used the conceptual framework of SES designed by Elinor Ostrom to identify the conditions under which PGS, and the collective action that created them, emerge, become effective, and are sustained over time. This information may help land managers, policy makers, and planners to design policies that facilitate the building of effective and sustainable PGS over time. © 2022 Elsevier Ltd</t>
+          <t>This paper examines how marginalised, small-scale family farmers have been facing the difficulties of agrarian modernisation in Portugal. Central to the history of contemporary peasants in this country is their continuous subordination to the power of agrarian capital and landed elites. But subaltern peasants have mobilised, particularly through CNA, a Vía Campesina member organisation, to build an oppositional project, not without tensions. The article argues that a Gramscian notion of subalternity offers a powerful lens to analyse the links between agrarian change, conflict and resistance for its focus on uneven power relations and by emphasising the centrality of social struggle. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1160,15 +1160,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Autonomy and repeasantization: Conceptual, analytical, and methodological problems</t>
+          <t>Reimagining the Food System: Kropotkin, Food Sovereignty and OrganicLea</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>“Autonomy,” as a desirable state, is a notion often used by food sovereignty-oriented farmer movements and scholars studying repeasantization. The term is predominantly used rather casually, relying on presumed meanings, but van der Ploeg's book The New Peasantries seeks to elaborate a particular meaning of autonomy as a characteristic feature of the peasantry. The desire of farmers/peasants for autonomy is formulated in tandem with agroecological agriculture, farmers' agency, locally “nested” markets, co-production with nature, non-commoditized production, and multiple kinds of peasant resistance. This article identifies the distinctive nature of this take on autonomy and analyses its analytical, normative, and political aspects. It develops several critiques regarding the analytical shortcomings of the notion of peasant autonomy: the methodological problem of a peasant bias; the analytical limitations and incompatibility of intrinsic and “relative” autonomy; and the neglect of accumulation from below and subtle class contradictions. Rather than centring autonomy or relative autonomy, the authors argue for shifting the focus to the nature of different types of dependency relationships, ranging from very exploitative to those vital for human flourishing. © 2021 The Authors. Journal of Agrarian Change published by John Wiley &amp; Sons Ltd.</t>
+          <t>This paper explores the similarities between Kropotkin’s vision of a just food system and the food sovereignty movement, with the concrete example of the work of OrganicLea. It will begin with an analysis of the deepening problems of our food system through food insecurity and its negative impact upon the environment. The second part will introduce the idea of food sovereignty and show how it intersects with Kropotkin’s work, with it being argued that a just food system is one that recognises central aspects of both; alongside local and collective ownership, the well-being of all, regenerative agriculture and a commitment to wider social and environmental justice. I will then show how such principles are being put into practice through the work and direct action of OrganicLea. This will reveal how Kropotkin’s thought is still relevant today and how it can be used to address contemporary concerns such as food insecurity and climate change. The paper will also consider the limitations of Kropotkin, including his time-restricted ideas, and the need for new perspectives such as those found in OrganicLea and the food sovereignty movement. © 2023, Lawrence and Wishart. All rights reserved.</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1196,15 +1196,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Policies and practices of central and sub-national governments for seed commons formation in Japan: will the seeds of the varieties collected and developed be shared?</t>
+          <t>The Rise of Asia-Pacific Agribusiness in the Global South—The Corporate Food Regime Under the Third Regionalism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Proponents of agroecology and food sovereignty are trying to form seed commons as a framework against the formal seed systems established by governments. However, we argue that the formation of seed commons should not be considered as a dichotomy that distinguishes between the government and stakeholders, including farmers, but rather as a dichotomy that divides the scope of activities into those regulated by law and those that can be determined by farmers at their own discretion. Japan, like many other countries, is a signatory to the International Treaty on Plant Genetic Resources for Food and Agriculture and the International Union for the Protection of New Varieties of Plants, both of which contain important elements for the conservation of agricultural biodiversity and agroecology at the national and local level. Based on the proposed dichotomy, this study aims to explore the possibility of creating seed commons for seed sharing in Japan. We clarify the policies and actual conditions surrounding the access and use of seeds and explore the possibility of creating seed commons. © 2021 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Food regime theory asserts that the Global North has controlled food production chains since the 1800s, establishing a corporate food regime in the late 1980s. Through liberalization, Northern food corporations became powerful, leading the contemporary food regime and even replacing states. However, Global South corporations in the Asia-Pacific have grown to become important players in corporate food regimes. Through a literature review, content analysis, and interviews, this study leverages Third Regionalism as the theoretical approach to supplement the food regime theory, and explains how Third Regionalism featured free trade agreements established by Asia-Pacific countries, and how it supported the rapid rise of Southern food corporations. Regionalism helped Asia-Pacific Southern corporations become important figures in the contemporary corporate food regime, reinforcing the Global South’s food security and the livelihood sovereignty aspect of food sovereignty. The stances of Global South food sovereignty groups toward genetically modified crops are shifting and worthy of continued consideration. © The Author(s) 2023.</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1232,15 +1232,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Does ‘food sovereignty’ engender paradigm shift or co-optation? Insights from Nepal</t>
+          <t>Rethinking scientists’ ongoing participation in “feeding the world”</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Food sovereignty proponents find the terms ‘security’ and ‘right’ associated with ‘food’ as not covering the entire gamut of food and agricultural issues, especially in addressing small farmers’ and peasants’ concerns and ensuring sustainable agriculture development. Hence, they have conceptualized an alternative food paradigm and called it ‘food sovereignty’. However, food sovereignty has been interpreted and operationalized in various forms. Perhaps the choice of the term sovereignty has rendered the idea of food sovereignty ideal for co-optation because sovereignty is a historically and politically contested concept with multiple meanings attached to it. Some scholars argue that there are multiple sovereignties in food sovereignty that can be reconciled. This article analyses the case of Nepal that has adopted the idea of food sovereignty, and finds that the argument of multiple sovereignties exercised through relational and interactive measures can only be aspirational and normative at best. © 2022 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Agricultural science necessarily involves a commitment to some form of humanitarian and environmental ethics. For the past century, agricultural science has been based on a productivist ethic of maximizing agricultural production in pursuit or support of food security. Recognition of the ethical and political disposition of contemporary agricultural science can help scientists reorient their work to better address the urgent problems of the upcoming century: environmental degradation, climate change, and social inequality. A commitment to solving these problems is well within the scope of modern agricultural science. Supporting and furthering multidimensional food systems should replace productivism as an explicit goal of agricultural development and scientific innovation. Copyright © 2023 Haring, Pesci Schmulevich, Manser and Cooper.</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1268,15 +1268,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Farm-level pathways to food security: beyond missing markets and irrational peasants</t>
+          <t>Food anarchy and the State monopoly on hunger</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Development projects in Sub-Saharan Africa propose to alleviate hunger in rural areas by introducing new agricultural practices and technologies, yet there is limited empirical evidence of how an agricultural intervention can lead farming households to transition to food security. Research on food security pathways considers agricultural interventions that increase farmers’ income to be particularly effective for reducing food insecurity. Consistent with this stance, Malawian agricultural policy aims to address hunger by encouraging smallholder farmers to intensify and commercialize maize production. This paper explores if smallholders’ market and livelihood orientations do indeed lead them to favor an income pathway to food security. Qualitative analysis of 60 smallholder farmer interviews in Malawi found that, upon achieving improvements in production yields and diversity, rather than commercialize, many farmers re-organized their production and consumption to reduce market dependency. Farmers deployed this strategy to increase their food security, explaining that the choice to self-provision food and farming inputs was both an expression of farming identity and a lived understanding of their marginal position in commodity markets. The author finds that, in failing to consider how production relations affect food access, scholarship inadequately theorizes farm-level food security transitions and reproduces discursive framings of hunger. Food sovereignty narratives more accurately captured what mattered for Malawian smallholders’ food security, suggesting that engagement with this concept could improve scientific understandings of food security transitions. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
+          <t>This article applies an anarchist lens to the food sovereignty movement. It analyzes food regimes as capitalist agriculture regimes which rely on the State’s monopoly on hunger, wherein the State relies on the dispossession of people from their land and food systems, the protection of property, and the primacy of capital. The interdependence of this State-capital-property trinity is violently enforced, and manufactures compliance through counterinsurgent strategies of social war. The State monopoly on hunger justifies a new offshoot of the larger food sovereignty movement, a prefigurative praxis which dismantles all food regimes to build new counter-worlds: food anarchy. © 2022 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1304,15 +1304,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>China and the UN Food System Summit: Silenced Disputes and Ambivalence on Food Safety, Sovereignty, Justice, and Resilience</t>
+          <t>Perspectives on strengthening local food systems in Small Island Developing States</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>China is a major agricultural power. It dramatically reduced hunger and increased its role in many forums for international governance. However, the Chinese government and society neither played a prominent role in the UNFSS nor in its critique. This article exposes how tensions and ambivalence about agroecology and food sovereignty in China create silences in these discussions, and addressing them within China can also resolve the global tensions that marked the UNFSS as a whole. © 2021, Society for International Development.</t>
+          <t>Small Island Developing States (SIDS) share high burdens of nutrition-related conditions, including non-communicable diseases, associated with an increasing reliance on imported, processed foods. Improving health through increasing the production and consumption of local, nutritious foods is a policy objective of many SIDS governments. This study aimed to understand contemporary challenges and opportunities to strengthening local food systems in two case study settings, Fiji and St. Vincent and the Grenadines. Fifty-two in-depth, semi-structured interviews were conducted with key stakeholders involved in local food production. Interviews were analysed by both country teams using thematic analysis. Local food production networks in both settings included formal governance bodies as well as more informal connections through civil society and communities. Their main function was the sharing of resources and knowledge, but levels of trust and cooperation between the stakeholders varied in a market open to intense competition from imports. Local food production was hindered by few and slow investments by local governments, dated technology, and lack of knowledge. Stakeholders believed this marginalisation was occurring against a background of rising preferences for imported foods in the population, and increasing disinterest in employment in the sector. Despite the challenges, strong narratives of resilience and opportunity were highlighted such as national pride in local produce for commercialisation and local diets. Efforts to support local food production in SIDS should focus on strengthening governance structures to prioritise local produce over corporate and import markets, assist collaboration and co-learning, and support alternative agro-food practices. © 2022, The Author(s).</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Toward food sovereignty and self-sufficiency in Latin America and the Caribbean: opportunities for agricultural complementarity; [Hacia una soberanía y autosuficiencia alimentaria en América Latina y el Caribe: oportunidades de complementariedad agrícola]</t>
+          <t>Characterization of the Territory and Estimation of a Synthetic Index of Social Welfare</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Food self-sufficiency is a relevant political issue in many countries, developed and developing, particularly to satisfy the internal nutritional needs of the population and face situations in which the prices of basic products are unstable or when a country faces an external shock. Improving resilience involves strengthening local rural communities to meet demand with domestic production. The member countries of Latin America and the Caribbean (LCN) produce enough food to sustain their population and to be one of the world’s largest food exporters. From the theoretical discussion and using data from FAO, the research shows that there is a potential to improve food sovereignty and to define food and agricultural policies through agricultural complementarity among the LCN countries. Diverting part of the current trade with third parties to intraregional trade, for products in which the region has a comparative advantage, would mean that LCN countries could save up to 2.7 billion dollars per year, that is, 6.8% of total imports of food in 2018, avoiding the outflow of foreign currency and promoting greater economic integration between countries. © 2023,Revista de Economia e Sociologia Rural. All rights reserved</t>
+          <t>The rural approach to territorial development has challenged globalization; the countries have opened their agricultural borders through trade agreements that benefit the rural sector. Europe has become an agricultural power, leading the design of foreign trade policies for products of agricultural origin, expanding its areas of influence to underdeveloped countries, proposing changes in the world economy. This approach proposes to build and strengthen cultural identity in rural territories and improving the quality of life. This research proposes the development of a synthetic well-being index for fifteen rural municipalities in the province of Malaga, in the south of the Autonomous Community of Andalusia. The results show that the results of the studied territories are homogeneous, with small differences in the capital of the Antequera Region. © 2022 María‐Salomé Ochoa‐Rico et al.</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GLOBAL FOOD SECURITY AND SOVEREIGNTY IMPACTED BY SARS-CoV-2 PANDEMIC</t>
+          <t>Revisiting global food production and consumption patterns by developing resilient food systems for local communities</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>The current health crisis due to the severe acute respiratory syndrome -coronavirus-2 (SARS-CoV-2) is challenging several of the assumptions of a globalized world. There are severe consequences over food security and sovereignty, especially among the poorest and most vulnerable populations. Particularly, since any infectious disease outbreak is directly correlated to an increase in hunger and malnutrition. This assay is set to analyze the impacts of the sanitary crisis on food security and sovereignty in the international context, and highlight how governments are acting to reduce consequences, through the use of an exploratory and analytical methodology. Although the United States (U.S.) has successfully overcome this health crisis, the food crisis has overtaken, as a result of the growing unemployment. In Latin America, the pandemic is exacerbating food access and economic situation. The sanitary crisis has aggravated food shortages in Africa already going on, especially in rural areas. Asia suffered the most significant impact in food security. The new food security policy in the European Union aims to hold food security. Food insecurity and malnutrition are not just about agriculture production; they are also about food access limitations. In consequence, this health crisis cannot be allowed to become also a food crisis. © 2022. All Rights Reserved.</t>
+          <t>The achievement of resilient food systems requires an integrated approach between optimal localization of productions and changes in food consumption and between local evaluations of the food system and global visions. In this regard, we developed a Food Self-Sufficiency Index. The index evaluates food self-sufficiency achievable in a study area where its community chooses between alternative suggested diets, and the food productions are relocalized using crop suitability maps. The index can be used at different geographical scales, from a single rural settlement to regional and country-level, up to worldwide. It revisits the food components of the ecological footprint and biocapacity to build a tool for supporting local institutions' decisions in food planning at different levels. In this paper, we discuss how the FSSI could help in increasing the resilience of food production and consumption systems. The paper outlines these essential points for the improvement of the food resilience of an area that aims to improve its self-sufficiency (i) Improving technical solutions, (ii) Improving the communities' involvement, (iii) Improving agro-biodiversity, and (iv) Using complex system approaches in food planning. The Food Self-Sufficiency Index is a powerful supporting decision tool to achieve all the previous goals. © 2022 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1412,15 +1412,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Food sovereignty and the integral state: Institutionalizing ecological farming</t>
+          <t>Why do some Participatory Guarantee Systems emerge, become effective, and are sustained over time, while others fail? An application of the Ostrom social-ecological system framework</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>This article takes up the question of how food sovereignty, and accompanying agricultural models that will help combat climate change, may be institutionalized through policy processes. I draw on the theories of Antonio Gramsci and his successors to discuss how the interwoven nature of the state and civil society, conceptualized as the ‘integral state’, can help inform an analytical approach to food policy change. Based on research that analyzes the work of Canada's two member organizations of La Vía Campesina, Union Paysanne and the National Farmers Union (NFU), I highlight the differences and parallels between food sovereignty struggles taking place in Quebec and those underway elsewhere in the country. I argue that although agricultural policy has the potential to be an important tool in transitioning toward a climate-friendly food system, proponents of food sovereignty would benefit from disengaging from traditional food policy advocacy efforts as these will only lead to incremental reforms. Instead, I suggest that a ‘prefigurative institutionalization’ has the potential to be transformative within and beyond the food system. The concept offers both a political strategy as well as an analytical framework for assessing movements’ efforts related to policy formation and governance. © 2021 Elsevier Ltd</t>
+          <t>Participatory Guarantee Systems (PGS) can play an important role in territorial re-embedding of agri-food systems into their Social-Ecological Systems (SES), thereby stimulating multifunctionality of agriculture and the diversification of the production system. This represents an opportunity to promote endogenous rural development, employment and the viability of rural communities, as well as to support family agriculture, food sovereignty, and food security. However, the underlying biophysical, social, and economic conditions of the SES that affect the likelihood of building these institutions through collective action have hardly been studied. In order to explore this, we used the conceptual framework of SES designed by Elinor Ostrom to identify the conditions under which PGS, and the collective action that created them, emerge, become effective, and are sustained over time. This information may help land managers, policy makers, and planners to design policies that facilitate the building of effective and sustainable PGS over time. © 2022 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Peasants' Rights as New Human Rights: Promises and Concerns for Agrobiodiversity Conservation</t>
+          <t>The genetically modified organism shall not be refused? Talking back to the technosciences</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Agrobiodiversity conservation is vital for food security, maintaining ecological balance, and preserving socio-cultural norms. There is substantial evidence to support that agrobiodiversity hotspots coincide with localized, small-scale peasant food systems. Preserving such food systems is necessary for protecting agrobiodiversity. The current legal framework over agrobiodiversity is fragmented and inadequate. A major portion of this framework is situated within intellectual property law and farmers' rights law, neither of which are designed to foster sustainable management of agrobiodiversity. In this context, the 2018 Peasants' Rights Declaration has the potential to fill the gaps in the existing framework. The paper critically analyses the Declaration by exploring some of its legal innovations in improving agrobiodiversity conservation. While some of these innovations are commendable, they are unlikely to be adopted by states owing to their radical nature. Their adoption would require a massive overhaul of the existing agricultural model and power structures embedded within it.  Copyright © 2022 The Author(s).</t>
+          <t>Starting from Marcel Mauss’ observation that “one has no right to refuse a gift”, this paper explores the politics of refusal in the context of field trials with genetically modified organisms in Flanders (Belgium). Based on a decade of activist research, and focusing on the genetically modified organism field trials of the Flemish Institute for Biotechnology, we show that the business model of this strategic research center – with its triple mission of carrying biotechnology research, technology transfer, and the promotion of biotechnology through communication and lobby activities – fosters a climate in which innovations in the technosciences have to “be accepted”. The future is laid out without including the possibility of refusal. Consternation is great when this is exactly what happens. Irrational fears and lack of understanding or lack of familiarity are invoked to explain refusal. Language of precision, innovation, safety, and control are deployed to re-assure the public. Refusal is not considered a legitimate option. Yet, if farmers and grassroots initiatives would accept the gift of genetically modified organisms, it would mean the acceptance of their dispossession and the impossibility of diverse food sovereignties. Starting from theoretical work on “the gift” and “the politics of refusal”, we argue that recognizing innovation as the intrinsically plural and divergent process it is, entails including options to refuse particular pathways as a first step to open up others. As we will argue, saying no to genetically modified organisms is part of saying yes to peasant autonomy, agrobiodiversity, and peoples’ food sovereignties. © The Author(s) 2021.</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1484,15 +1484,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Food sovereignty and farmland protection in the Municipal County of Antigonish, Nova Scotia</t>
+          <t>Autonomy and repeasantization: Conceptual, analytical, and methodological problems</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>This case study of the Municipal County of Antigonish (MCA) in the Canadian province of Nova Scotia assessed the extent to which agricultural land use planning accommodates those societal interests seeking to embed food sovereignty at the municipal level. Data were collected through content analysis of legislative documents, key informant interviews, and a review of the grey literature. Results suggest that the relatively weak municipal planning system in place prioritizes private interests over the public interest in farmland protection. The resultant gaps in the legislative setup in the MCA further reveal that food sovereignty actors and/or ideas have little influence over municipal governance of farmland protection. Broader historical and contemporary trends in Nova Scotia and Canada at large suggest that farmland will continue to lose ground to forces intrinsic to the dominant policy paradigm of market liberalism. Concluding thoughts call for “bringing back the (Canadian) state” itself as central to constituting a new agricultural policy paradigm. © 2021 by the Authors.</t>
+          <t>“Autonomy,” as a desirable state, is a notion often used by food sovereignty-oriented farmer movements and scholars studying repeasantization. The term is predominantly used rather casually, relying on presumed meanings, but van der Ploeg's book The New Peasantries seeks to elaborate a particular meaning of autonomy as a characteristic feature of the peasantry. The desire of farmers/peasants for autonomy is formulated in tandem with agroecological agriculture, farmers' agency, locally “nested” markets, co-production with nature, non-commoditized production, and multiple kinds of peasant resistance. This article identifies the distinctive nature of this take on autonomy and analyses its analytical, normative, and political aspects. It develops several critiques regarding the analytical shortcomings of the notion of peasant autonomy: the methodological problem of a peasant bias; the analytical limitations and incompatibility of intrinsic and “relative” autonomy; and the neglect of accumulation from below and subtle class contradictions. Rather than centring autonomy or relative autonomy, the authors argue for shifting the focus to the nature of different types of dependency relationships, ranging from very exploitative to those vital for human flourishing. © 2021 The Authors. Journal of Agrarian Change published by John Wiley &amp; Sons Ltd.</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1520,15 +1520,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Market dependency as prohibitive of agroecology and food sovereignty—a case study of the agrarian transition in the Scottish highlands</t>
+          <t>Does ‘food sovereignty’ engender paradigm shift or co-optation? Insights from Nepal</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>While there have been calls amongst the more ‘political’ or ‘radical’ agroecology and food sovereignty advocates for a break from capitalist food systems, conceptualisations of capitalism, and thus counter-capitalism, vary widely. The movements have largely presented small-scale producers and peasants as alternatives to industrial food systems, and have focused on reducing input dependency as a path towards autonomy of producers and the realisation of agroecological food systems. An alternative to this approach is presented here through applying Ellen M. Wood’s conceptualisation of capitalism as characterised by ‘market dependency’ to the case of the agrarian transition in the Scottish Highlands. This article demonstrates the specific ways in which market dependency, including for agricultural outputs, not just inputs, leads to a divergence from agroecological food systems. It argues that identifying ‘market dependency’ as a defining characteristic of capitalism could strengthen and refine the focus of agroecology and food sovereignty movements. © 2021 by the author. Licensee MDPI, Basel, Switzerland.</t>
+          <t>Food sovereignty proponents find the terms ‘security’ and ‘right’ associated with ‘food’ as not covering the entire gamut of food and agricultural issues, especially in addressing small farmers’ and peasants’ concerns and ensuring sustainable agriculture development. Hence, they have conceptualized an alternative food paradigm and called it ‘food sovereignty’. However, food sovereignty has been interpreted and operationalized in various forms. Perhaps the choice of the term sovereignty has rendered the idea of food sovereignty ideal for co-optation because sovereignty is a historically and politically contested concept with multiple meanings attached to it. Some scholars argue that there are multiple sovereignties in food sovereignty that can be reconciled. This article analyses the case of Nepal that has adopted the idea of food sovereignty, and finds that the argument of multiple sovereignties exercised through relational and interactive measures can only be aspirational and normative at best. © 2022 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1556,15 +1556,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Achieving Food System Resilience Requires Challenging Dominant Land Property Regimes</t>
+          <t>AFHVS 2021 Presidential Address: critical praxis and the social imaginary for food systems transformation</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Although evidence continues to indicate an urgent need to transition food systems away from industrialized monocultures and toward agroecological production, there is little sign of significant policy commitment toward food system transformation in global North geographies. The authors, a consortium of researchers studying the land-food nexus in global North geographies, argue that a key lock-in explaining the lack of reform arises from how most food system interventions work through dominant logics of property to achieve their goals of agroecological production. Doing so fails to recognize how land tenure systems, codified by law and performed by society, construct agricultural land use outcomes. In this perspective, the authors argue that achieving food system “resilience” requires urgent attention to the underlying property norms that drive land access regimes, especially where norms of property appear hegemonic. This paper first reviews research from political ecology, critical property law, and human geography to show how entrenched property relations in the global North frustrate the advancement of alternative models like food sovereignty and agroecology, and work to mediate acceptable forms of “sustainable agriculture.” Drawing on emerging cases of land tenure reform from the authors' collective experience working in Scotland, France, Australia, Canada, and Japan, we next observe how contesting dominant logics of property creates space to forge deep and equitable food system transformation. Equally, these cases demonstrate how powerful actors in the food system attempt to leverage legal and cultural norms of property to legitimize their control over the resources that drive agricultural production. Our formulation suggests that visions for food system “resilience” must embrace the reform of property relations as much as it does diversified farming practices. This work calls for a joint cultural and legal reimagination of our relation to land in places where property functions as an epistemic and apex entitlement. © Copyright © 2021 Calo, McKee, Perrin, Gasselin, McGreevy, Sippel, Desmarais, Shields, Baysse-Lainé, Magnan, Beingessner and Kobayashi.</t>
+          <t>In this 2021 AFHVS Presidential Address, Kim Niewolny provides a brief foray into the onto-epistemic framing of critical praxis for sustainable food systems transformation. Niewolny proposes we engage in the creative entanglement of critical praxis and the social imaginary to “unthink” the orthodoxies that govern our ideas of the possible. She offers several possibilities as pathways toward a food system that embodies health equity, ecological justice, land sovereignty, and human rights, including: (1) agroecological research and movement building; (2) food, farm, and health policy; (3) food and farm system worker protections as public health and human rights concerns; (4) intersectional food justice scholarship and curriculum; (5) narrative-led, community-based, and action-oriented methodologies as multi-dimensional inquiry; (6) and multi-sector and multi-racial coalitions as dynamic networks that challenge linear, neoliberal, and technical-rational practices. Niewolny concludes with a call for radical hope as a principle for critical food systems praxis. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1592,15 +1592,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Potential for food self-sufficiency improvements through indoor and vertical farming in the gulf cooperation council: Challenges and opportunities from the case of Kuwait</t>
+          <t>Farm-level pathways to food security: beyond missing markets and irrational peasants</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>The countries of the Gulf Cooperation Council (GCC) are considered food secure due to their ability to import sufficient food to meet their populations’ demand, despite considerable environmental limitations to conventional agriculture. However, over-reliance on externally produced food leaves these countries vulnerable to food shortages during crises that disrupt international production and shipping. Advanced Controlled Environment Agriculture technology has the potential to improve food self-sufficiency by multiplying vegetable crop yields while optimizing efficiency of agricultural inputs and minimizing land requirements. This paper demonstrates how approximately 15 km2 of indoor farms or less than 0.1 km2 of vertical farms could reduce or eliminate the need to import six important vegetable crops in the State of Kuwait. If properly contextualized and supported by clear legislation and well-managed regulatory bodies, indoor agriculture initiatives may provide a pathway for GCC countries to reduce their dependence on imported foods and increase resilience to food supply disruption during disasters or conflict. This case study contextualizes the need for improved food self-sufficiency in light of vulnerabilities from regional and global threats, illuminates unique challenges faced by GCC countries considering adoption of the proposed technologies, and summarizes opportunities inherent in the current legal and policy framework. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>Development projects in Sub-Saharan Africa propose to alleviate hunger in rural areas by introducing new agricultural practices and technologies, yet there is limited empirical evidence of how an agricultural intervention can lead farming households to transition to food security. Research on food security pathways considers agricultural interventions that increase farmers’ income to be particularly effective for reducing food insecurity. Consistent with this stance, Malawian agricultural policy aims to address hunger by encouraging smallholder farmers to intensify and commercialize maize production. This paper explores if smallholders’ market and livelihood orientations do indeed lead them to favor an income pathway to food security. Qualitative analysis of 60 smallholder farmer interviews in Malawi found that, upon achieving improvements in production yields and diversity, rather than commercialize, many farmers re-organized their production and consumption to reduce market dependency. Farmers deployed this strategy to increase their food security, explaining that the choice to self-provision food and farming inputs was both an expression of farming identity and a lived understanding of their marginal position in commodity markets. The author finds that, in failing to consider how production relations affect food access, scholarship inadequately theorizes farm-level food security transitions and reproduces discursive framings of hunger. Food sovereignty narratives more accurately captured what mattered for Malawian smallholders’ food security, suggesting that engagement with this concept could improve scientific understandings of food security transitions. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1628,15 +1628,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Food Sovereignty for Whom? Food Poverty, Innovative Public Work Projects and the Authoritarian State</t>
+          <t>Toward food sovereignty and self-sufficiency in Latin America and the Caribbean: opportunities for agricultural complementarity; [Hacia una soberanía y autosuficiencia alimentaria en América Latina y el Caribe: oportunidades de complementariedad agrícola]</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>In Hungary, public work-based municipal projects played a major role in handling welfare challenges, such that the rise of a precarious rural underclass posited following the postsocialist disembedding of marginalised rural societies from the economy. Given the conditions of an authoritative populist state, this paper explores, using examples of case studies located in disadvantaged rural municipalities, innovative agrarian public work projects, as expressions of the relative freedom of action of local welfare states. Following the critical thinking inspired by Polányi's theory (1944), it sheds light on these efforts, from countermovements to the neo-liberal disembedding of the economy from society including theories on food sovereignty movements. Thus, it reflects upon the degree to which these agricultural activities could be seen as part of a broader countermovement to the social disintegration of nural areas that emerged in the context of the transition to capitalism. © 2021 StudienVerlag. All rights reserved.</t>
+          <t>Food self-sufficiency is a relevant political issue in many countries, developed and developing, particularly to satisfy the internal nutritional needs of the population and face situations in which the prices of basic products are unstable or when a country faces an external shock. Improving resilience involves strengthening local rural communities to meet demand with domestic production. The member countries of Latin America and the Caribbean (LCN) produce enough food to sustain their population and to be one of the world’s largest food exporters. From the theoretical discussion and using data from FAO, the research shows that there is a potential to improve food sovereignty and to define food and agricultural policies through agricultural complementarity among the LCN countries. Diverting part of the current trade with third parties to intraregional trade, for products in which the region has a comparative advantage, would mean that LCN countries could save up to 2.7 billion dollars per year, that is, 6.8% of total imports of food in 2018, avoiding the outflow of foreign currency and promoting greater economic integration between countries. © 2023,Revista de Economia e Sociologia Rural. All rights reserved</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>The methodological strategies of agroecological research and the values with which they are linked</t>
+          <t>Food sovereignty and the integral state: Institutionalizing ecological farming</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>The characteristic features of some of the methodological strategies adopted in scientific research in agroecology are discussed. They reflect that agroecology, as an approach to scientific research, is inextricably entangled with the other strands of agroecology (farming practice, social movement, political project); and that adopting agroecological strategies, and upholding the values of environmental sustainability, food sovereignty, social justice and democratic participation, mutually reinforce each other. After outlining the kinds of questions that agroecological research addresses so that it can produce knowledge that informs agroecological farming practices and the long term aspiration of agroecological movements to create an alternative agricultural/food system, and then making summary remarks about methodological strategies in general, three characteristic features of some agroecological strategies are introduced and discussed. The paper concludes with comments on the value of agroecological research. © 2021 Elsevier Ltd</t>
+          <t>This article takes up the question of how food sovereignty, and accompanying agricultural models that will help combat climate change, may be institutionalized through policy processes. I draw on the theories of Antonio Gramsci and his successors to discuss how the interwoven nature of the state and civil society, conceptualized as the ‘integral state’, can help inform an analytical approach to food policy change. Based on research that analyzes the work of Canada's two member organizations of La Vía Campesina, Union Paysanne and the National Farmers Union (NFU), I highlight the differences and parallels between food sovereignty struggles taking place in Quebec and those underway elsewhere in the country. I argue that although agricultural policy has the potential to be an important tool in transitioning toward a climate-friendly food system, proponents of food sovereignty would benefit from disengaging from traditional food policy advocacy efforts as these will only lead to incremental reforms. Instead, I suggest that a ‘prefigurative institutionalization’ has the potential to be transformative within and beyond the food system. The concept offers both a political strategy as well as an analytical framework for assessing movements’ efforts related to policy formation and governance. © 2021 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1700,15 +1700,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Beyond sustainability in food systems: Perspectives from agroecology and social innovation</t>
+          <t>Peasants' Rights as New Human Rights: Promises and Concerns for Agrobiodiversity Conservation</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Food security faces many multifaceted challenges, with effects ranging far beyond the sectors of agriculture and food science and involving all the multiscale components of sustainability. This paper puts forward our point of view about more sustainable and responsible approaches to food production research underlying the importance of knowledge and social innovation in agroecological practices. Increased demand for food worldwide and the diversification of food choices would suggest the adoption of highly productive, but low-resilient and unsustainable food production models. However, new perspectives are possible. These include the revitalization and valorization of family-based traditional agriculture and the promotion of diversified farming systems as a social and economic basis to foster social-ecological conversion. Additionally, they encompass the forecasting of the Participatory Guarantee Systems (PGS) and the drafting of a new agenda for food sovereignty. Thanks to a desk analysis, the study describes and discusses these perspectives, their trajectories and action research implications. The results suggest the need to adopt a more inclusive and systemic approach to the described problems, as the solutions require the promotion of responsibility within decision makers, professionals and consumers. This appears essential for reading, analyzing and understanding the complex ecological-functional, social and economic relations that characterize farming systems, as well as mobilizing local communities. © 2020 by the authors.</t>
+          <t>Agrobiodiversity conservation is vital for food security, maintaining ecological balance, and preserving socio-cultural norms. There is substantial evidence to support that agrobiodiversity hotspots coincide with localized, small-scale peasant food systems. Preserving such food systems is necessary for protecting agrobiodiversity. The current legal framework over agrobiodiversity is fragmented and inadequate. A major portion of this framework is situated within intellectual property law and farmers' rights law, neither of which are designed to foster sustainable management of agrobiodiversity. In this context, the 2018 Peasants' Rights Declaration has the potential to fill the gaps in the existing framework. The paper critically analyses the Declaration by exploring some of its legal innovations in improving agrobiodiversity conservation. While some of these innovations are commendable, they are unlikely to be adopted by states owing to their radical nature. Their adoption would require a massive overhaul of the existing agricultural model and power structures embedded within it.  Copyright © 2022 The Author(s).</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1736,15 +1736,15 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mainstreaming agricultural biodiversity in traditional production landscapes for sustainable development: The Indian scenario</t>
+          <t>Food sovereignty and property in Cuba and the United States</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mainstreaming biodiversity in production landscapes ensures conservation and sustainable use of agricultural biodiversity, the key objectives of the Convention on Biological Diversity (CBD) and the projects supported by the United Nations Environment Program (UNEP) Global Environment Facility (GEF). Mainstreaming integrates biodiversity in existing or new programs and policies, both cross‐sectoral and sector‐specific. The conventional model of agricultural production with limited diversity in production systems and use of high chemical input has taught us a valuable lesson as it is adversely impacting the environment, the essential ecosystem services, the soil health and the long term sustainability of our food systems. Using a qualitative participant observation approach, our study investigated four distinct traditional Indian production landscapes to gage (i) the farming communities’ response to institutional policies, programs and agricultural biodiversity‐related activities in traditional Indian production landscapes and (ii) opportunities and challenges for sustainable development in smallholder traditional Indian farming systems. Results indicate that the top‐down decision‐making regime is the least effective towards achieving sustainable development in traditional Indian farming landscapes and that farmers’ experiential knowledge on participatory biodiversity management, maintenance and use for sustainable development are of critical importance to India’s agriculture and economy. Reclaiming agriculture’s spiritual roots through organic farming and locally grown food emerged as key, including the need for designing and implementing a more sovereign food system. Revisiting traditional smallholder farming under the COVID‐19 pandemic and lessons learned for repurposing India’s agricultural policy are also highlighted. © 2020 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>Food sovereignty promotes agroecological farming methods and the reduction of food insecurity through changing political relations between people, land and food policy. Market orientations to land and private property in liberal democracies restrict access to food, and thus for food sovereigntists, reframing the social relationship to land through property is key to making food more available. This paper examines the case of usufruct land rights in Cuba as a framework for reworking land rights. We identify key limitations that impair producer autonomy, suggesting how different orientations toward property present unique problems and potential solutions towards the goal of food sovereignty. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1772,15 +1772,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Competing food sovereignties: GMO-free activism, democracy and state preemptive laws in Southern Oregon</t>
+          <t>Food sovereignty and farmland protection in the Municipal County of Antigonish, Nova Scotia</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Indicators of food sovereignty and food democracy center on people having the right and ability to define their food polices and strategies with respect to food culture, food security, sustainability and use of natural resources. Yet food sovereignty, like democracy, exists on multiple and competing scales, and policymakers and citizens often have different agendas and priorities. In passing a ban on the use of genetically-modified (GMO) seeds in agriculture, Jackson County, Oregon has obtained some measure of food sovereignty. Between 2016 and 2017 ethnographic research was undertaken in rural Southern Oregon where local community and State of Oregon priorities regarding the use of GMO crops are in conflict. This article presents ethnographic research findings about the expression and negotiation of multiple food sovereignties by civil society in rural southern Oregon and the State of Oregon via democratic processes. In particular, these findings illustrate the effects of socio-political power dynamics on local and state acts of food sovereignty, democracy and agrifood policy by analyzing what the different expressions of food sovereignty reveal for its implementation at the local level. © 2020, Springer Nature B.V.</t>
+          <t>This case study of the Municipal County of Antigonish (MCA) in the Canadian province of Nova Scotia assessed the extent to which agricultural land use planning accommodates those societal interests seeking to embed food sovereignty at the municipal level. Data were collected through content analysis of legislative documents, key informant interviews, and a review of the grey literature. Results suggest that the relatively weak municipal planning system in place prioritizes private interests over the public interest in farmland protection. The resultant gaps in the legislative setup in the MCA further reveal that food sovereignty actors and/or ideas have little influence over municipal governance of farmland protection. Broader historical and contemporary trends in Nova Scotia and Canada at large suggest that farmland will continue to lose ground to forces intrinsic to the dominant policy paradigm of market liberalism. Concluding thoughts call for “bringing back the (Canadian) state” itself as central to constituting a new agricultural policy paradigm. © 2021 by the Authors.</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1808,15 +1808,15 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Who is resilient in Africa's Green Revolution? Sustainable intensification and Climate Smart Agriculture in Rwanda</t>
+          <t>New rurality and agritourism in Empordà, Catalonia</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Under the banner of a “New Green Revolution for Africa,” agricultural intensification programs aim to make smallholder agriculture more productive as well as "climate smart". As with Green Revolutions in Asia and Mexico, agricultural innovations (hybrid seeds, agronomic engineering, market linkages,and increased use of fertilizer and pesticides) are promoted as essential catalysts of agriculture-led economic growth. Intensification programs are now frequently linked to Climate Smart Agriculture (CSA), which attempts to build resilience and reduce greenhouse gas emissions while increasing crop yields. This article considers who and what is resilient in Africa's Green Revolution. We report on a multi-season study of smallholder food producers' experiences with Rwanda's Crop Intensification Program (CIP) and related policies that aim to commercialize subsistence agriculture while implementing CSA. We suggest that there are fundamental limits to the climate resilience afforded by CSA and development efforts rooted in Green Revolution thinking. Our findings illustrate that such efforts foreground technology and management adjustments in ways that have reduced smallholder resilience by inhibiting sovereignty over land use, decreasing livelihood flexibility, and constricting resource access. We put forth that rural development policies could better promote climate-resilient livelihoods through: 1) adaptive governance that enables smallholder land use decision-making; 2) support for smallholder food producers’ existing agro-ecological strategies of intensification; 3) participatory approaches to visualize and correct for inequalities in local processes of social-ecological resilence Such considerations are paramount for meeting the United Nations Sustainable Development Goals and building climate-resilient food systems. © 2020 The Authors</t>
+          <t>Agritourism in the Empordà region has become increasingly popular in recent years. It provides a variety of services, ranging from food catering, the tasting of local products, garden, orchard, and vineyard visits, and lodging. It creates opportunities for a relationship between visitors, places, ideas, and experiences, between the territory, landscape, and terroir, between local products and food sovereignty. It encourages re-peasantisation, the promotion of local know-how, and environmental conservation. This paper examines how this form of agritourism draws a part of its inspiration from a social imaginary of a peasant past that existed prior to the 1960s' advent of mass tourism. Using the tools of the new rurality approach, this paper analyses the landscape and evolution of agritourism in the region. It presents some of the producers' main principles and activities in the light of a regional context that comprises, among other constraints, environmental deterioration, socio-economic inequalities, and a considerable pressure for access to basic resources. Copyright © 2021 Inderscience Enterprises Ltd.</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Agroholdings, Technology, And The PoliTicAl economy of russiAn AgriculTure</t>
+          <t>Market dependency as prohibitive of agroecology and food sovereignty—a case study of the agrarian transition in the Scottish highlands</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Research for this article was conducted with the support of the Swiss National Science Foundation, the Swedish Collegium for Advanced Studies, and the University of Notre Dame. This article details the rise of Russian agricultural corporations, known as the agroholdings. These companies have accumulated control of Russia’s most fertile land over the last 20 years and have become the main producers of agricultural commodities and processed food. They are also the driving force of a profound technological transformation of agriculture and food production during this time. A core claim of this article is that the technopolitics of twenty-first-century Russian agriculture made the meteoric rise of agroholdings possible. Technology was central to both the economic and political roles of these large, vertically integrated agricultural conglomerates. Agroholdings grew rapidly because they adopted cutting-edge agricultural technologies that maximized yields and economic efficiency. Agroholdings’ control of technologies earned them, in turn, the political support they needed to thrive in the state capitalist system of the Putin era. They were privileged allies of President Vladimir Putin’s government, which sought to enlist them for the political goals of strengthening domestic farming and food production and reducing Russia’s dependence on food imports. More broadly, the article suggests that a technopolitical lens recasts and improves our understanding of the political economy of post-Soviet Russia. Technopolitics reveals the role of both the state and corporate actors, of power and capital, in the construction of a new economic order and draws attention to how these processes shape post-Soviet byt. © Laboratorium: Russian Review of Social Research</t>
+          <t>While there have been calls amongst the more ‘political’ or ‘radical’ agroecology and food sovereignty advocates for a break from capitalist food systems, conceptualisations of capitalism, and thus counter-capitalism, vary widely. The movements have largely presented small-scale producers and peasants as alternatives to industrial food systems, and have focused on reducing input dependency as a path towards autonomy of producers and the realisation of agroecological food systems. An alternative to this approach is presented here through applying Ellen M. Wood’s conceptualisation of capitalism as characterised by ‘market dependency’ to the case of the agrarian transition in the Scottish Highlands. This article demonstrates the specific ways in which market dependency, including for agricultural outputs, not just inputs, leads to a divergence from agroecological food systems. It argues that identifying ‘market dependency’ as a defining characteristic of capitalism could strengthen and refine the focus of agroecology and food sovereignty movements. © 2021 by the author. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1880,15 +1880,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Policy pitfalls and the attempt to institutionalize agroecology in El Salvador 2008-2018</t>
+          <t>Achieving Food System Resilience Requires Challenging Dominant Land Property Regimes</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>This paper analyzes the experience of the Salvadoran cooperative movement in pursuing a political project for the institutionalization of agroecology in the years 2008–2018, under two consecutive FMLN governments in 2009 and 2014. Following El Salvador’s “turn to the left”, Salvadoran agrarian reform cooperatives and civil society allies began to allocate organizational resources toward writing public policy measures to incorporate agroecology under the FMLN government’s agricultural social program, the Family Agriculture Plan (PAF). While the cooperative sector took part in active negotiations with the FMLN party for the institutionalization of favorable policies, the former guerrilla party formulized strategies for gaining a multiclass electorate in order to remain in power. With the intention to better understand the attitude and distinct Salvadoran actors, we utilize an anthropology of public policy framework to indicate how expectations of political party legitimacy failed to shape the institutionalization of agroecology in El Salvador. We suggest that the pursuit of agroecological policies is a balancing act of making use of the State to strengthen on the ground efforts without forging organizational disarticulation following changes in government administrations. © 2020, © 2020 Taylor &amp; Francis.</t>
+          <t>Although evidence continues to indicate an urgent need to transition food systems away from industrialized monocultures and toward agroecological production, there is little sign of significant policy commitment toward food system transformation in global North geographies. The authors, a consortium of researchers studying the land-food nexus in global North geographies, argue that a key lock-in explaining the lack of reform arises from how most food system interventions work through dominant logics of property to achieve their goals of agroecological production. Doing so fails to recognize how land tenure systems, codified by law and performed by society, construct agricultural land use outcomes. In this perspective, the authors argue that achieving food system “resilience” requires urgent attention to the underlying property norms that drive land access regimes, especially where norms of property appear hegemonic. This paper first reviews research from political ecology, critical property law, and human geography to show how entrenched property relations in the global North frustrate the advancement of alternative models like food sovereignty and agroecology, and work to mediate acceptable forms of “sustainable agriculture.” Drawing on emerging cases of land tenure reform from the authors' collective experience working in Scotland, France, Australia, Canada, and Japan, we next observe how contesting dominant logics of property creates space to forge deep and equitable food system transformation. Equally, these cases demonstrate how powerful actors in the food system attempt to leverage legal and cultural norms of property to legitimize their control over the resources that drive agricultural production. Our formulation suggests that visions for food system “resilience” must embrace the reform of property relations as much as it does diversified farming practices. This work calls for a joint cultural and legal reimagination of our relation to land in places where property functions as an epistemic and apex entitlement. © Copyright © 2021 Calo, McKee, Perrin, Gasselin, McGreevy, Sippel, Desmarais, Shields, Baysse-Lainé, Magnan, Beingessner and Kobayashi.</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Land grabs, farmworkers, and rural livelihoods in West Africa: some silences in the food sovereignty discourse</t>
+          <t>Impact evaluation based on benefit indicators (IEBBI): methodological proposal for agroecological farmers’ markets; [Evaluación del impacto basada en indicadores de beneficios (IEBBI): propuesta metodológica para mercados de productores agroecológicos]</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>The global land rush has spurred small, modest, and big anti-land grab mobilizations, notably the food sovereignty movement. The movement has been instrumental in representing the interests of small-scale family farmers whose livelihoods are threatened by capitalist control over land in the countryside. However, this dominant narrative tends to overlook or de-emphasize some important diversity within the peasantry. In West Africa, anti-land grab discourses emphasize family farming as a major collective action frame, focusing less on issues related to agricultural wage labour–farmworkers’ access to land, food, and decent working conditions. If food sovereignty is to fully realize its potential power as a counter-narrative to neoliberalism, and as a possible democratic alternative for working people with differentiated and at times competing socio-economic interests, then demands that adequately reflect the agrarian struggles of the rural working people have to be put onto the agenda and engaged better than it is now. © 2020 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Farmers’ markets represent a growing strategy for the generation of food sovereignty and sustainability; however, little is known about their impacts in economic, social and environmental terms. The objective of this research was to develop a framework that would allow determining that impact. The resulting methodological framework includes 20 indicators divided into seven groups: proximity, profitability, perceived benefits, areas of opportunity, economic impact, social impact, and environmental impact. This methodology was applied in one agroecological farmers’ market in Mexico City. Among the results, the main benefits are linked to socioeconomic interaction, while environmental impact indicators are the least considered. This methodology can guide the design, implementation, comparison, and monitoring of this type of initiative in the medium and long term. © 2021 Universidade de Brasilia. All rights reserved.</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1952,15 +1952,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Agro-ecological transition of agricultural production systems at imbabura province of Ecuador; [Transição agroecológica de sistemas de produção agrícola na província de imbabura Equador]; [Transición agroecológica de los sistemas de producción agrícola de la provincia de imbabura Ecuador]</t>
+          <t>Food Sovereignty for Whom? Food Poverty, Innovative Public Work Projects and the Authoritarian State</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Transitional processes from conventional agricultural systems to agro ecological production systems has been promoted at Imbabura province in Ecuador, but development difficulties have been observed, due to farmer’s decisions for embracing transition, depends not only on the technology and local resources available, but also on several aspects of the surrounding social, economic and institutional system. A research was conducted, in order to characterize the transitional agro ecological degree of production systems at Imbabura province, regarding the social cooperation activity, the natural resources management and the public policies dynamics, A stratified random sample of 50 producers was taken, to whom a questionnaire was applied. Data was analyzed by descriptive statistics. Cramer test was used to determine the relationships of each item to municipalities. Results showed that, in social dynamics, there is a high degree of trust, participation and reciprocity but it is necessary to strengthen exchange networks, also, it was observed a high degree of agro ecological and conservationist practices. Agro ecological transition is limited by public policy dynamics because there are no incentive programs and also there are few institutional incentives to support agro ecological work, even though it is established by the current Food sovereignty law. Participation and used of self-harvest seeds were related to municipality. Otavalo is the municipality that displays greater dynamism and progress in the process of agro-ecological transition. © 2020, Universidad del Zulia. All rights reserved.</t>
+          <t>In Hungary, public work-based municipal projects played a major role in handling welfare challenges, such that the rise of a precarious rural underclass posited following the postsocialist disembedding of marginalised rural societies from the economy. Given the conditions of an authoritative populist state, this paper explores, using examples of case studies located in disadvantaged rural municipalities, innovative agrarian public work projects, as expressions of the relative freedom of action of local welfare states. Following the critical thinking inspired by Polányi's theory (1944), it sheds light on these efforts, from countermovements to the neo-liberal disembedding of the economy from society including theories on food sovereignty movements. Thus, it reflects upon the degree to which these agricultural activities could be seen as part of a broader countermovement to the social disintegration of nural areas that emerged in the context of the transition to capitalism. © 2021 StudienVerlag. All rights reserved.</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1988,15 +1988,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>The importance of vision in food system transformation</t>
+          <t>The methodological strategies of agroecological research and the values with which they are linked</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Despite growing calls for food system transformation, the need to develop a vision to guide that transformation is sometimes overlooked. Vision is essential to inspire, mobilize, and keep a collective of people on track toward their goals. Individual visions can be exhilarating, but the visions that create change are taken up by large groups or movements of movements. A vision is a beginning for transformation, but it requires policy that enables it to be enacted, ideally through democratic processes. The vision, buttressed by policy and democratic governance, is what determines where people are able to buy food, how much they pay, whether farmers earn decent incomes, and whether the food is healthy. Without vision, policies are likely to be incoherent or to work at cross-purposes, as has happened in the farm bill and the European Union’s Common Agricultural Policy. A range of visions generated at different scales, from autonomous community to state to region, can serve as examples for people committed to food system transformation. © 2019 by the Author.</t>
+          <t>The characteristic features of some of the methodological strategies adopted in scientific research in agroecology are discussed. They reflect that agroecology, as an approach to scientific research, is inextricably entangled with the other strands of agroecology (farming practice, social movement, political project); and that adopting agroecological strategies, and upholding the values of environmental sustainability, food sovereignty, social justice and democratic participation, mutually reinforce each other. After outlining the kinds of questions that agroecological research addresses so that it can produce knowledge that informs agroecological farming practices and the long term aspiration of agroecological movements to create an alternative agricultural/food system, and then making summary remarks about methodological strategies in general, three characteristic features of some agroecological strategies are introduced and discussed. The paper concludes with comments on the value of agroecological research. © 2021 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -2024,15 +2024,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Human Development and Food Sovereignty: A Step Closer to Achieving Food Security in South Africa’s Rural Households</t>
+          <t>Placing the state in the contemporary food regime: uneven regulatory development in the Dominican Republic</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Food security strategies are determined by the prevailing realities within households and communities. Therefore, it is not surprising that in South Africa agricultural transformation is an important food security strategy. This article examines the role of human development and food sovereignty in fostering conditions that enable rural households to enhance their food security capabilities. Using an in-depth analysis of literature, national, regional and international instruments, this article takes its departure from the fact that subsistence agriculture is an effective strategy for improving household food needs when implemented within the broader human rights framework of human development. The results reveal that agriculture has the potential to increase household food security if appropriate agricultural technologies and productive resources such as land are made accessible to households. Further, for agriculture to attain optimal efficiency as a food security strategy, policies on agrarian transformation should be implemented within broader social development programmes. © The Author(s) 2019.</t>
+          <t>This paper interrogates the role of the state in the contemporary food regime and argues that it is best understood as the outcome of uneven regulatory development. This concept centers the ways that legacy institutions and practices of previous food regimes persist and combine with neoliberal regulation. It is developed through an in-depth case study of agro-food regulation in the Dominican Republic, focusing on domestic rice production. The analysis speaks to the possibilities and limits of progressive food sovereignty politics in contexts where states simultaneously undermine socially transformative demands and mitigate some pernicious effects of hyper-marketization to secure state legitimacy. © 2019 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>“Going local”: farmers’ perspectives on local food systems in rural Canada</t>
+          <t>Beyond sustainability in food systems: Perspectives from agroecology and social innovation</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Amid the highly industrialized, export-focused food system of the Canadian prairies, some farmers and consumers are turning to localized agriculture as an alternative—they are “going local”. Despite farmers’ obvious importance to the food system, surprisingly little research has examined their motivations and reasons for localization. To date, most local food scholarship in North America has focused on either consumers’ motivations to buy local or the systemic aspects of local food, such as regulations, infrastructure, and marketing arrangements. Existing research suggests that local food systems are supported by consumers’ rejection of the industrial paradigm and desire to (re)connect with their food and its source. But what drives farmers to localize, particularly when export-focused production is firmly entrenched as the status quo? Based on interviews and focus groups with 60 farmers, processors, policy experts, and retailers in the Canadian prairie province of Saskatchewan, this paper examines local food systems from the producer perspective in a rural context of high industrialization and geographical dispersion. We examine what motivates farmers to produce for local markets, and what forces they must resist to do so. The findings indicate that farmers’ main motivations for localization are political and social in nature, and stem from a critique of the dominant neoliberal agri-food system. We map farmers’ agential responses to this dominant system on a spectrum that ranges from acceptance of a neoliberal “feed the world” ideology to promotion of food sovereignty. Drawing on farmers’ perspectives, our findings question the straightforward equation of local food with environmental sustainability and also challenge neoliberal economic assumptions of “scaling up”. © 2019, Springer Nature B.V.</t>
+          <t>Food security faces many multifaceted challenges, with effects ranging far beyond the sectors of agriculture and food science and involving all the multiscale components of sustainability. This paper puts forward our point of view about more sustainable and responsible approaches to food production research underlying the importance of knowledge and social innovation in agroecological practices. Increased demand for food worldwide and the diversification of food choices would suggest the adoption of highly productive, but low-resilient and unsustainable food production models. However, new perspectives are possible. These include the revitalization and valorization of family-based traditional agriculture and the promotion of diversified farming systems as a social and economic basis to foster social-ecological conversion. Additionally, they encompass the forecasting of the Participatory Guarantee Systems (PGS) and the drafting of a new agenda for food sovereignty. Thanks to a desk analysis, the study describes and discusses these perspectives, their trajectories and action research implications. The results suggest the need to adopt a more inclusive and systemic approach to the described problems, as the solutions require the promotion of responsibility within decision makers, professionals and consumers. This appears essential for reading, analyzing and understanding the complex ecological-functional, social and economic relations that characterize farming systems, as well as mobilizing local communities. © 2020 by the authors.</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2096,15 +2096,15 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>From hoes to story-telling as "weapons of the weak": Farmers' resistance to neoliberal 2007 multi-product management stabilization plan in Japan</t>
+          <t>Does the Arab region have an agrarian question?</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>While neoliberalism has promoted free trade, market rule, and productivist agriculture in the food production system, farmers and their unions in developed countries partially managed to shun the forces of neoliberalism. What are the underpinning strength and factors of such resilience? Discussions have concentrated at national policy and organizational level and tacit resistance at community and farm levels remain unexplored, inter alia from their historical embeddedness perspective. This study explores the way Japanese farmers frame their contemporary political situation with neoliberalism of the late 2000s with a grounded approach of face-to-face interview at a community level. The farmers resist it mobilizing Scott's anthropological notion of "Weapons of the Weak"through story-telling instead of hoes in ancient time (Scott JC, Weapons of the weak: everyday forms of peasant resistance, 1985). In concrete, the farmers resisted a neoliberal policy of Hinmoku Odanteki Keiei Antei Taisaku, or the Multi- Product Management Stabilization Plan (MPP), in the early 2000s, which promoted larger scale farming to pursue the efficiency of scale merits. The policy was first introduced in 2005 as a concept and dominated the agricultural policy scenes from 2007 to 2009, and then its influence disappeared toward 2010. The rise and fall of the concept and policy provide us with rare opportunity to examine the historical embeddedness of the farmers and their resistance to such neoliberal globalization. We conducted interviews with the leaders of cooperative farms and stakeholders in Daisen City, Akita Prefecture, Japan; the study found that farmers' framing of neoliberalism was ambivalent causing partial adoption and resistance. The leaders of the cooperative farms could form the cooperative farms but thought further development difficult because members intended to keep their farming independent. Close frame and discourse analysis revealed that farmers in Japan could express their frustration on neoliberal discourse and policy through multiple tactics of "Weapons of the Weak"by complaining to the leaders, miscalculating the figures, or claiming family-based food sovereignty that "we produce what goes into our family mouths."Such tactics procrastinated the process and eventually stopped the policy. The incident demonstrates how farmers in the network can slow the progress of neoliberal discourse and policy implementation. From the analysis, the notion of "Weapons of the Weak"can be applied as a part of the combination with farmers' historical embeddedness, symbolism of foods, framing, and electoral resistance.  © 2020 The Author(s).</t>
+          <t>Discussion on food sovereignty and agro-ecology, and Anglophone rural sociology have blind spots when it comes to the Middle East/North African (Arab) region. This article explores them; outlines some initial concepts, discusses avenues for research, and notes some socio-political features of the region which make it distinct from others. It focuses on the necessity to include war and the national question to understand the regional agrarian question and advances and retreats in regional knowledge production. It proceeds by (1) establishing the relative absence of the region from the leading peasant studies journals; (2) synthesizing the region’s political economy and waves of knowledge production; (3) highlighting local traditions which speak to the questions of food sovereignty and agro-ecology; and (4) listing a series of theoretical, historical, and analytical avenues which remain to be addressed. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Alternative discourses around the governance of food security: A case study from Ethiopia</t>
+          <t>Competing food sovereignties: GMO-free activism, democracy and state preemptive laws in Southern Oregon</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Global discourses on the governance of food security span competing approaches. For example, a neoliberal approach advocates commercialized, industrial agriculture, while food sovereignty and resilience are part of an alternative discourse to food security that prioritizes locally-based agroecological food production. Understanding how global discourses play out locally and how they impact the environment and biodiversity is important to identify appropriate pathways towards sustainability. In addition to their effects on food security, different approaches could reinforce or impede the success of biodiversity conservation because of the strong interdependence of food security and ecosystems. We applied the Q-methodology to examine alternative approaches to food security and biodiversity conservation pursued by 50 stakeholders from local to national levels in southwestern Ethiopia. We identified four distinct approaches, focusing on (1) smallholder commercialization, (2) agroecology and resilience, (3) local economy and equity, and (4) market liberalization. All approaches prioritized smallholders, but perspectives on how to achieve food security varied. Agricultural intensification, commercialization, and profit were widely considered important, while support for agroecology and resilience was largely restricted to non-government organizations. With the exception of supporters of the agroecology and resilience approach, biodiversity conservation was considered as a secondary goal. We conclude it is important to acknowledge plurality of food security approaches because local conditions are characterized by a multiplicity of stakeholder interests, and because food security is a complex problem that requires a multidimensional approach. However, major contradictions among existing approaches need to be reconciled, and the agroecology and resilience approach should be strengthened to ensure the sustainable achievement of food security and biodiversity conservation. © 2019 Elsevier B.V.</t>
+          <t>Indicators of food sovereignty and food democracy center on people having the right and ability to define their food polices and strategies with respect to food culture, food security, sustainability and use of natural resources. Yet food sovereignty, like democracy, exists on multiple and competing scales, and policymakers and citizens often have different agendas and priorities. In passing a ban on the use of genetically-modified (GMO) seeds in agriculture, Jackson County, Oregon has obtained some measure of food sovereignty. Between 2016 and 2017 ethnographic research was undertaken in rural Southern Oregon where local community and State of Oregon priorities regarding the use of GMO crops are in conflict. This article presents ethnographic research findings about the expression and negotiation of multiple food sovereignties by civil society in rural southern Oregon and the State of Oregon via democratic processes. In particular, these findings illustrate the effects of socio-political power dynamics on local and state acts of food sovereignty, democracy and agrifood policy by analyzing what the different expressions of food sovereignty reveal for its implementation at the local level. © 2020, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2168,15 +2168,15 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NGO perspectives on the social and ethical dimensions of plant genome-editing</t>
+          <t>Who is resilient in Africa's Green Revolution? Sustainable intensification and Climate Smart Agriculture in Rwanda</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Plant genome editing has the potential to become another chapter in the intractable debate that has dogged agricultural biotechnology. In 2016, 107 Nobel Laureates accused Greenpeace of emotional and dogmatic campaigning against agricultural biotechnology and called for governments to defy such campaigning. The Laureates invoke the authority of science to argue that Greenpeace is putting lives at risk by opposing agricultural biotechnology and Golden Rice and is notable in framing Greenpeace as unethical and its views as marginal. This paper examines environmental, food and farming NGOs’ social and ethical concerns about genome editing, situating these concerns in comparison to alternative ethical assessments provided by the Nuffield Council on Bioethics, a key actor in this policy debate. In doing so, we show that participant NGOs and the Nuffield Council on Bioethics share considerable concerns about the social and ethical implications of genome editing. These concerns include choices over problem/solution framing and broader terminology, implications of regulatory and research choices on consumer choice and relations of power. However, GM-engaged NGOs and the Nuffield Council on Bioethics diverge on one important area: the NGOs seek to challenge the existing order and broaden the scope of debate to include deeply political questions regarding agricultural and technological choices. This distinction between the ethical positions means that NGOs provide valuable ethical insight and a useful lens to open up debate and discussion on the role of emerging technologies, such as genome editing, and the future of agriculture and food sovereignty. © 2019, Springer Nature B.V.</t>
+          <t>Under the banner of a “New Green Revolution for Africa,” agricultural intensification programs aim to make smallholder agriculture more productive as well as "climate smart". As with Green Revolutions in Asia and Mexico, agricultural innovations (hybrid seeds, agronomic engineering, market linkages,and increased use of fertilizer and pesticides) are promoted as essential catalysts of agriculture-led economic growth. Intensification programs are now frequently linked to Climate Smart Agriculture (CSA), which attempts to build resilience and reduce greenhouse gas emissions while increasing crop yields. This article considers who and what is resilient in Africa's Green Revolution. We report on a multi-season study of smallholder food producers' experiences with Rwanda's Crop Intensification Program (CIP) and related policies that aim to commercialize subsistence agriculture while implementing CSA. We suggest that there are fundamental limits to the climate resilience afforded by CSA and development efforts rooted in Green Revolution thinking. Our findings illustrate that such efforts foreground technology and management adjustments in ways that have reduced smallholder resilience by inhibiting sovereignty over land use, decreasing livelihood flexibility, and constricting resource access. We put forth that rural development policies could better promote climate-resilient livelihoods through: 1) adaptive governance that enables smallholder land use decision-making; 2) support for smallholder food producers’ existing agro-ecological strategies of intensification; 3) participatory approaches to visualize and correct for inequalities in local processes of social-ecological resilence Such considerations are paramount for meeting the United Nations Sustainable Development Goals and building climate-resilient food systems. © 2020 The Authors</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2204,15 +2204,15 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>The spatial planning to implement sustainable agricultural land</t>
+          <t>Pampean agroecologies. Instituting eco-logics of local food production; [Agroecologías pampeanas. Eco-lógicas instituyentes de producción local de alimentos]</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Indonesia is an agricultural producing country; the agricultural sector becomes its main economic base. Empirically, most of Indonesians work in this sector as their livelihood. Article No. 33 Chapter (3) of Undang-undang Dasar 1945 (The 1945 Constitution of The Republic of Indonesia) states a role of the state in managing and regulating land. It is clearly declared that land, water and natural resources contained therein are owned by the state and used as much as possible for the prosperity of the people of Indonesia. Land conversion is usually related to the process of regional development, even it can be said that the land conversion is a consequence of the development. In fact, most of the land conversion shows an imbalance dominated by business owners who are alleged to be modern capitalists having Building Construction Permits (IMB) issued by the government. Based on Regulation of Government No. 1 of 2011 concerning Determination and Land Conversion of Sustainable Agricultural Land, it is a field of agricultural land determined to be consistently protected and developed to produce staple food for the autonomy, resilience and sovereignty of foods for the nation. © 2020 SERSC.</t>
+          <t>In this paper we explore the anthropological question about “how” agroecology is produced, which will enable us to move from the inquiry into agroecology, in the singular and as a normative framework, towards agroecological practices, in the plural and anchored in the daily activities of people. We will put in the foreground the experiences of our interlocutors to characterize the ways of create and reproduce rural life and work in four establishments in the Pampas region of the province of Córdoba, Argentina, trying to mark the variability between them, as well as to extract some premises that constitute the logic that organizes and structures its production practices. It was identified that they operate an agro-eco-logic that puts the relations between species and entities in the primary activity at the center and allows to show a co-production of food. That network of relationships is a condition of possibility so that they can resist and exist, to create ways of living and working on the margins of agribusiness hegemony. Finally, we will reflect on the relationships that are established between agroecology and agribusiness. © 2021</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2240,15 +2240,15 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Enforceability of decisions of the Agricultural Paying Agency in matters of direct payments</t>
+          <t>Opportunities and barriers in diversified farming and the use of agroecological principles in the Global North–The experiences of Danish biodynamic farmers</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Since its inception, the Common Agricultural Policy has been the largest among all common European policies. The main objective of the Common agricultural policy is food sovereignty in the European Union, stabilization of farmers' incomes and, at present, support for non-production functions of agriculture and environmental protection. Given the rising input prices and the time mismatch between supply and demand for agricultural products, the first pillar of the CAP has become a key tool for sustaining the desired competitiveness of agricultural products in the EU Member States. Direct payments have become an important tool for Slovak farmers, and therefore their effective implementation is essential for their continued existence or development. The aim of the paper was to point out the weak enforceability of direct payments to eligible users of agricultural land if there is a conflicting legal entitlement to provide a direct payment in accordance with §28 and §29 of Act no. 280/2017 Coll. and the resulting problems for eligible applicants. © 2020 by the author(s).</t>
+          <t>Diversification through agroecological principles may maintain and stabilize yields in an increasingly more unpredictable climate, including market price fluctuations, as well as preserve and enhance the threatened natural resource base and the environment. Based on a participatory interview process this article identifies the barriers encountered by a group of Danish biodynamic farmers striving for self-sufficient farm systems with no or very little dependency on imported materials by developing biologically, economically and socially diverse farms. Through an iterative interview process the study found that barriers outside farm management are hindering the transition toward diverse farming and that a further exploration of the need for and implications of food sovereignty in the Global North might generate the discussions needed to support implementation of more agroecological farming system practises. © 2020 The Author(s). Published with license by Taylor &amp; Francis Group, LLC.</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2276,15 +2276,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>State food security and people’s food sovereignty: competing visions of agriculture in China</t>
+          <t>Transition to agroecology for improved food security and better living conditions: case study from a family farm in Pinar del Río, Cuba</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>This article examines reactions to global agribusiness concentration in the People’s Republic of China (PRC). In many countries, there is a trend of agribusiness concentration among relatively few multinational corporations (MNCs), which is often challenged by various forms of resistance from local food movements. The article identifies distinct overlap in discourses within the PRC. Arguments made by Chinese state/corporate actors and those by actors from alternative food movements focus on contesting global agricultural capital. These commonalities reveal a discursive battleground in China that creates unique constraints (and opportunities) for food activists, given state food security priorities. © 2018, © 2018 Canadian Association for the Study of International Development (CASID).</t>
+          <t>The process of transition to agroecology of family farms is a topic of great importance in Cuba and the need to support family farming is gaining worldwide attention, while agroecology has been recognized as the most promising approach for the sustainable development of smallholder farmers. This work analyzes the process of agroecological conversion implemented by a family farm in western Cuba, highlighting the causes that enabled the process of transition and examining its effects on the family’s food security and livelihoods. The study shows how all the four aspects of food security–availability, access, stability, and utilization–have improved after the transition to agroecology, while positive impacts are also registered in soil quality, environmental sustainability, and resilience. From the point of view of economic sustainability, the transition has had high costs at the beginning but, after three years, agroecological production is resulting in increased income and better living conditions. The work also suggests actions to be implemented in order to advance in the process of transition to agroecology and hence achieve full food sovereignty. © 2020 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2312,15 +2312,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mobilising for food sovereignty: The pitfalls of international human rights strategies and an exploration of alternatives</t>
+          <t>Agroholdings, Technology, And The PoliTicAl economy of russiAn AgriculTure</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>This article considers the role played by the language of human rights in a global campaign for food sovereignty. Led initially by the international peasants’ movement, Vía Campesina, the campaign opposes the globalisation of agricultural markets and neoliberal interventions in food production. Alongside other strategies, the campaign makes creative use of human rights and also seeks their institutionalisation in a UN Declaration on the rights of peasants. An examination of how the campaign employs human rights reveals a more complicated process than that suggested by the theoretical polarisation of ‘top down’ and ‘bottom up’ accounts of rights development in the sociology of human rights. It demonstrates both wariness of state power and attempts to harness the power of the state against international forces. It also shows that a desire for legal reform co-exists with the struggle for more radical social and political transformations. © 2017 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Research for this article was conducted with the support of the Swiss National Science Foundation, the Swedish Collegium for Advanced Studies, and the University of Notre Dame. This article details the rise of Russian agricultural corporations, known as the agroholdings. These companies have accumulated control of Russia’s most fertile land over the last 20 years and have become the main producers of agricultural commodities and processed food. They are also the driving force of a profound technological transformation of agriculture and food production during this time. A core claim of this article is that the technopolitics of twenty-first-century Russian agriculture made the meteoric rise of agroholdings possible. Technology was central to both the economic and political roles of these large, vertically integrated agricultural conglomerates. Agroholdings grew rapidly because they adopted cutting-edge agricultural technologies that maximized yields and economic efficiency. Agroholdings’ control of technologies earned them, in turn, the political support they needed to thrive in the state capitalist system of the Putin era. They were privileged allies of President Vladimir Putin’s government, which sought to enlist them for the political goals of strengthening domestic farming and food production and reducing Russia’s dependence on food imports. More broadly, the article suggests that a technopolitical lens recasts and improves our understanding of the political economy of post-Soviet Russia. Technopolitics reveals the role of both the state and corporate actors, of power and capital, in the construction of a new economic order and draws attention to how these processes shape post-Soviet byt. © Laboratorium: Russian Review of Social Research</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2348,15 +2348,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Agroecologies of displacement: a study of land access, dislocation, and migration in relation to sustainable food production in the Beach Flats Community Garden</t>
+          <t>Policy pitfalls and the attempt to institutionalize agroecology in El Salvador 2008-2018</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>In this article, the Beach Flats Community Garden is used as a case study to theorize an “agroecologies of displacement.” We argue that farmers are increasingly less singularly place-based through involuntary displacement and that displacement and dispossession can shape agricultural practices in farming communities. We follow Cohen (2010), Kerssen and Brent (2017), and others in calling for the necessity to bring a historical and focused analysis of displacement, dispossession, and the dynamics of land under capitalist systems to our understanding of the articulations of food movements, in particular transformative agroecologies. © 2018, © 2018 Taylor &amp; Francis.</t>
+          <t>This paper analyzes the experience of the Salvadoran cooperative movement in pursuing a political project for the institutionalization of agroecology in the years 2008–2018, under two consecutive FMLN governments in 2009 and 2014. Following El Salvador’s “turn to the left”, Salvadoran agrarian reform cooperatives and civil society allies began to allocate organizational resources toward writing public policy measures to incorporate agroecology under the FMLN government’s agricultural social program, the Family Agriculture Plan (PAF). While the cooperative sector took part in active negotiations with the FMLN party for the institutionalization of favorable policies, the former guerrilla party formulized strategies for gaining a multiclass electorate in order to remain in power. With the intention to better understand the attitude and distinct Salvadoran actors, we utilize an anthropology of public policy framework to indicate how expectations of political party legitimacy failed to shape the institutionalization of agroecology in El Salvador. We suggest that the pursuit of agroecological policies is a balancing act of making use of the State to strengthen on the ground efforts without forging organizational disarticulation following changes in government administrations. © 2020, © 2020 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2384,15 +2384,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Could social farming be a strategy to support food sovereignty in Europe?</t>
+          <t>Land grabs, farmworkers, and rural livelihoods in West Africa: some silences in the food sovereignty discourse</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Food sovereignty (FS) aims to obtain value-added products in proximity agriculture (PA) in order to achieve food security in a country. Social farming (SF) can help to develop this PA as well as favoring integration of people at risk of social exclusion (RSE). The methodology includes a review of the literature, a survey of 161 SF projects in Catalonia, and ten selected in-depth interviews. “Social Return on Investment” (SROI) methodology is also applied to assess the efficiency of the projects analyzed. The results show the economic, social, and environmental viability of the majority of the SF projects which, also favored by FS and PA, allows the development of innovative experiences and sustainable forms of governance. SF has been carried out in different ways in European countries, although with the common aims of benefitting people at RSE, and using the natural environment and PA through projects basically promoted by Third Sector entities. Management of these projects is in the hands of foundations and non-profit companies making top-down decisions, and in cooperatives and associations, where decision-making is bottom-up. It can be concluded that the promotion of SF can favor PA, and therefore, FS in Europe. © 2019 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>The global land rush has spurred small, modest, and big anti-land grab mobilizations, notably the food sovereignty movement. The movement has been instrumental in representing the interests of small-scale family farmers whose livelihoods are threatened by capitalist control over land in the countryside. However, this dominant narrative tends to overlook or de-emphasize some important diversity within the peasantry. In West Africa, anti-land grab discourses emphasize family farming as a major collective action frame, focusing less on issues related to agricultural wage labour–farmworkers’ access to land, food, and decent working conditions. If food sovereignty is to fully realize its potential power as a counter-narrative to neoliberalism, and as a possible democratic alternative for working people with differentiated and at times competing socio-economic interests, then demands that adequately reflect the agrarian struggles of the rural working people have to be put onto the agenda and engaged better than it is now. © 2020 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2420,15 +2420,15 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>My land is my food: Exploring social function of large land deals using food security–land deals relation in five Eastern European countries</t>
+          <t>Agro-ecological transition of agricultural production systems at imbabura province of Ecuador; [Transição agroecológica de sistemas de produção agrícola na província de imbabura Equador]; [Transición agroecológica de los sistemas de producción agrícola de la provincia de imbabura Ecuador]</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Food security provides a major topic for this study and the recurring point is food security–agricultural land relation. The analysis is grounded on the assumption that control over agricultural land means control over food. Effective control over land is one of the riskiest issues of large land deals. Permanent supply and sustainable access to quality food is influenced by structural socio-economic and political arrangements targeting agricultural land which often prevent individuals and entire communities from acquiring basic competencies and rights for their autonomy. The objective of the study is two folded: to investigate five Eastern European countries characteristics which are valued as determinants of food security–large land deals relation and to highlight the social utility of agricultural land property. Thus, the substantive theme of this study grows out of several observed streams of large land deals. In the first part, historical and economic influential factors connected to large land deals in Eastern Europe are approached, within the context of transition from centrally planned state economy to free market economy. The second part takes up the challenge to analyze the correlation between country characteristics that can impact on food security–land transaction relationship. Then, the paper goes on to introduce and explain, following Léon Duguit's theory of social utility, aspects about the social function of agricultural land ownership. Based on non-parametric tests, which included a set of 14 socio-economic variables, the results show, for example, a strong positive correlation between the size of closed land deals and both the size of country land area and of land under cereal production. The paper concludes with several proposals targeting fair land arrangements and practices that have the potential to transform themselves in building blocks for future policies dedicated to sustainable land management and food security. © 2019 Elsevier Ltd</t>
+          <t>Transitional processes from conventional agricultural systems to agro ecological production systems has been promoted at Imbabura province in Ecuador, but development difficulties have been observed, due to farmer’s decisions for embracing transition, depends not only on the technology and local resources available, but also on several aspects of the surrounding social, economic and institutional system. A research was conducted, in order to characterize the transitional agro ecological degree of production systems at Imbabura province, regarding the social cooperation activity, the natural resources management and the public policies dynamics, A stratified random sample of 50 producers was taken, to whom a questionnaire was applied. Data was analyzed by descriptive statistics. Cramer test was used to determine the relationships of each item to municipalities. Results showed that, in social dynamics, there is a high degree of trust, participation and reciprocity but it is necessary to strengthen exchange networks, also, it was observed a high degree of agro ecological and conservationist practices. Agro ecological transition is limited by public policy dynamics because there are no incentive programs and also there are few institutional incentives to support agro ecological work, even though it is established by the current Food sovereignty law. Participation and used of self-harvest seeds were related to municipality. Otavalo is the municipality that displays greater dynamism and progress in the process of agro-ecological transition. © 2020, Universidad del Zulia. All rights reserved.</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Beyond the “special period”: land reform, supermarkets and the prospects for peasant-driven food sovereignty in post-socialist Cuba (2008–2017)</t>
+          <t>The importance of vision in food system transformation</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>When Cuba’s trade-based food security strategy was threatened by the collapse of the socialist trading block in 1989–1991, the popular response of small and irregular farmers proved vital in providing a minimum food basket during the ensuing crisis. In 2008, a large-scale land reform sought to expand this development towards food sovereignty. We evaluate the reform impacts, finding that after an initial surge in 2009–2010, food production and land use have rebounded and stagnated at pre-reform levels. Peasant-led agricultural development is forestalled by inaccessibility of appropriate technologies, perceived land tenure insecurity, missing/deficient markets and competition from import-based supermarket chains. © 2019, © 2019 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Despite growing calls for food system transformation, the need to develop a vision to guide that transformation is sometimes overlooked. Vision is essential to inspire, mobilize, and keep a collective of people on track toward their goals. Individual visions can be exhilarating, but the visions that create change are taken up by large groups or movements of movements. A vision is a beginning for transformation, but it requires policy that enables it to be enacted, ideally through democratic processes. The vision, buttressed by policy and democratic governance, is what determines where people are able to buy food, how much they pay, whether farmers earn decent incomes, and whether the food is healthy. Without vision, policies are likely to be incoherent or to work at cross-purposes, as has happened in the farm bill and the European Union’s Common Agricultural Policy. A range of visions generated at different scales, from autonomous community to state to region, can serve as examples for people committed to food system transformation. © 2019 by the Author.</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2492,15 +2492,15 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Can the state take agroecology to scale? Public policy experiences in agroecological territorialization from Latin America</t>
+          <t>‘Keeping seeds in our hands’: the rise of seed activism</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>In this article we use a food sovereignty frame to analyze the role of the State in favoring agroecological scaling, particularly in Cuba and in the Latin American countries that elected leftist governments in the first years of the 21st century and currently face an upsurge of right-wing political forces. As with social movement participation in international governance structures, at the national level social movements face risks when they allow themselves to become absorbed in collaborations with the State in order to build public policy for taking agroecology to scale. By participating in the institutionalization of agroecology, movements become part of the established rules of the game, having to move within limits defined by a system that exists to preserve the interests of the dominant class. On the other hand, by boycotting the arena of governance, agroecological movements allow resurgent political and economic elites to grab land, territories and resources needed for agroecological food systems to ever become a global substitute for industrial agriculture. At the heart of the matter is the political character of agroecology: shall we continue betting on reform, in times of (counter) revolution?. © 2019, © 2019 Taylor &amp; Francis Group, LLC.</t>
+          <t>Semantic innovations like seed commons, peasant seeds and seed sovereignty are a powerful expression of what may be termed as seed activism. In this opening paper of the JPS Special Forum on Seed Activism, we explore the surge of mobilizations the world over in response to processes of seed enclosures and loss of agrobiodiversity. A historical overview of the evolution of seed activism over the past three decades traces a paradigm shift from farmers’ rights to seed sovereignty. Some of the main threats to peasant seed systems–from seed and intellectual property laws to biopiracy, corporate concentration and new genome editing technologies–are analyzed along with strategies by peasants and other activists to counter these developments. We take stock of what has been achieved so far and of the challenges ahead, and suggest some avenues for future research. © 2020, © 2020 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2528,15 +2528,15 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Globalisation and food sovereignty: Impact of foreign direct investments and government expenditure in Ghana in 2001–2010</t>
+          <t>“Going local”: farmers’ perspectives on local food systems in rural Canada</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>The article looks at the globalisation effects on food availability in Ghana. The aim of the article is to analyse which of the selected macroeconomic indicators have a statistically significant impact on the increase of food availability in the country. Impacts of foreign direct investments on agriculture and government expenditures in agriculture have been tested. Correlation analyses and multiple regression analyses have been used to analyse the test results. Findings suggest that change in both foreign direct investments in agriculture and government expenditures in agriculture cause significant change in food availability in Ghana. At the same time, the impact of government expenditures on the amount of available food is in the case of Ghana more than two‑times higher than the impact of agricultural foreign direct investments, while the increase in government expenditures in agriculture does not cause a decrease in foreign direct investments in agriculture. © 2019 Mendel University of Agriculture and Forestry Brno. All Rights Reserved.</t>
+          <t>Amid the highly industrialized, export-focused food system of the Canadian prairies, some farmers and consumers are turning to localized agriculture as an alternative—they are “going local”. Despite farmers’ obvious importance to the food system, surprisingly little research has examined their motivations and reasons for localization. To date, most local food scholarship in North America has focused on either consumers’ motivations to buy local or the systemic aspects of local food, such as regulations, infrastructure, and marketing arrangements. Existing research suggests that local food systems are supported by consumers’ rejection of the industrial paradigm and desire to (re)connect with their food and its source. But what drives farmers to localize, particularly when export-focused production is firmly entrenched as the status quo? Based on interviews and focus groups with 60 farmers, processors, policy experts, and retailers in the Canadian prairie province of Saskatchewan, this paper examines local food systems from the producer perspective in a rural context of high industrialization and geographical dispersion. We examine what motivates farmers to produce for local markets, and what forces they must resist to do so. The findings indicate that farmers’ main motivations for localization are political and social in nature, and stem from a critique of the dominant neoliberal agri-food system. We map farmers’ agential responses to this dominant system on a spectrum that ranges from acceptance of a neoliberal “feed the world” ideology to promotion of food sovereignty. Drawing on farmers’ perspectives, our findings question the straightforward equation of local food with environmental sustainability and also challenge neoliberal economic assumptions of “scaling up”. © 2019, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2564,15 +2564,15 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Dealing with rejection: An application of the exit-voice framework to genome-edited food</t>
+          <t>From hoes to story-telling as "weapons of the weak": Farmers' resistance to neoliberal 2007 multi-product management stabilization plan in Japan</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Genome editing has been hailed as both a revolutionary technology and potential solution to many agriculture-related and sustainability problems. However, owing to the past challenges and controversy generated by widespread rejection of genetic engineering, especially once applied to agriculture and food production, such innovations have also prompted their fair share of concern. Generally speaking, much of the discussion centers on the inadequacy or uncertainty of current regulatory regimes, partly owing to the vastly different approaches in the European Union and United States. Insofar as this focus on regulatory regimes is stimulated by the desire to bridge the divide between proponents and critics of genome editing, it risks losing sight of an essential aim of regulatory action: effectively responding to and fostering trust in consumers and the public. In this article, we thus assign priority to understanding the contours of individual dissatisfaction and its related responses. Toward this end, we apply and extend Hirschman's exit-voice framework to bring together, synthesize, and give much-needed substance to the diverse expressions of dissatisfaction and discontent with novel genome-editing technologies. Through the resulting synthetic framework, we then identify and evaluate which governance approaches can prevent actions seen to be problematic and, moreover, open up the space for a more active public. In this context, we devote specific attention to (i) use of labeling as a means to enable "exit" of consumers from markets and (ii) public deliberation as a possible expression of "voice." Indeed, both options are proposed and utilized in the context of genome editing, e.g., as a way for skeptical consumers to express their viewpoints, seek change in prevailing food systems, and navigate the conflicts and tensions from applying unique sets of values to assess the balance of risks and benefits. So far missing, though, is an evaluation of how well such efforts offer effective means for public expression, which is why we also link this framework to the wider issue of consumer sovereignty. Having done so, we conclude with a brief commentary on the potential and limitations of both options in the existing institutional framework of the EU. © 2019 Bartkowski and Baum.</t>
+          <t>While neoliberalism has promoted free trade, market rule, and productivist agriculture in the food production system, farmers and their unions in developed countries partially managed to shun the forces of neoliberalism. What are the underpinning strength and factors of such resilience? Discussions have concentrated at national policy and organizational level and tacit resistance at community and farm levels remain unexplored, inter alia from their historical embeddedness perspective. This study explores the way Japanese farmers frame their contemporary political situation with neoliberalism of the late 2000s with a grounded approach of face-to-face interview at a community level. The farmers resist it mobilizing Scott's anthropological notion of "Weapons of the Weak"through story-telling instead of hoes in ancient time (Scott JC, Weapons of the weak: everyday forms of peasant resistance, 1985). In concrete, the farmers resisted a neoliberal policy of Hinmoku Odanteki Keiei Antei Taisaku, or the Multi- Product Management Stabilization Plan (MPP), in the early 2000s, which promoted larger scale farming to pursue the efficiency of scale merits. The policy was first introduced in 2005 as a concept and dominated the agricultural policy scenes from 2007 to 2009, and then its influence disappeared toward 2010. The rise and fall of the concept and policy provide us with rare opportunity to examine the historical embeddedness of the farmers and their resistance to such neoliberal globalization. We conducted interviews with the leaders of cooperative farms and stakeholders in Daisen City, Akita Prefecture, Japan; the study found that farmers' framing of neoliberalism was ambivalent causing partial adoption and resistance. The leaders of the cooperative farms could form the cooperative farms but thought further development difficult because members intended to keep their farming independent. Close frame and discourse analysis revealed that farmers in Japan could express their frustration on neoliberal discourse and policy through multiple tactics of "Weapons of the Weak"by complaining to the leaders, miscalculating the figures, or claiming family-based food sovereignty that "we produce what goes into our family mouths."Such tactics procrastinated the process and eventually stopped the policy. The incident demonstrates how farmers in the network can slow the progress of neoliberal discourse and policy implementation. From the analysis, the notion of "Weapons of the Weak"can be applied as a part of the combination with farmers' historical embeddedness, symbolism of foods, framing, and electoral resistance.  © 2020 The Author(s).</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2600,15 +2600,15 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Agroecology and food sovereignty</t>
+          <t>Alternative discourses around the governance of food security: A case study from Ethiopia</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>We propose that agroecology provides a framework for understanding ‘levels’ for the transition to sustainable food systems. If we agree that agroecology includes social and political dimensions of governing territorial food systems, then it must be linked to movements for food sovereignty. However, the concentration of power in food and farming systems locks in industrial logic, posing immense barriers to agroecological and social transition. This creates a tension between efforts at convergence of food system innovations from below, versus co-optation of grass-roots language and practices by private and public actors who are committed not to changing the logic of industrial agriculture, but instead to reducing its harm. We suggest agroecological and food sovereignty movements consciously embrace this tension as a dance of creativity and appropriation. If this dance can be made generative rather than deadly, it can open pathways for transition to new ways of seeing, experiencing, and getting food. © 2019 The Authors. IDS Bulletin and Institute of Development Studies.</t>
+          <t>Global discourses on the governance of food security span competing approaches. For example, a neoliberal approach advocates commercialized, industrial agriculture, while food sovereignty and resilience are part of an alternative discourse to food security that prioritizes locally-based agroecological food production. Understanding how global discourses play out locally and how they impact the environment and biodiversity is important to identify appropriate pathways towards sustainability. In addition to their effects on food security, different approaches could reinforce or impede the success of biodiversity conservation because of the strong interdependence of food security and ecosystems. We applied the Q-methodology to examine alternative approaches to food security and biodiversity conservation pursued by 50 stakeholders from local to national levels in southwestern Ethiopia. We identified four distinct approaches, focusing on (1) smallholder commercialization, (2) agroecology and resilience, (3) local economy and equity, and (4) market liberalization. All approaches prioritized smallholders, but perspectives on how to achieve food security varied. Agricultural intensification, commercialization, and profit were widely considered important, while support for agroecology and resilience was largely restricted to non-government organizations. With the exception of supporters of the agroecology and resilience approach, biodiversity conservation was considered as a secondary goal. We conclude it is important to acknowledge plurality of food security approaches because local conditions are characterized by a multiplicity of stakeholder interests, and because food security is a complex problem that requires a multidimensional approach. However, major contradictions among existing approaches need to be reconciled, and the agroecology and resilience approach should be strengthened to ensure the sustainable achievement of food security and biodiversity conservation. © 2019 Elsevier B.V.</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2636,15 +2636,15 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Social change for sustainable localised food sovereignty: Convergence between prosumers and ethical entrepreneurs*</t>
+          <t>Interview with João Pedro Stédile, national leader of the MST–Brazil</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Some resourceful community-driven initiatives for local food production and retail have recently appeared in Luxembourg, where low organic agricultural rates are paradoxically paired with high consumer demands. This niche of social innovators combines agro-ecology with circular economy practices. Four cases of alternative food networks are presented here – studied with qualitative interviews and participant observation. One was established in the 1980s and has about 200 employees, partly linked to social assistance. The more recent and smaller initiatives are characterised by cooperative governance, a community-supported agricultural outlook, hands-on workshops and time banks, all enabled by social media. These initiatives are more radical in their agro-ecological or permaculture practices, focusing on regenerative land use without relying on imports and fostering the integration of consumers with varying degrees of prosumer involvement. This politicised step goes further than mere (and possibly industrialised) organic production. It represents a cultural shift in the food system by attracting media and policy interest, diverting attention away from individuals and focusing instead on the collective efforts that are necessary to build a more resilient food system. Copyright © FrancoAngeli</t>
+          <t>The pandemic has underlined the need to continue fighting for paradigmatic change, including toward food sovereignty for our people and agroecology to produce while preserving nature. © 2020, © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -2672,15 +2672,15 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Human ecology and food systems: Insights from the Philippines</t>
+          <t>NGO perspectives on the social and ethical dimensions of plant genome-editing</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Feeding the world sustainably requires balancing social, economic, and environmental concerns. The food systems concept guides the study of social and environmental processes that influence food and nutrition security. Human ecology conceptually offers insights into the social components of a system and its interaction with environmental change. This paper demonstrates how human ecology helps identify the dominant discourses that influence dominant social drivers in food systems. This is done through documenting the historical legacies of agricultural commodity production systems in the Philippines since Spanish colonization, and the human and ecological implications of this history. The analysis shows the presence of a maladaptive system influenced by market-oriented food security as a dominant discourse. Alternative discourses focused on sovereignty and participation exist in the Philippines, however these are often marginalised from dominant policy and research programs. The paper discusses how weak feedback processes provide possible intervention points in policy or farmer-led activities to explore alternative pathways to food and nutrition security. The paper concludes with highlighting how human ecology offers useful framework for advancing food systems analysis into social, political, and policy dimensions of food activities. Such analysis can help develop new research and policies that require managing the competing discourses of how to achieve sustainable food and nutrition security. © 2018, Society for Human Ecology. All rights reserved.</t>
+          <t>Plant genome editing has the potential to become another chapter in the intractable debate that has dogged agricultural biotechnology. In 2016, 107 Nobel Laureates accused Greenpeace of emotional and dogmatic campaigning against agricultural biotechnology and called for governments to defy such campaigning. The Laureates invoke the authority of science to argue that Greenpeace is putting lives at risk by opposing agricultural biotechnology and Golden Rice and is notable in framing Greenpeace as unethical and its views as marginal. This paper examines environmental, food and farming NGOs’ social and ethical concerns about genome editing, situating these concerns in comparison to alternative ethical assessments provided by the Nuffield Council on Bioethics, a key actor in this policy debate. In doing so, we show that participant NGOs and the Nuffield Council on Bioethics share considerable concerns about the social and ethical implications of genome editing. These concerns include choices over problem/solution framing and broader terminology, implications of regulatory and research choices on consumer choice and relations of power. However, GM-engaged NGOs and the Nuffield Council on Bioethics diverge on one important area: the NGOs seek to challenge the existing order and broaden the scope of debate to include deeply political questions regarding agricultural and technological choices. This distinction between the ethical positions means that NGOs provide valuable ethical insight and a useful lens to open up debate and discussion on the role of emerging technologies, such as genome editing, and the future of agriculture and food sovereignty. © 2019, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2708,15 +2708,15 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Food security and food sovereignty in West Africa</t>
+          <t>The spatial planning to implement sustainable agricultural land</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>The paper analyzes the evolution of food security in West Africa during the last 25 years. The Millennium Development Goal One aims at halving the proportion of people who suffer from hunger by 2015. Although Sub-Saharan Africa remains far from reaching the hunger target, West Africa presents a better situation, with eight countries that will meet the target. The paper focuses on international food trade, analyzing the recent growth of food imports in West Africa and the impact of this growth on food security. The last part of the paper is focused on the case of Benin: the country achieved an important reduction in undernourishment since 1990. The analysis aims to highlight the role of short food supply chains in rural development and therefore in food security strategies. The department of Atacora, in northern Benin, is used as a case study to show the recent evolution of local food networks in a region traditionally characterized by an export-oriented agriculture. In conclusion the paper highlights the link between food security, international trade, and local food networks, showing the potential of the ‘food sovereignty’ paradigm in understanding the geographies of food in West Africa. © 2016 The African Specialty Group of the American Association of Geographers.</t>
+          <t>Indonesia is an agricultural producing country; the agricultural sector becomes its main economic base. Empirically, most of Indonesians work in this sector as their livelihood. Article No. 33 Chapter (3) of Undang-undang Dasar 1945 (The 1945 Constitution of The Republic of Indonesia) states a role of the state in managing and regulating land. It is clearly declared that land, water and natural resources contained therein are owned by the state and used as much as possible for the prosperity of the people of Indonesia. Land conversion is usually related to the process of regional development, even it can be said that the land conversion is a consequence of the development. In fact, most of the land conversion shows an imbalance dominated by business owners who are alleged to be modern capitalists having Building Construction Permits (IMB) issued by the government. Based on Regulation of Government No. 1 of 2011 concerning Determination and Land Conversion of Sustainable Agricultural Land, it is a field of agricultural land determined to be consistently protected and developed to produce staple food for the autonomy, resilience and sovereignty of foods for the nation. © 2020 SERSC.</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -2744,15 +2744,15 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>An initiative for the study and use of genetic diversity of domesticated plants and their wild relatives</t>
+          <t>Enforceability of decisions of the Agricultural Paying Agency in matters of direct payments</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Domestication has been influenced by formal plant breeding since the onset of intensive agriculture and the Green Revolution. Despite providing food security for some regions, intensive agriculture has had substantial detrimental consequences for the environment and does not fulfill smallholder’s needs under most developing countries conditions. Therefore, it is necessary to look for alternative plant production techniques, effective for each environmental, socio-cultural, and economic conditions. This is particularly relevant for countries that are megadiverse and major centers of plant domestication and diversification. In this white paper, a Mexico-centered initiative is proposed, with two main objectives: (1) to study, understand, conserve, and sustainably use the genetic diversity of domesticated plants and their wild relatives, as well as the ongoing evolutionary processes that generate and maintain it; and (2) to strengthen food and forestry production in a socially fair and environmentally friendly way. To fulfill these objectives, the initiative focuses on the source of variability available for domestication (genetic diversity and functional genomics), the context in which domestication acts (breeding and production) and one of its main challenges (environmental change). Research on these components can be framed to target and connect both the theoretical understanding of the evolutionary processes, the practical aspects of conservation, and food and forestry production. The target, main challenges, problems to be faced and key research questions are presented for each component, followed by a roadmap for the consolidation of this proposal as a national initiative. © 2018 Mastretta-Yanes, Acevedo Gasman, Burgeff, Cano Ramírez, Piñero and Sarukhán.</t>
+          <t>Since its inception, the Common Agricultural Policy has been the largest among all common European policies. The main objective of the Common agricultural policy is food sovereignty in the European Union, stabilization of farmers' incomes and, at present, support for non-production functions of agriculture and environmental protection. Given the rising input prices and the time mismatch between supply and demand for agricultural products, the first pillar of the CAP has become a key tool for sustaining the desired competitiveness of agricultural products in the EU Member States. Direct payments have become an important tool for Slovak farmers, and therefore their effective implementation is essential for their continued existence or development. The aim of the paper was to point out the weak enforceability of direct payments to eligible users of agricultural land if there is a conflicting legal entitlement to provide a direct payment in accordance with §28 and §29 of Act no. 280/2017 Coll. and the resulting problems for eligible applicants. © 2020 by the author(s).</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -2780,15 +2780,15 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Communication as Resistance in Food Politics</t>
+          <t>Politics of law of the protection of plant variety (Pvt) and its implications for food security in indonesia: A maqashid al-shari'ah perspective</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>The global food system is a site of domination and resistance for those opposed to the conventional model of industrial agriculture. This article applies a political economy of communication lens to the relations of power that operate in the field of food politics where tensions involving food security, peak oil, and anthropogenic climate change present major challenges. At the heart of this trilemma social movements of small-scale farmers contest the dominant narratives that biotechnology, development, and free trade will feed the world. This article describes how farmers’ movements in Brazil, Chile, and Cuba apply resistive epistemologies in to complement for agroecological production methods. The purpose is to develop political consciousness among rural food producers and workers who are subjugated under neo-liberalism. The article also presents the challenges that members of the international farmers’ movement, La Vìa Campesina, face in advancing their political influence through participation in invited spaces such as the UN Food and Agriculture Organisation’s World Committee for Food Security. © The Author 2018</t>
+          <t>The birth of the Law on Plant Variety Protection (PVP) is a consequence of Indonesia in its participation as a signatory country for the GATT/WTO agreement, which one of the series of agreements contains Trade-Related Aspects of Intellectual Property Rights (TRIPs). This agreement implies that after ratification, Indonesia must harmonize legislation in the field of intellectual property rights with the approval of TRIPs, including in the field of Plant Variety Protection. Philosophically there are several provisions in the PVP Law that need to be observed. One of them is the focus of this law that prioritizes economic interests and breeder rights rather than farmer rights. By using qualitative research and philosophical approach, this study concludes: First, in the perspective of politics of law, the protection of plant varieties in Indonesia has not been based on an ideal basis of Indonesian politics of law. Ideally, the stipulation of law in Indonesia must prioritize an ideological and normative basis that originates from Pancasila and the UUD 1945 as central values and are essential to Indonesian politics of law. Second, Plant Variety Protection in Indonesia is still oriented to food security, not to the limit of food sovereignty. The orientation of the Law on PVP should lead to efforts to liberate this country from the element of dependence on other countries by leading to food sovereignty. Third, in the perspective of Maqashid Sharia, the protection of Plant Varieties in Indonesia has not yet described efforts to create benefit for the Indonesian nation as a whole. The nature of Maqashid sharia is a benefit that rests on the interests of society in general. © IJSTR 2020.</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2816,15 +2816,15 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>The insecurity of food security in Russia’s Far North</t>
+          <t>Extrafamilial farm succession: an adaptive strategy contributing to the renewal of peasantries in Austria</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>The food security model envisions food supply from industrial agriculture, food production from smallholders, and food imports. The food sovereignty model emphasizes locally-sourced food from sustainable agriculture and implies self-sufficiency while being silent on the role of imports. This article argues that neither model fits Russia’s Far North well. Residents of the Far North are generally food secure based on consumption, but their food security is insecure because of questions surrounding the reliability of food supply. The article suggests four additional factors to the food security model to sensitize it to the Russian Far North. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>This article examines extrafamilial farm transmission, a process that brings together elderly farmers without successors and young people who aspire to farm but face various economic, social and cultural barriers to enter into the sector. First-hand accounts of the process from Austrian smallholders are systematically analysed to produce a stage-by-stage model. The multigenerational non-familial agrarian partnership this represents offers an alternative mechanism for maintaining small-scale food production and improving food security and food sovereignty. It is recommended as an adaptive strategy for the survival and re-generation of peasantry in the twenty-first century. © 2018, © 2018 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -2852,15 +2852,15 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Greenhouse Agriculture in the Icelandic Food System</t>
+          <t>Do we need to categorize it? Reflections on constituencies and quotas as tools for negotiating difference in the global food sovereignty convergence space</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Greenhouses are a frequent feature on the Icelandic rural landscape and an integral part of Iceland's food system. Iceland's reserves of geothermal energy present an opportunity to extend an otherwise short growing season. This promotes sustainability, increases food security, and benefits consumers. This article examines the relative strengths of Iceland's greenhouse sector - using a combination of statistics, observations, and interviews to understand the resource demands of greenhouse agriculture, how well greenhouses can allay some food insecurity and provide local foods. It ends with an examination of how the reduction of subsidies used to keep greenhouse agriculture going, has had an effect and forces the question of whether losing much of Iceland's agricultural sector and locally sourced food is worth the social and political costs. © 2019 Gina M. Butrico, David H. Kaplan, published by Sciendo 2019.</t>
+          <t>Convergence–as an objective and as a process–designates the coming together of different social actors across strategic, political, ideological, sectoral and geographic divides. In this paper, we analyze the global food sovereignty movement (GFSM) as a convergence space, with a focus on constituencies and quotas as tools to maintain diversity while facilitating convergence. We show how the use of constituencies and quotas has supported two objectives of the GFSM: alliances building and effective direct representation in global policy-making spaces. We conclude by pointing to some convergence challenges the GFSM faces as it expands beyond its agrarian origins. © 2018, © 2018 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2888,15 +2888,15 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Food security problems and imperatives of the North Caucasus macro-region subjects</t>
+          <t>Agroecologies of displacement: a study of land access, dislocation, and migration in relation to sustainable food production in the Beach Flats Community Garden</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>This article concerns the analysis of food security in the North Caucasian macro-region. Any State is faced the challenge to provide safe food of domestic production to its population. This task is particularly relevant due to the emergence of a series of challenges and threats for country food sovereignty and its solution is impossible without active state support. The subjects of the North Caucasus Federal District have been selected as objects for this research. To identify the problems in country food security, the authors analyzed the global rating «The Global Food Security Index" of the world's states. The authors also studied the internal and the external, economic and political objective and subjective factors and the potential for food security of macro-region. The authors analyzed the dynamics of development of the main types of agricultural production, the self-reliance level and production of basic foods, norms and actual food consumption. The authors show that with current sanctions and Russian anti-sanctions, there is a possibility of significant increase in agricultural production. The article draws conclusions on the significant differentiation of population per capita incomes by regions of the country and consumption of staple food. This study made it possible to identify the main problems and their impact on current Agro-Food market of the Russian Federation. The study recommends measures to strengthen food security by operational regional monitoring and by defining the evaluation indicators system of the level of food security comparable to systems at the international level. © 2018 International Strategic Management Association. All rights reserved.</t>
+          <t>In this article, the Beach Flats Community Garden is used as a case study to theorize an “agroecologies of displacement.” We argue that farmers are increasingly less singularly place-based through involuntary displacement and that displacement and dispossession can shape agricultural practices in farming communities. We follow Cohen (2010), Kerssen and Brent (2017), and others in calling for the necessity to bring a historical and focused analysis of displacement, dispossession, and the dynamics of land under capitalist systems to our understanding of the articulations of food movements, in particular transformative agroecologies. © 2018, © 2018 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2924,15 +2924,15 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Analysing agricultural investment from the realities of small-scale food providers: grounding the debates</t>
+          <t>Could social farming be a strategy to support food sovereignty in Europe?</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Over the past decade, agricultural investment has been presented as a catchall solution to a converging set of global crises, often with poor rural communities as the proclaimed beneficiaries. Yet the promises of such investment, such as poverty alleviation and improved food access, are routinely at odds with realities on the ground. This article offers frameworks for analysis of agricultural investment that are grounded in the realities of small-scale food providers, drawing from two studies. The first study employs a right to food framework to identify the main channels through which food for consumption is procured by small-scale food providers and the factors impacting these channels. It draws on empirical data from within the Southern Agricultural Growth Corridor of Tanzania (SAGCOT), an investment model promised to lift rural communities out of poverty, which reflects a regional trend. Based on the shortcomings of the large-scale investments examined, the second study employs a food sovereignty framework to explore alternative forms of investment envisioned and/or already being put into practice by small-scale food providers in the SAGCOT area and elsewhere in Tanzania. While two different frameworks formed the basis of two different studies, both the studies and their frameworks are interrelated. The final section of this article makes the case for why both the right to food and food sovereignty are essential lenses for understanding agricultural investment vis-à-vis small-scale food providers and the ways in which they can serve as complementary tools for effective analysis. © 2018, © 2018 Southseries Inc., www.thirdworldquarterly.com.</t>
+          <t>Food sovereignty (FS) aims to obtain value-added products in proximity agriculture (PA) in order to achieve food security in a country. Social farming (SF) can help to develop this PA as well as favoring integration of people at risk of social exclusion (RSE). The methodology includes a review of the literature, a survey of 161 SF projects in Catalonia, and ten selected in-depth interviews. “Social Return on Investment” (SROI) methodology is also applied to assess the efficiency of the projects analyzed. The results show the economic, social, and environmental viability of the majority of the SF projects which, also favored by FS and PA, allows the development of innovative experiences and sustainable forms of governance. SF has been carried out in different ways in European countries, although with the common aims of benefitting people at RSE, and using the natural environment and PA through projects basically promoted by Third Sector entities. Management of these projects is in the hands of foundations and non-profit companies making top-down decisions, and in cooperatives and associations, where decision-making is bottom-up. It can be concluded that the promotion of SF can favor PA, and therefore, FS in Europe. © 2019 by the authors. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -2960,15 +2960,15 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Food security or food sovereignty?: Questioning the paradigm of Indonesian military involvement in agriculture</t>
+          <t>My land is my food: Exploring social function of large land deals using food security–land deals relation in five Eastern European countries</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Indonesian military (TNI) involvement in the agricultural sector had begun since the 1960s when they had a significant role in a global modernization of agriculture project led by the US government and world donor agencies, namely the Green Revolution. In 2015, TNI signed a MoU with the Ministry of Agriculture in a "Special Efforts Program for Accelerating Food Production" which again delivers an important role to the military in the agricultural sector by implementing a Green Revolution oriented farming. This paper, in contrasts to some of the previous writings, does not examine the right or wrong of this involvement. This study provides a paradigmatic response to a question, why TNI insists on implementing a program that after 50 years has not proven successful in reaching the target of food self-sufficiency? Based on literature studies and analysis of empirical data, this study suggests that there is a paradigmatic misperception among the policy makers, both civil and military, about food security concept. The authors also offer a new implementation framework based on the concept of food sovereignty that can be performed by policy makers in Indonesia and other developing countries. © 2018 CEJISS.</t>
+          <t>Food security provides a major topic for this study and the recurring point is food security–agricultural land relation. The analysis is grounded on the assumption that control over agricultural land means control over food. Effective control over land is one of the riskiest issues of large land deals. Permanent supply and sustainable access to quality food is influenced by structural socio-economic and political arrangements targeting agricultural land which often prevent individuals and entire communities from acquiring basic competencies and rights for their autonomy. The objective of the study is two folded: to investigate five Eastern European countries characteristics which are valued as determinants of food security–large land deals relation and to highlight the social utility of agricultural land property. Thus, the substantive theme of this study grows out of several observed streams of large land deals. In the first part, historical and economic influential factors connected to large land deals in Eastern Europe are approached, within the context of transition from centrally planned state economy to free market economy. The second part takes up the challenge to analyze the correlation between country characteristics that can impact on food security–land transaction relationship. Then, the paper goes on to introduce and explain, following Léon Duguit's theory of social utility, aspects about the social function of agricultural land ownership. Based on non-parametric tests, which included a set of 14 socio-economic variables, the results show, for example, a strong positive correlation between the size of closed land deals and both the size of country land area and of land under cereal production. The paper concludes with several proposals targeting fair land arrangements and practices that have the potential to transform themselves in building blocks for future policies dedicated to sustainable land management and food security. © 2019 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2996,15 +2996,15 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Feeding Prometheus: An Interdisciplinary Approach for Solving the Global Food Crisis</t>
+          <t>Beyond the “special period”: land reform, supermarkets and the prospects for peasant-driven food sovereignty in post-socialist Cuba (2008–2017)</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>The current global food system is inadequate to meet the needs of the current world population without compromising future well-being. For example, current intensified production systems lead to undernutrition in some regions coupled with epidemics of obesity in others while compromising their underlying ecological foundations, such as creating areas of ocean hypoxia. Such common observations challenge the research community to ask new types of basic questions and apply novel analytical frameworks for analyzing them. Elaboration of an integrated applied research agenda is imperative to addressing these global food system challenges. We propose that core competencies of a new analytical framework lie at the intersection of four domains: (1) the ecology of agroecosystems; (2) equity in global and local food systems; (3) cultural dimensions of food and agriculture; and (4) human health. This intersection constitutes a new analytical framework for transitions toward global food system sustainability. © Copyright © 2018 Vandermeer, Aga, Allgeier, Badgley, Baucom, Blesh, Shapiro, Jones, Hoey, Jain, Perfecto and Wilson.</t>
+          <t>When Cuba’s trade-based food security strategy was threatened by the collapse of the socialist trading block in 1989–1991, the popular response of small and irregular farmers proved vital in providing a minimum food basket during the ensuing crisis. In 2008, a large-scale land reform sought to expand this development towards food sovereignty. We evaluate the reform impacts, finding that after an initial surge in 2009–2010, food production and land use have rebounded and stagnated at pre-reform levels. Peasant-led agricultural development is forestalled by inaccessibility of appropriate technologies, perceived land tenure insecurity, missing/deficient markets and competition from import-based supermarket chains. © 2019, © 2019 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -3032,15 +3032,15 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>A food regime’s perspective on palestine: Neoliberalism and the question of land and food sovereignty within the context of occupation</t>
+          <t>Globalisation and food sovereignty: Impact of foreign direct investments and government expenditure in Ghana in 2001–2010</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>The question of land and its strategic, socio-political and agricultural relevance within the Israeli-Palestinian conflict must be understood against the background of the dominant position of Israel as occupational power, heavily affecting the access to, and the control over natural resources. The subjects discussed within this article are intrinsically linked via the usage of the food regime approach as analytical tool, and the article’s specific focus on land. An attempt is made to grasp the neoliberal restructuring of Palestine and its developments in the agricultural sector, paying particular attention to land grabbing. Neoliberalism aided the institutionalising and normalising of accumulation by dispossession in the occupied Palestinian territories (oPt), these being identified as a key feature of the corporate food regime, and leading to the marginalisation of rural communities and to depeasantisation. The crises of the food regime spurred food sovereignty movements all around the globe. While analysing the political demands and approaches of the concept of food sovereignty centered around natural resources, this article also explores why the concept offers various ideas for an alternative development in Palestine. This paper tries to show how specific dynamics observed by the food regime analytics can be helpful in contextualising developments within the oPt – ranging from neoliberal restructuring to the emergence of food sovereignty. © 2018 Mattersburger Kreis fur Entwicklungspolitik. All rights reserved.</t>
+          <t>The article looks at the globalisation effects on food availability in Ghana. The aim of the article is to analyse which of the selected macroeconomic indicators have a statistically significant impact on the increase of food availability in the country. Impacts of foreign direct investments on agriculture and government expenditures in agriculture have been tested. Correlation analyses and multiple regression analyses have been used to analyse the test results. Findings suggest that change in both foreign direct investments in agriculture and government expenditures in agriculture cause significant change in food availability in Ghana. At the same time, the impact of government expenditures on the amount of available food is in the case of Ghana more than two‑times higher than the impact of agricultural foreign direct investments, while the increase in government expenditures in agriculture does not cause a decrease in foreign direct investments in agriculture. © 2019 Mendel University of Agriculture and Forestry Brno. All Rights Reserved.</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -3068,15 +3068,15 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>The political economy of rentier capitalism and the limits to agrarian transformation in Venezuela</t>
+          <t>Dealing with rejection: An application of the exit-voice framework to genome-edited food</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>This paper explores the contradictions and limits to agrarian transformation under 21st-century socialism in Venezuela. Given the historical destruction wrought by the oil-based accumulation process upon Venezuela's agricultural sector, the symbolic and social importance of an “agrarian revolution” could be seen as a yardstick with which to measure the progress of the Bolivarian Revolution in “sowing the oil”. Eschewing a policy focus on the role of “food sovereignty” and “food security”, the paper analyses how the dynamics of rentier-capital accumulation have played out in the agricultural sector. The paper argues that the macroeconomic framework of the Bolivarian Revolution has diminished the possibility of expanded domestic food production and instead reduced agrarian transformation to contradictory processes of ground rent appropriation. © 2017 John Wiley &amp; Sons Ltd</t>
+          <t>Genome editing has been hailed as both a revolutionary technology and potential solution to many agriculture-related and sustainability problems. However, owing to the past challenges and controversy generated by widespread rejection of genetic engineering, especially once applied to agriculture and food production, such innovations have also prompted their fair share of concern. Generally speaking, much of the discussion centers on the inadequacy or uncertainty of current regulatory regimes, partly owing to the vastly different approaches in the European Union and United States. Insofar as this focus on regulatory regimes is stimulated by the desire to bridge the divide between proponents and critics of genome editing, it risks losing sight of an essential aim of regulatory action: effectively responding to and fostering trust in consumers and the public. In this article, we thus assign priority to understanding the contours of individual dissatisfaction and its related responses. Toward this end, we apply and extend Hirschman's exit-voice framework to bring together, synthesize, and give much-needed substance to the diverse expressions of dissatisfaction and discontent with novel genome-editing technologies. Through the resulting synthetic framework, we then identify and evaluate which governance approaches can prevent actions seen to be problematic and, moreover, open up the space for a more active public. In this context, we devote specific attention to (i) use of labeling as a means to enable "exit" of consumers from markets and (ii) public deliberation as a possible expression of "voice." Indeed, both options are proposed and utilized in the context of genome editing, e.g., as a way for skeptical consumers to express their viewpoints, seek change in prevailing food systems, and navigate the conflicts and tensions from applying unique sets of values to assess the balance of risks and benefits. So far missing, though, is an evaluation of how well such efforts offer effective means for public expression, which is why we also link this framework to the wider issue of consumer sovereignty. Having done so, we conclude with a brief commentary on the potential and limitations of both options in the existing institutional framework of the EU. © 2019 Bartkowski and Baum.</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -3104,15 +3104,15 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>The agricultural production and food industry development trends in the context of food security of Russia</t>
+          <t>Agroecology and food sovereignty</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Food security, in its function as an integral component of the state’s economic security, is one of the central issues of the state economic policy in most post-Soviet countries. Over the last decade, the food security policy implementation vectors have changed. While at the beginning of the market reforms, the key task of the former Soviet Union countries’ governments was to fill the food market, regardless of the import component, currently, food sovereignty is moving to the forefront, including the availability and quality of food. The present paper attempts to systematize and analyze factors and contradictions that affect the country’s food security. The scientific importance of the work is determined by the comprehensive system approach to the factor analysis of the agricultural sector operation from the perspective of the following aspects: the ongoing foreign policy of the state (the membership in the World Trade Organization and product embargo) and the state financial support mechanism for the agriculture. © 2017. ASERS Publishing. All rights reserved.</t>
+          <t>We propose that agroecology provides a framework for understanding ‘levels’ for the transition to sustainable food systems. If we agree that agroecology includes social and political dimensions of governing territorial food systems, then it must be linked to movements for food sovereignty. However, the concentration of power in food and farming systems locks in industrial logic, posing immense barriers to agroecological and social transition. This creates a tension between efforts at convergence of food system innovations from below, versus co-optation of grass-roots language and practices by private and public actors who are committed not to changing the logic of industrial agriculture, but instead to reducing its harm. We suggest agroecological and food sovereignty movements consciously embrace this tension as a dance of creativity and appropriation. If this dance can be made generative rather than deadly, it can open pathways for transition to new ways of seeing, experiencing, and getting food. © 2019 The Authors. IDS Bulletin and Institute of Development Studies.</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -3140,15 +3140,15 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Troubling Tradition, Community, and Self-Reliance: Reframing Expectations for Village Seed Banks</t>
+          <t>Delinking, food sovereignty, and populist agronomy: notes on an intellectual history of the peasant path in the global South; [Déconnexion, souveraineté alimentaire, et agronomie populiste: notes sur une histoire intellectuelle du parcours paysan dans le Sud]</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Heralded by both food sovereignty activists and mainstream development practitioners, village seed banks are a rural development phenomenon rapidly gaining attention for their potential to support resilient agricultural systems. This paper presents a case study for examining the power of prevailing narratives of decentralized development to shape and ultimately constrain the operations of village seed banks in Telangana, India. This case demonstrates how visions of tradition, community, and self-reliance can serve to discount the materiality of seeds, the social complexity of village institutions, and even the voices of farmers. The goal of this research is not to criticize village seed banks, as they hold great potential, nor to vilify the narratives in question, but rather to encourage critical reflection on how the assumptions embedded in these narratives shape mechanisms for agricultural development. I argue for a shift away from framing tradition, community, and self-reliance as development solutions and propose an interrogative approach that turns these narratives into questions for engaging more effectively with rural livelihoods. © 2017 Elsevier Ltd</t>
+          <t>The article examines the weakness of discourses around food sovereignty in Southwest Asia and North Africa, and examines some older currents resembling the food sovereignty discourse. The author first historically situates the emergence of food sovereignty. He discusses agro-ecology–the ‘technics’ (or social embeddedness of technology) of food sovereignty–and its national-popular content, before then developing elements of the delinking paradigm. He goes on to discuss Tunisian national-popular and Third Worldist agronomists’ and economists’ efforts to develop technics and frameworks for food sovereignty in the 1970s and 1980s. The article compares the food sovereignty paradigm with auto-centred, self-reliant development proposals, and the proposals of the Tunisian economists and agronomists. © 2018 ROAPE Publications Ltd.</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Building sustainable social and solidarity economies: Place-based and network-based strategies of alternative development organizations in India</t>
+          <t>Social change for sustainable localised food sovereignty: Convergence between prosumers and ethical entrepreneurs*</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>This article critically examines and analyzes place-based as well as network-based strategies of alternative development organizations that claim to be building sustainable social and solidarity economies (SSE) in the political context of neoliberal globalization. While the Indian state and market forces are actively promoting the neoliberal agri-food system, alternative development organizations are working with farmers to build the SSE based on the principles of democracy, inclusiveness, reciprocity, cooperativism, and socioecological sustainability. Using a case study approach, this article analyzes how SSE initiatives are aiming to reclaim control over the local agri-food sector. Specifically, this article examines how community development organizations mobilize farmers based on the principles of agro-ecology and the politics of seed and food sovereignties. This article uses the Center for Sustainable Agriculture, an alternative community development organization in south India, as a case study. © 2017 Community Development Society.</t>
+          <t>Some resourceful community-driven initiatives for local food production and retail have recently appeared in Luxembourg, where low organic agricultural rates are paradoxically paired with high consumer demands. This niche of social innovators combines agro-ecology with circular economy practices. Four cases of alternative food networks are presented here – studied with qualitative interviews and participant observation. One was established in the 1980s and has about 200 employees, partly linked to social assistance. The more recent and smaller initiatives are characterised by cooperative governance, a community-supported agricultural outlook, hands-on workshops and time banks, all enabled by social media. These initiatives are more radical in their agro-ecological or permaculture practices, focusing on regenerative land use without relying on imports and fostering the integration of consumers with varying degrees of prosumer involvement. This politicised step goes further than mere (and possibly industrialised) organic production. It represents a cultural shift in the food system by attracting media and policy interest, diverting attention away from individuals and focusing instead on the collective efforts that are necessary to build a more resilient food system. Copyright © FrancoAngeli</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -3212,15 +3212,15 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Livelihoods crises in Vidarbha, India: Food sovereignty through traditional farming systems as a possible solution</t>
+          <t>Human ecology and food systems: Insights from the Philippines</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>The Vidarbha region in Maharashtra, India, home to 3.4 million smallholder farmers, is a major cotton-producing region in one of the wealthiest Indian states. However, between 1995 and 2013, more than 60,000 farmers took their own lives. Many of these suicides have been linked to extreme debt created by the expensive mono-cropping of Bt cotton. Some farming households have responded to these pressures by abandoning Bt cotton growing and turning to sustainable agriculture using traditional mixedcropping methods. Yet the question remains: have the changes produced better livelihoods in Vidarbha? Using a food sovereignty framework, we assess the impact of these changes through an analysis of a 200-household survey across six districts in Vidarbha. We also explore the meaning of food sovereignty for those who practise it, seeking to better understand some of the complexities and experiences associated with the term. © 2017 South Asian Studies Association of Australia.</t>
+          <t>Feeding the world sustainably requires balancing social, economic, and environmental concerns. The food systems concept guides the study of social and environmental processes that influence food and nutrition security. Human ecology conceptually offers insights into the social components of a system and its interaction with environmental change. This paper demonstrates how human ecology helps identify the dominant discourses that influence dominant social drivers in food systems. This is done through documenting the historical legacies of agricultural commodity production systems in the Philippines since Spanish colonization, and the human and ecological implications of this history. The analysis shows the presence of a maladaptive system influenced by market-oriented food security as a dominant discourse. Alternative discourses focused on sovereignty and participation exist in the Philippines, however these are often marginalised from dominant policy and research programs. The paper discusses how weak feedback processes provide possible intervention points in policy or farmer-led activities to explore alternative pathways to food and nutrition security. The paper concludes with highlighting how human ecology offers useful framework for advancing food systems analysis into social, political, and policy dimensions of food activities. Such analysis can help develop new research and policies that require managing the competing discourses of how to achieve sustainable food and nutrition security. © 2018, Society for Human Ecology. All rights reserved.</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -3248,15 +3248,15 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>The Evolution of Food Security Governance and Food Sovereignty Movement in China: An Analysis from the World Society Theory</t>
+          <t>African Green Revolution, food sovereignty and constrained livelihood choice in Mozambique</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Originating in a 1983 Mexican Government Program, the term ‘food sovereignty’ was coined in 1996 by La Via Campesina—a global peasant network—to address concerns within the civil society for food security. Rather than to accept the neoliberal framework of mainstream food security definition and governance, the food sovereignty movement seeks to view food security as the right of peoples to define their own food and agriculture systems with limited corporation intervention. As a result, food production should be geared toward the domestic and local markets and not toward international trade that only benefits corporations. This food sovereignty movement was inducted into China in 2013 just as China’s agricultural systems were shifting toward a more corporate-centric structure that increasingly exploits the small-scale farmers. A question was hence raised: How have the global civil society networks influenced the Chinese civil society and promoted China’s local food sovereignty movement? Through the world society theory, the author has identified social forums, such as international conferences and social media channels, as an expedient means for interactions. However, as the Chinese government continues to develop a corporate-centric food security governance system and tighten its civil society space, the impacts of China’s food sovereignty movement remain unclear. © 2017, Springer Science+Business Media B.V.</t>
+          <t>This article examines the complicated food security agendas of the African Green Revolution and the food sovereignty models in Mozambique. Drawing on fieldwork conducted by the author in Mozambique in 2014 and 2015, the paper analyses how smallholder farmers engage with these two agrarian models. Whereas the literature frequently presents the African Green Revolution and the food sovereignty in oppositional frames, this paper finds that farmers in Mozambique utilize some of the tools that these models offer in complementary rather than competing ways. One such area is the use of commercial hybrid seeds and herbicides by some farmers associated with food sovereignty, an approach that runs counter to food sovereignty’s principles of agroecology. In Mozambique, farmers’ “lived experience” of food sovereignty is more a strategic response to their limited livelihood options, using whatever tools are available to them, rather than a resistance to power. © 2018, © 2018 Canadian Association of African Studies.</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -3284,15 +3284,15 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Agroecology in Uruguay</t>
+          <t>An initiative for the study and use of genetic diversity of domesticated plants and their wild relatives</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>From its origins, agroecology in Uruguay has been considered as a critique of the dominant industrial agriculture model and linked to the development of alternative thinking from multiple actors. It aims to strengthen the ecological processes in agricultural systems while discussing the phenomena of concentration, alienation, and access to land, along with the problems of family agriculture and food sovereignty. Against the deepening of the industrialized model of agriculture, different actors drive the development of a National Agroecology Plan. An agroecological transition process is proposed by building sustainable development options, which arises from the agrarian and extends to the whole society. © 2017 Taylor &amp; Francis.</t>
+          <t>Domestication has been influenced by formal plant breeding since the onset of intensive agriculture and the Green Revolution. Despite providing food security for some regions, intensive agriculture has had substantial detrimental consequences for the environment and does not fulfill smallholder’s needs under most developing countries conditions. Therefore, it is necessary to look for alternative plant production techniques, effective for each environmental, socio-cultural, and economic conditions. This is particularly relevant for countries that are megadiverse and major centers of plant domestication and diversification. In this white paper, a Mexico-centered initiative is proposed, with two main objectives: (1) to study, understand, conserve, and sustainably use the genetic diversity of domesticated plants and their wild relatives, as well as the ongoing evolutionary processes that generate and maintain it; and (2) to strengthen food and forestry production in a socially fair and environmentally friendly way. To fulfill these objectives, the initiative focuses on the source of variability available for domestication (genetic diversity and functional genomics), the context in which domestication acts (breeding and production) and one of its main challenges (environmental change). Research on these components can be framed to target and connect both the theoretical understanding of the evolutionary processes, the practical aspects of conservation, and food and forestry production. The target, main challenges, problems to be faced and key research questions are presented for each component, followed by a roadmap for the consolidation of this proposal as a national initiative. © 2018 Mastretta-Yanes, Acevedo Gasman, Burgeff, Cano Ramírez, Piñero and Sarukhán.</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -3320,15 +3320,15 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Neo-developmentalism and a “vía campesina” for rural development: Unreconciled projects in Ecuador's Citizen's Revolution</t>
+          <t>Complex systems, agroecological matrices, and management of forest resources: An example of an application in Los Tuxtlas, Veracruz, Mexico</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>From the outside, it appears that the government of President Rafael Correa in Ecuador has put in place a legal and policy framework for a vía campesina model of rural development, inspired by food sovereignty and buen vivir. Recent studies have, however, concluded that a considerable disjuncture exists between this framework and the actual agricultural policies and programmes implemented by the government. In this paper, I provide a broad overview of the agricultural and rural development policies under the Correa government and analyse some of the causes of the gap between the policy framework and policy implementation. I argue that Ecuador under Correa speaks to the difficulties of reconciling a vía campesina approach to rural development with a neo-developmental economic model. I focus on several issues in particular in order to explain the disjuncture: how the growth of “vía campesina” proposals and political discourse in Ecuador since the 1980s coincided with significant processes of agrarian change; the transformation of rural social movement federations from a sociopolitical force into a political/electoral force and the subsequent decline of these movements; and the deepening integration of small-scale producers into domestic agribusiness commodity chains and the growth of national agribusiness firms during the Correa government. © 2017 John Wiley &amp; Sons Ltd</t>
+          <t>Today humanity faces several complex problems, two of which are global warming and the loss of biological diversity. An agroecological matrix approach, conceives the territory as patches of natural and cultivated vegetation, interconnected to maintain watershed integrity. Many ethnic groups maintain a high biological heterogeneity as in the case of the agrological matrix. This study analyzed features and trends in a specific agroecological matrix, integrating local and scientific knowledge with environmental and social information, as a complex system. For the last 15 years we studied agroecological spaces used by the Ntaj'uy (Zoque-Popoluca) people in Los Tuxtlas, Veracruz, Mexico. Participatory methods were used to understand social interactions and land management decisions. Ecology field methods allowed us to assess soil loss, litter production, water quality, and vegetation structure. Soil erosion, vegetation fragmentation and social marginalization are the most important problems in the region; the tropical sub-evergreen forest has decreased by about 60%, the deciduous forest is down by 80%, and cultivated pastures have increased over 400%. Coffee and milpa agroecosystems could be improved, through product diversification, along with interconnectivity among vegetation patches, to prevent environmental degradation, and improve conditions to reach food sovereignty and income diversification, in a context of Ntaj'uy self-determination in their territories. © 2018 by the authors.</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -3356,15 +3356,15 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>The Developmental State and Food Sovereignty in Tanzania</t>
+          <t>The insecurity of food security in Russia’s Far North</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Tanzania has been experiencing different periods of food shortages mainly because of insufficient food production. While the country has an undisputable potential for food production, the state and its development partners, such as the World Bank, believe that the unsustainable peasant food production is the main cause of the food crisis. As a panacea to the food crisis, a call for de-peasantization in favour of commercial large-scale farming, is advocated. Inspired by the work of Sam Moyo, this article argues that achieving food self-sufficiency should begin with improving peasant agriculture instead of dispossessing peasants of their land. The principles of food sovereignty must be adopted and the orientation of the state must be developmental. The state must play an activist role in investing heavily in agricultural-related projects. © 2017 SAGE Publications.</t>
+          <t>The food security model envisions food supply from industrial agriculture, food production from smallholders, and food imports. The food sovereignty model emphasizes locally-sourced food from sustainable agriculture and implies self-sufficiency while being silent on the role of imports. This article argues that neither model fits Russia’s Far North well. Residents of the Far North are generally food secure based on consumption, but their food security is insecure because of questions surrounding the reliability of food supply. The article suggests four additional factors to the food security model to sensitize it to the Russian Far North. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -3392,15 +3392,15 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Investor ownership or social investment? Changing farmland ownership in Saskatchewan, Canada</t>
+          <t>Greenhouse Agriculture in the Icelandic Food System</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>There is growing recognition that land grabbing is a global phenomenon. In Canada, investors are particularly interested in Saskatchewan farmland, the province where 40 % of country’s agricultural land is situated. This article examines how the changing political, economic, and legal context under neoliberalism has shaped patterns of farmland ownership in Saskatchewan, between 2002 and 2014. Our research indicates that over this time, the amount of farmland owned by investors increased 16-fold. Also, the concentration of farmland ownership is on the rise, with the share of farmland owned by the largest four private owners increasing six-fold. Our methodology addresses some of the criticisms raised in the land grabbing literature. By using land titles data, we identified farmland investors and determined very precisely their landholdings thus allowing us to provide a fine-grained analysis of the actual patterns of farmland ownership. Although the article analyzes changes to farmland ownership in a specific historical, cultural and legislative context, it serves as the basis for a broader discussion of the values and priorities that land ownership policies reflect. Namely, we contrast an ‘open for business’ approach that prioritizes financial investment to one based on a land sovereignty approach that prioritizes social investment. The latter has greater potential if the aim is ecological sustainability and food sovereignty. © 2016, Springer Science+Business Media Dordrecht.</t>
+          <t>Greenhouses are a frequent feature on the Icelandic rural landscape and an integral part of Iceland's food system. Iceland's reserves of geothermal energy present an opportunity to extend an otherwise short growing season. This promotes sustainability, increases food security, and benefits consumers. This article examines the relative strengths of Iceland's greenhouse sector - using a combination of statistics, observations, and interviews to understand the resource demands of greenhouse agriculture, how well greenhouses can allay some food insecurity and provide local foods. It ends with an examination of how the reduction of subsidies used to keep greenhouse agriculture going, has had an effect and forces the question of whether losing much of Iceland's agricultural sector and locally sourced food is worth the social and political costs. © 2019 Gina M. Butrico, David H. Kaplan, published by Sciendo 2019.</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>The Prism of Expanding Peasants' Rights: A Critical Investigation of Diverse Frames Applied to la Vía Campesina's Human Rights Engagements</t>
+          <t>From Food Production to Commodity Production in Argentina’s Agricultural Sector</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Since its foundation in 1993, La Vía Campesina has surged to the forefront of the global alter-globalization movement of movements, mobilizing human rights discourse to promote small-scale sustainable agriculture as a key component of social justice, equity, dignity, and autonomy everywhere. This literature review argues that food sovereignty - La Vía Campesina's best known, rights-based innovation - inflects a range of other interrelated but distinct frames that variously foreground peasants' rights, "peasantness," land, cultural recognition, and collective emancipation, prefiguring an array of prospects for the expansion of human rights to peasants and other marginalized populations confronting the failures of capitalist globalization. © 2018 Koninklijke Brill NV, Leiden, The Netherlands.</t>
+          <t>An analysis of the semiotic and productive transformation of food crops under Argentina’s agribusiness model through a study of the diffusion of the term “commodity” in the discourse produced/reproduced by the rural sections of the hegemonic media, combined with statistical data that allow a dialogue between discourse and measurable quantities, concludes that defining the Argentine countryside as a place for commodity production is linked with increasing crop production for export that leads to the erosion of food sovereignty and food security. Un análisis de las transformaciones semióticas y productivas de los frutos de la tierra bajo el modelo argentino de los agronegocios que examina la extensión del término commodity en los discursos producidos/reproducidos por las secciones rurales de los medios gráficos de comunicación hegemónicos, entrecruzado con datos estadísticos para poner en diálogo el nivel del discurso con el de las cantidades medibles, concluye que la consigna que define al campo argentino como un lugar de producción de commodities se imbrica con una tendencia a la intensificación de los cultivos orientados exclusivamente a la exportación y la erosión de la soberanía y seguridad alimentaria. © 2018 Latin American Perspectives.</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -3464,15 +3464,15 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Issues of import substitution in the agro-industrial sector</t>
+          <t>Analysing agricultural investment from the realities of small-scale food providers: grounding the debates</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>The development of the modern agro-industrial sector at all levels of economy management is considered in the context of import substitution due to the sanctions announced by the US and the West and the food import ban announced by Russia as a counter measure. The government has approved the "roadmap" to facilitate import substitution in agriculture. The purpose of the article is to assess the potential of the AIS (agro-industrial sector) in Russia, trends in achieving threshold levels of food sovereignty, determine methodological and practical conditions and possibility to implement the roadmap of import substitution, volumes, timing and growth rate in achieving the goals.</t>
+          <t>Over the past decade, agricultural investment has been presented as a catchall solution to a converging set of global crises, often with poor rural communities as the proclaimed beneficiaries. Yet the promises of such investment, such as poverty alleviation and improved food access, are routinely at odds with realities on the ground. This article offers frameworks for analysis of agricultural investment that are grounded in the realities of small-scale food providers, drawing from two studies. The first study employs a right to food framework to identify the main channels through which food for consumption is procured by small-scale food providers and the factors impacting these channels. It draws on empirical data from within the Southern Agricultural Growth Corridor of Tanzania (SAGCOT), an investment model promised to lift rural communities out of poverty, which reflects a regional trend. Based on the shortcomings of the large-scale investments examined, the second study employs a food sovereignty framework to explore alternative forms of investment envisioned and/or already being put into practice by small-scale food providers in the SAGCOT area and elsewhere in Tanzania. While two different frameworks formed the basis of two different studies, both the studies and their frameworks are interrelated. The final section of this article makes the case for why both the right to food and food sovereignty are essential lenses for understanding agricultural investment vis-à-vis small-scale food providers and the ways in which they can serve as complementary tools for effective analysis. © 2018, © 2018 Southseries Inc., www.thirdworldquarterly.com.</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -3500,15 +3500,15 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Value chain governance and governmentality of horticultural exporters by developing economies: A perspective of Kenya's fresh fruits and vegetable export sector</t>
+          <t>Food security or food sovereignty?: Questioning the paradigm of Indonesian military involvement in agriculture</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>The domain of governance has largely been extolled by Nations, States or governmental and intergovernmental actors especially in upholding Nations' sovereignty and values. While this still holds, governance complexity has been reinforced by establishment of global value chains such as in food and agriculture commodities increasingly being influenced and controlled by non-state actors in different parts of the world by both corporate and retail actors through private governance mechanisms. These mechanisms often fall short of universal standards and the resultant effect is ramified through proliferation of standards that result to state of governance that is constantly being redefined as 'codes of colours'. This paper thus seeks for an alternate dimension based on Foucault's governmentality theory. The quest for this overarching theory is based on its mediatory role that regulates the excesses of private interests in regulations while not prioritizing any state's sovereignty but views governance inclusively to both the State and non-state actors; this view promotes the broader understating of global value chains in the global economy of the 21st century. The paper's methodology is based on literature review pertinent to governance theory, value chain governance, governmentality as its key variables in light of the agrifood sector. It applies the value chain discourse and governmentatity in light of the Kenya's Horticultural export and strategic positioning to the EU market. This paper's novelty in light of the discourse and building on the body of knowledge and for the plausible ways and means to re-articulate value chain governance in the global economy while creating a viable alternative between the States, and Non-State actors for the benefit of both the upstream agents and downstream customers.</t>
+          <t>Indonesian military (TNI) involvement in the agricultural sector had begun since the 1960s when they had a significant role in a global modernization of agriculture project led by the US government and world donor agencies, namely the Green Revolution. In 2015, TNI signed a MoU with the Ministry of Agriculture in a "Special Efforts Program for Accelerating Food Production" which again delivers an important role to the military in the agricultural sector by implementing a Green Revolution oriented farming. This paper, in contrasts to some of the previous writings, does not examine the right or wrong of this involvement. This study provides a paradigmatic response to a question, why TNI insists on implementing a program that after 50 years has not proven successful in reaching the target of food self-sufficiency? Based on literature studies and analysis of empirical data, this study suggests that there is a paradigmatic misperception among the policy makers, both civil and military, about food security concept. The authors also offer a new implementation framework based on the concept of food sovereignty that can be performed by policy makers in Indonesia and other developing countries. © 2018 CEJISS.</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -3536,15 +3536,15 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Sovereignty, Risk and Biotechnology: Zambia's 2002 GM Controversy in Retrospect</t>
+          <t>Brazil's landless movement and rights ‘from below’</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>The southern African food crisis of 2002 led to one of the most significant controversies over the use of genetically modified (GM) crops in the developing world to date. Zambia's staunch opposition to GM food aid during the crisis is still frequently used as a reference point in debates over GM seed technology in agricultural development, and the morality of advanced biotechnology. This article re-examines the controversy and its contemporary relevance using oral history interviews with key scientists, policy makers and development practitioners engaged in debates and decision-making processes in Zambia in 2002, alongside a review of discourses in the Zambian press. The author argues that, rather than different perceptions of health and environmental risks derived from GM crops, it was questions of sovereign regulatory control of technology in a context of diminished state capacity - and the decline in the Zambian state's capacity for agricultural science research in particular - that played a central role in shaping anti-GM attitudes. In addition, trust in the arguments of GM advocates was diminished by communication efforts which treated Zambian scientists and policy elites as a lay rather than an expert audience. © 2015 International Institute of Social Studies.</t>
+          <t>Recent literature has recognised the value of food sovereignty and human rights frameworks in agrarian struggles. Relatively little attention has gone toward how agrarian movements develop and apply their own rights discourses to further demands for social justice. This study considers Brazil's landless movement (MST) between 1984 and 1995, revealing three distinct rights discourses that recruited and mobilised protest by linking local issues to the movement's broader political project. The findings illustrate the value of rights, frames and ideology as analytical tools, shedding light on how movement-generated rights emerge through processes of reflexivity and in response to dynamic social-political contexts. © 2018 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -3572,15 +3572,15 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Farmer seed networks make a limited contribution to agriculture? Four common misconceptions</t>
+          <t>Feeding Prometheus: An Interdisciplinary Approach for Solving the Global Food Crisis</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>The importance of seed provisioning in food security and nutrition, agricultural development and rural livelihoods, and agrobiodiversity and germplasm conservation is well accepted by policy makers, practitioners and researchers. The role of farmer seed networks is less well understood and yet is central to debates on current issues ranging from seed sovereignty and rights for farmers to GMOs and the conservation of crop germplasm. In this paper we identify four common misconceptions regarding the nature and importance of farmer seed networks today. (1) Farmer seed networks are inefficient for seed dissemination. (2) Farmer seed networks are closed, conservative systems. (3) Farmer seed networks provide ready, egalitarian access to seed. (4) Farmer seed networks are destined to weaken and disappear. We challenge these misconceptions by drawing upon recent research findings and the authors' collective field experience in studying farmer seed systems in Africa, Europe, Latin America and Oceania. Priorities for future research are suggested that would advance our understanding of seed networks and better inform agricultural and food policy. © 2015 The Authors. Published by Elsevier Ltd.</t>
+          <t>The current global food system is inadequate to meet the needs of the current world population without compromising future well-being. For example, current intensified production systems lead to undernutrition in some regions coupled with epidemics of obesity in others while compromising their underlying ecological foundations, such as creating areas of ocean hypoxia. Such common observations challenge the research community to ask new types of basic questions and apply novel analytical frameworks for analyzing them. Elaboration of an integrated applied research agenda is imperative to addressing these global food system challenges. We propose that core competencies of a new analytical framework lie at the intersection of four domains: (1) the ecology of agroecosystems; (2) equity in global and local food systems; (3) cultural dimensions of food and agriculture; and (4) human health. This intersection constitutes a new analytical framework for transitions toward global food system sustainability. © Copyright © 2018 Vandermeer, Aga, Allgeier, Badgley, Baucom, Blesh, Shapiro, Jones, Hoey, Jain, Perfecto and Wilson.</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>The Conflicted Nature of Food Security Policy: Balancing Rice, Sugar and Palm Oil in Indonesia</t>
+          <t>The Conflicted State and Agrarian Transformation in Pink Tide Venezuela</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Given the multiple problems presented by food policy, food security presents a complex dilemma for policy-makers. This paper examines the contradictions presented by competing food security, food self-sufficiency and food sovereignty framings, the challenge of policy-making across multiple levels amidst competing agendas of agricultural commodity production and production for self-provisioning populations, and the need to balance economic development with sustainable food production. From an analysis of rice, palm oil and sugar cases in Indonesia, we conclude that the conflicted nature of food policy needs to be understood in terms of the way specific material and ideational, actor-specific and structural factors working across scale shape outcomes in a highly uneven fashion. We find that this produces a policy field highly resistant to single analytical approaches, opening up the wide range of internally conflicting, related policy questions encompassed by food security-related policy. © 2016 Discipline of Anthropology and Sociology, The University of Western Australia.</t>
+          <t>Can radical political-economic transformation be achieved by electoral regimes that have not thoroughly reconstructed the state? Contemporary Venezuela offers an optimal venue for examining this question. The Chavista movement did not replace the previous state: instead, its leaders attempted to reform existing state entities and establish new ones in pursuit of its transformation agenda. It has also used its oil wealth to support cooperatively-oriented economic activity, without necessarily fundamentally altering the property structure. Thus, the social change-oriented political economy exists alongside the traditional one. Focusing on agrarian transformation, we examine ethnographically how these factors have impacted the state's capacity to attain its goal of national food sovereignty. We find that the state's ability to accomplish this objective has been compromised by lack of agency-level capacity, inter-agency conflict and the persistence of the previously-extant agrarian property structure. These dynamics have influenced the state to shift from its initial objective of food sovereignty to a policy of nationalist food security. © 2015 John Wiley &amp; Sons Ltd</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -3644,15 +3644,15 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>“We Plant Only Cotton to Maximize Our Earnings”: The Paradox of Food Sovereignty in Rural Telengana, India</t>
+          <t>A food regime’s perspective on palestine: Neoliberalism and the question of land and food sovereignty within the context of occupation</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>This article critically examines the role of food sovereignty interventions in the mitigation of the impacts of neoliberal economic policies on poor farmers in the Telengana region of India. Findings based on eighteen months of ethnographic research in the Telengana region reveal that small and poor farmers face socioeconomic and cultural constraints to the adoption of food sovereignty practices and ideals. Food sovereignty prescriptions based on localized, sustainable, and subsistence agriculture paradoxically constrained farmers’ chances of maintaining viable rural livelihoods in a harsh economic climate. Based on these findings, I argue that contrary to assertions by advocates that food sovereignty is a precondition to genuine food security, farmers must first have food and livelihood security to exercise true food sovereignty that allows them more control over their livelihoods. © 2015, © Copyright 2015 by Association of American Geographers.</t>
+          <t>The question of land and its strategic, socio-political and agricultural relevance within the Israeli-Palestinian conflict must be understood against the background of the dominant position of Israel as occupational power, heavily affecting the access to, and the control over natural resources. The subjects discussed within this article are intrinsically linked via the usage of the food regime approach as analytical tool, and the article’s specific focus on land. An attempt is made to grasp the neoliberal restructuring of Palestine and its developments in the agricultural sector, paying particular attention to land grabbing. Neoliberalism aided the institutionalising and normalising of accumulation by dispossession in the occupied Palestinian territories (oPt), these being identified as a key feature of the corporate food regime, and leading to the marginalisation of rural communities and to depeasantisation. The crises of the food regime spurred food sovereignty movements all around the globe. While analysing the political demands and approaches of the concept of food sovereignty centered around natural resources, this article also explores why the concept offers various ideas for an alternative development in Palestine. This paper tries to show how specific dynamics observed by the food regime analytics can be helpful in contextualising developments within the oPt – ranging from neoliberal restructuring to the emergence of food sovereignty. © 2018 Mattersburger Kreis fur Entwicklungspolitik. All rights reserved.</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -3680,15 +3680,15 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>‘Quiet Food Sovereignty’ as Food Sovereignty without a Movement? Insights from Post-socialist Russia</t>
+          <t>The political economy of rentier capitalism and the limits to agrarian transformation in Venezuela</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Abstract: What does food sovereignty look like in settings where rural social movements are weak or non-existent, such as in countries with post-socialist, semi-authoritarian regimes? Focusing on Russia, we present a divergent form of food sovereignty. Building on the concept of ‘quiet sustainability’, we present a dispersed, muted, but clearly bottom-up variant we term ‘quiet food sovereignty’. In the latter, the role of the very productive smallholdings is downplayed by the state and partly by the smallholders themselves. Those smallholdings are not seen as an alternative to industrial agriculture, but subsidiary to it (although superior in terms of sociality and healthy, environmentally friendly produce). As such, ‘quiet food sovereignty’ deviates from the overt struggle frequently associated with food sovereignty. We discuss the prospects of ‘quiet food sovereignty’ to develop into a full food sovereignty movement, and stress the importance of studying implicit everyday forms of food sovereignty. © 2015 Taylor &amp; Francis.</t>
+          <t>This paper explores the contradictions and limits to agrarian transformation under 21st-century socialism in Venezuela. Given the historical destruction wrought by the oil-based accumulation process upon Venezuela's agricultural sector, the symbolic and social importance of an “agrarian revolution” could be seen as a yardstick with which to measure the progress of the Bolivarian Revolution in “sowing the oil”. Eschewing a policy focus on the role of “food sovereignty” and “food security”, the paper analyses how the dynamics of rentier-capital accumulation have played out in the agricultural sector. The paper argues that the macroeconomic framework of the Bolivarian Revolution has diminished the possibility of expanded domestic food production and instead reduced agrarian transformation to contradictory processes of ground rent appropriation. © 2017 John Wiley &amp; Sons Ltd</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -3716,15 +3716,15 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Competing Sovereignties, Contested Processes: Insights from the Venezuelan Food Sovereignty Experiment</t>
+          <t>The agricultural production and food industry development trends in the context of food security of Russia</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Abstract: This article explores how ‘competing sovereignties’ are shaping the political construction of food sovereignty—broadly defined as ‘the right of peoples to healthy and culturally appropriate food produced through ecologically sound and sustainable methods, and their right to define their own food and agriculture systems'. This study was motivated by a lack of clarity on the ‘sovereignty’ of food sovereignty, as noted by numerous scholars—sovereignty for whom, and how? As there is a growing consensus that there are in fact ‘multiple sovereignties’ of food sovereignty that cut across jurisdictions and scales, there is the question of how these sovereignties are competing with each other in the attempted construction of food sovereignty. This question is becoming ever more relevant as food sovereignty is increasingly adopted into state policy at various levels, calling for state and societal actors to redefine their terms of engagement. This article explores questions of ‘competing sovereignties’ by developing an analytical framework, using the lenses of scale, geography, and institutions, and applying it to Venezuela, where for the past 15 years a food sovereignty experiment has been underway in the context of a dynamic shift in state–society relations. © 2015 Taylor &amp; Francis.</t>
+          <t>Food security, in its function as an integral component of the state’s economic security, is one of the central issues of the state economic policy in most post-Soviet countries. Over the last decade, the food security policy implementation vectors have changed. While at the beginning of the market reforms, the key task of the former Soviet Union countries’ governments was to fill the food market, regardless of the import component, currently, food sovereignty is moving to the forefront, including the availability and quality of food. The present paper attempts to systematize and analyze factors and contradictions that affect the country’s food security. The scientific importance of the work is determined by the comprehensive system approach to the factor analysis of the agricultural sector operation from the perspective of the following aspects: the ongoing foreign policy of the state (the membership in the World Trade Organization and product embargo) and the state financial support mechanism for the agriculture. © 2017. ASERS Publishing. All rights reserved.</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -3752,15 +3752,15 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Deconstructing homegardens: food security and sovereignty in northern Nicaragua</t>
+          <t>Troubling Tradition, Community, and Self-Reliance: Reframing Expectations for Village Seed Banks</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Development scholars and practitioners are promoting food security, food sovereignty, and the localization of food systems to prepare for the projected negative impacts of climate change. The implementation of biodiverse homegardens is often seen as a way not only to localize food production but also as a strategy in alignment with a food sovereignty agenda. While much scholarship has characterized and critiqued food security and sovereignty conceptualizations, relatively little research has examined people’s lived experiences in order to test how such theoretical visions play out on the ground in farming communities. Based on a case study of four coffee cooperatives in northern Nicaragua, we examine a non-governmental organization (NGO)-supported project promoting food security and sovereignty through development of homegardens. We ask: To what extent are homegardens an effective strategy to reach food sovereignty? And, why may farmers be resistant to changing their food production and consumption strategies to embrace biodiverse homegardens when they improve food security? We discuss characteristics of agroecological homegardens, the distinctions between food security, food sovereignty and dominant discourses of development, the history of food sovereignty in Nicaragua, and farmer perspectives on homegarden implementation. Despite historic critiques, NGOs are poised to facilitate the transformation of food and agricultural development by employing counter development strategies, a necessary step if homegardens are to be successful in the long term. To conclude, we propose some strategies NGOs and communities might pursue to move forward with homegardens as a food sovereignty strategy. This research suggests that a food sovereignty approach still rooted in mainstream development models faces significant obstacles to moving beyond food security and into a farmer-led food sovereignty agenda. © 2015, Springer Science+Business Media Dordrecht.</t>
+          <t>Heralded by both food sovereignty activists and mainstream development practitioners, village seed banks are a rural development phenomenon rapidly gaining attention for their potential to support resilient agricultural systems. This paper presents a case study for examining the power of prevailing narratives of decentralized development to shape and ultimately constrain the operations of village seed banks in Telangana, India. This case demonstrates how visions of tradition, community, and self-reliance can serve to discount the materiality of seeds, the social complexity of village institutions, and even the voices of farmers. The goal of this research is not to criticize village seed banks, as they hold great potential, nor to vilify the narratives in question, but rather to encourage critical reflection on how the assumptions embedded in these narratives shape mechanisms for agricultural development. I argue for a shift away from framing tradition, community, and self-reliance as development solutions and propose an interrogative approach that turns these narratives into questions for engaging more effectively with rural livelihoods. © 2017 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -3788,31 +3788,823 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
+          <t>Building sustainable social and solidarity economies: Place-based and network-based strategies of alternative development organizations in India</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>This article critically examines and analyzes place-based as well as network-based strategies of alternative development organizations that claim to be building sustainable social and solidarity economies (SSE) in the political context of neoliberal globalization. While the Indian state and market forces are actively promoting the neoliberal agri-food system, alternative development organizations are working with farmers to build the SSE based on the principles of democracy, inclusiveness, reciprocity, cooperativism, and socioecological sustainability. Using a case study approach, this article analyzes how SSE initiatives are aiming to reclaim control over the local agri-food sector. Specifically, this article examines how community development organizations mobilize farmers based on the principles of agro-ecology and the politics of seed and food sovereignties. This article uses the Center for Sustainable Agriculture, an alternative community development organization in south India, as a case study. © 2017 Community Development Society.</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>The intersection of food security and biodiversity conservation: a review</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Food security and biodiversity conservation are key challenges of the twenty-first century. While traditionally these two challenges were addressed separately, recently, papers have begun to specifically address the nexus of food security and biodiversity conservation. We conducted a structured literature review of 91 papers addressing this nexus. To ascertain how a given paper approached the topic, we assessed to what extent it covered 68 potentially relevant issues. The resulting dataset was analyzed using cluster analysis. Two main branches of literature, containing a total of six clusters of papers, were identified. The “biophysical-technical” branch (clusters: “sustainable intensification” and “production focus”) was dominated by the natural sciences, focused strongly on the production aspect of food security, and sought general solutions. In contrast, the “social-political” branch (clusters: “social-ecological development”; “empowerment for food security”; “agroecology and food sovereignty”; and “social-ecological systems”) often drew on the social sciences and emphasized social relations and governance, alongside broader considerations of sustainability and human well-being. While the biophysical-technical branch was often global in focus, much of the social-political branch focused on specific localities. Two clusters of papers, one from each branch, stood out as being particularly broad in scope—namely the clusters on “sustainable intensification” and “agroecology and food sovereignty.” Despite major differences in their conceptual basis, we argue that exchange between these two research clusters could be particularly helpful in generating insights on the food–biodiversity nexus that are both generally applicable and sufficiently nuanced to capture key system-specific variables. © 2015, Springer-Verlag Berlin Heidelberg.</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Agroecology in the Brazilian government agenda: Developments between 2011 and 2014; [La agroecología en la agenda del gobierno Brasileño: Desarrollos entre 2011 y 2014]</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Since 2003, in Brazil, the agroecological perspective has been present in punctual public policies of the federal government. In 2012, with a convergent action of the agroecological movement and the organic production, the National Policy for Agroecology and Organic Production was created. This article presents a reconstruction of the process, while highlighting involved actors, as well as their demands and interests, ideas, and main forums. Despite its limitations and conflicts, the Pnapo is a benchmark and a political achievement, having insured the agroecological agenda in the public policies inter-related to rural development, food sovereignty, and the human right to adequate food. © 2017, Pontificia Universidad Javeriana. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Food sovereignty and agro-ecology in Karnataka: interplay of discourses, identities, and practices</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Karnataka Rajya Raitha Sangha (KRRS), a farmers’ movement, and a member of La Via Campesina, has been encouraging zero-budget natural farming in Karnataka, India, within the framework of food sovereignty and agro-ecology. Using the experiences of KRRS, this article addresses the question of the extent of pluralism within the discourse of food sovereignty. Focusing on the interplay of local and global practices, discourses and identities, the article throws light upon contradictions and negotiations between “necessary abstractions” and “particularisms”, spaces and places of resistance and implications it may have on struggles at both local and global levels. © 2017 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Livelihoods crises in Vidarbha, India: Food sovereignty through traditional farming systems as a possible solution</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>The Vidarbha region in Maharashtra, India, home to 3.4 million smallholder farmers, is a major cotton-producing region in one of the wealthiest Indian states. However, between 1995 and 2013, more than 60,000 farmers took their own lives. Many of these suicides have been linked to extreme debt created by the expensive mono-cropping of Bt cotton. Some farming households have responded to these pressures by abandoning Bt cotton growing and turning to sustainable agriculture using traditional mixedcropping methods. Yet the question remains: have the changes produced better livelihoods in Vidarbha? Using a food sovereignty framework, we assess the impact of these changes through an analysis of a 200-household survey across six districts in Vidarbha. We also explore the meaning of food sovereignty for those who practise it, seeking to better understand some of the complexities and experiences associated with the term. © 2017 South Asian Studies Association of Australia.</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Agroecology in Uruguay</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>From its origins, agroecology in Uruguay has been considered as a critique of the dominant industrial agriculture model and linked to the development of alternative thinking from multiple actors. It aims to strengthen the ecological processes in agricultural systems while discussing the phenomena of concentration, alienation, and access to land, along with the problems of family agriculture and food sovereignty. Against the deepening of the industrialized model of agriculture, different actors drive the development of a National Agroecology Plan. An agroecological transition process is proposed by building sustainable development options, which arises from the agrarian and extends to the whole society. © 2017 Taylor &amp; Francis.</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Neo-developmentalism and a “vía campesina” for rural development: Unreconciled projects in Ecuador's Citizen's Revolution</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>From the outside, it appears that the government of President Rafael Correa in Ecuador has put in place a legal and policy framework for a vía campesina model of rural development, inspired by food sovereignty and buen vivir. Recent studies have, however, concluded that a considerable disjuncture exists between this framework and the actual agricultural policies and programmes implemented by the government. In this paper, I provide a broad overview of the agricultural and rural development policies under the Correa government and analyse some of the causes of the gap between the policy framework and policy implementation. I argue that Ecuador under Correa speaks to the difficulties of reconciling a vía campesina approach to rural development with a neo-developmental economic model. I focus on several issues in particular in order to explain the disjuncture: how the growth of “vía campesina” proposals and political discourse in Ecuador since the 1980s coincided with significant processes of agrarian change; the transformation of rural social movement federations from a sociopolitical force into a political/electoral force and the subsequent decline of these movements; and the deepening integration of small-scale producers into domestic agribusiness commodity chains and the growth of national agribusiness firms during the Correa government. © 2017 John Wiley &amp; Sons Ltd</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>The Developmental State and Food Sovereignty in Tanzania</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Tanzania has been experiencing different periods of food shortages mainly because of insufficient food production. While the country has an undisputable potential for food production, the state and its development partners, such as the World Bank, believe that the unsustainable peasant food production is the main cause of the food crisis. As a panacea to the food crisis, a call for de-peasantization in favour of commercial large-scale farming, is advocated. Inspired by the work of Sam Moyo, this article argues that achieving food self-sufficiency should begin with improving peasant agriculture instead of dispossessing peasants of their land. The principles of food sovereignty must be adopted and the orientation of the state must be developmental. The state must play an activist role in investing heavily in agricultural-related projects. © 2017 SAGE Publications.</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Is Oil Palm Expansion a Challenge to Agroecology? Smallholders Practising Industrial Farming in Mexico</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Agroecology has become a powerful alternative paradigm for rural development. In contrast to conventional approaches, this paradigm shifts the emphasis from technology and markets to local knowledge, social justice and food sovereignty, to overcome rural poverty and environmental degradation. However, the spread of this approach faces several obstacles. This paper deals with one of these obstacles: the ‘preference’ of smallholders for industrial farming. We specifically analyse the widespread uptake up of oil palm by smallholders in Chiapas. Contrary to agro-ecological assumptions, oil palm proved favourable to smallholders in Chiapas because of historical and contemporary state–peasant relations and the advantageous economic circumstances within the oil palm sector. Based on this research, we identify four challenges for agroecology: (i) the existence of contradictory interests within the peasantry as a result of social differentiation; (ii) the role of the state in making conventional development models relatively favourable to smallholders; (iii) the prevalence of modernization ideologies in many rural areas; and (iv) the need for this paradigm to acknowledge smallholders' agency also when engaged in industrial farming. These challenges need to be tackled for agroecology to offer viable alternatives in a context of agro-industrialization. © 2016 John Wiley &amp; Sons Ltd</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Investor ownership or social investment? Changing farmland ownership in Saskatchewan, Canada</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>There is growing recognition that land grabbing is a global phenomenon. In Canada, investors are particularly interested in Saskatchewan farmland, the province where 40 % of country’s agricultural land is situated. This article examines how the changing political, economic, and legal context under neoliberalism has shaped patterns of farmland ownership in Saskatchewan, between 2002 and 2014. Our research indicates that over this time, the amount of farmland owned by investors increased 16-fold. Also, the concentration of farmland ownership is on the rise, with the share of farmland owned by the largest four private owners increasing six-fold. Our methodology addresses some of the criticisms raised in the land grabbing literature. By using land titles data, we identified farmland investors and determined very precisely their landholdings thus allowing us to provide a fine-grained analysis of the actual patterns of farmland ownership. Although the article analyzes changes to farmland ownership in a specific historical, cultural and legislative context, it serves as the basis for a broader discussion of the values and priorities that land ownership policies reflect. Namely, we contrast an ‘open for business’ approach that prioritizes financial investment to one based on a land sovereignty approach that prioritizes social investment. The latter has greater potential if the aim is ecological sustainability and food sovereignty. © 2016, Springer Science+Business Media Dordrecht.</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Codesigning a resilient food system</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Global changes, especially the progression of climate change, create a plethora of adaptation needs for social-ecological systems. With increasing uncertainty, more resilient food systems that are able to adapt and shape their operations in response to emerging challenges are required. Most of the research on this subject has been focused on developing countries; however, developed countries also face increasing environmental, economic, and social pressures. Because food systems are complex and involve multiple actors, using codesign might be the most productive way to develop desirable system characteristics. For this study, we engaged food system actors in a scenario-planning exercise to identify means of building more resilient food systems. In particular, the actors focused on determinants of adaptive capacity in developed countries, with Finland as a case study. The brainstorming session followed by a two-round Delphi study raised three main characteristics for effective food system resilience, namely, energy and nutrient sovereignty, transparency and dialogue in the food chain, and continuous innovativeness and evidence-based learning. In addition, policy interventions were found instrumental for supporting such food system resilience. The main actor-specific determinants of adaptive capacity identified included the farmers’ utilization of agri-technology and expertise; energy and logistic efficiency of the input and processing industry; and for retail, communication to build consumer trust and environmental awareness, and effective use of information and communication technology. Of the food system actors, farmers and the processing industry were perceived to be the closest to reaching the limits of their adaptive capacities. The use of adaptive capacity as a proxy seemed to concretize food system resilience effectively. Our study suggests that the resilience approach generates new perspectives that can guide actors in developing food systems that are adaptive in uncertainty. © 2016 by the author(s).</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>The Prism of Expanding Peasants' Rights: A Critical Investigation of Diverse Frames Applied to la Vía Campesina's Human Rights Engagements</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Since its foundation in 1993, La Vía Campesina has surged to the forefront of the global alter-globalization movement of movements, mobilizing human rights discourse to promote small-scale sustainable agriculture as a key component of social justice, equity, dignity, and autonomy everywhere. This literature review argues that food sovereignty - La Vía Campesina's best known, rights-based innovation - inflects a range of other interrelated but distinct frames that variously foreground peasants' rights, "peasantness," land, cultural recognition, and collective emancipation, prefiguring an array of prospects for the expansion of human rights to peasants and other marginalized populations confronting the failures of capitalist globalization. © 2018 Koninklijke Brill NV, Leiden, The Netherlands.</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Issues of import substitution in the agro-industrial sector</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>The development of the modern agro-industrial sector at all levels of economy management is considered in the context of import substitution due to the sanctions announced by the US and the West and the food import ban announced by Russia as a counter measure. The government has approved the "roadmap" to facilitate import substitution in agriculture. The purpose of the article is to assess the potential of the AIS (agro-industrial sector) in Russia, trends in achieving threshold levels of food sovereignty, determine methodological and practical conditions and possibility to implement the roadmap of import substitution, volumes, timing and growth rate in achieving the goals.</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Value chain governance and governmentality of horticultural exporters by developing economies: A perspective of Kenya's fresh fruits and vegetable export sector</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>The domain of governance has largely been extolled by Nations, States or governmental and intergovernmental actors especially in upholding Nations' sovereignty and values. While this still holds, governance complexity has been reinforced by establishment of global value chains such as in food and agriculture commodities increasingly being influenced and controlled by non-state actors in different parts of the world by both corporate and retail actors through private governance mechanisms. These mechanisms often fall short of universal standards and the resultant effect is ramified through proliferation of standards that result to state of governance that is constantly being redefined as 'codes of colours'. This paper thus seeks for an alternate dimension based on Foucault's governmentality theory. The quest for this overarching theory is based on its mediatory role that regulates the excesses of private interests in regulations while not prioritizing any state's sovereignty but views governance inclusively to both the State and non-state actors; this view promotes the broader understating of global value chains in the global economy of the 21st century. The paper's methodology is based on literature review pertinent to governance theory, value chain governance, governmentality as its key variables in light of the agrifood sector. It applies the value chain discourse and governmentatity in light of the Kenya's Horticultural export and strategic positioning to the EU market. This paper's novelty in light of the discourse and building on the body of knowledge and for the plausible ways and means to re-articulate value chain governance in the global economy while creating a viable alternative between the States, and Non-State actors for the benefit of both the upstream agents and downstream customers.</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Agrobiodiversity Under Different Property Regimes</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Having an adequate and extensively recognized resource governance system is essential for the conservation and sustainable use of crop genetic resources in a highly populated planet. Despite the widely accepted importance of agrobiodiversity for future plant breeding and thus food security, there is still pervasive disagreement at the individual level on who should own genetic resources. The aim of the article is to provide conceptual clarification on the following concepts and their relation to agrobiodiversity stewardship: open access, commons, private property, state property and common heritage of humankind. After presenting each property regime, we will examine whether and how these incentivize the conservation, improvement and sharing of crop genetic resources, and conclude by defending a mixed property regime. © 2016, Springer Science+Business Media Dordrecht.</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>1</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Farmer seed networks make a limited contribution to agriculture? Four common misconceptions</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>The importance of seed provisioning in food security and nutrition, agricultural development and rural livelihoods, and agrobiodiversity and germplasm conservation is well accepted by policy makers, practitioners and researchers. The role of farmer seed networks is less well understood and yet is central to debates on current issues ranging from seed sovereignty and rights for farmers to GMOs and the conservation of crop germplasm. In this paper we identify four common misconceptions regarding the nature and importance of farmer seed networks today. (1) Farmer seed networks are inefficient for seed dissemination. (2) Farmer seed networks are closed, conservative systems. (3) Farmer seed networks provide ready, egalitarian access to seed. (4) Farmer seed networks are destined to weaken and disappear. We challenge these misconceptions by drawing upon recent research findings and the authors' collective field experience in studying farmer seed systems in Africa, Europe, Latin America and Oceania. Priorities for future research are suggested that would advance our understanding of seed networks and better inform agricultural and food policy. © 2015 The Authors. Published by Elsevier Ltd.</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>European transitions towards a corporate-environmental food regime: Agroecological incorporation or contestation?</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>The 'food regime' concept helps to analyse potential transitions beyond the agro-industrial regime which has been globally dominant since the 1970s. As its multiple crises generate alternative production methods and products, some have been incorporated into a nascent 'corporate-environmental food regime'. This nascent regime is illustrated here by two agendas prominent in Europe - 'bioeconomy' (Life Sciences) and 'sustainable intensification' (neoproductivism). As a significant difference, the prevalent 'bioeconomy' agenda marginalises agroecological practices, while 'sustainable intensification' selectively incorporates such practices within a broader toolkit including biotech. Regardless of that difference, both agendas reinforce a neoliberal productivist narrative: namely, more resource-efficient methods are necessary for increasing production to fulfill the greater market demand for food, feed, fuel, etc. In this way, the capital-accumulation driver is reified as 'market demand' arising exogenously from the food production system - which thereby accommodates societal needs. By contrast, the agroecology narrative diagnoses the problem as profit-driven agro-industrial monoculture systems making farmers dependent on external inputs, undermining their knowledge, and distancing consumers from agri-producers. Through such a narrative, new alliances have elaborated a different future linking farmers' knowledge-exchange, agroecology, food sovereignty, citizens' initiatives, public knowledge about food production, etc. Civil society organisations have facilitated such linkages among researchers, scientists and social movements. In those ways, contending narratives justify different trajectories for an agro-food transition. Each links different innovation paradigms of technique, quality and knowledge. These differences often remain implicit amidst broad terms such as bioeconomy, sustainable intensification, agroecology, etc. Making the divergences explicit can help contest transitions towards a corporate-environmental food regime, while also counterposing agroecological alternatives. © 2015 Elsevier Ltd.</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>The Conflicted Nature of Food Security Policy: Balancing Rice, Sugar and Palm Oil in Indonesia</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Given the multiple problems presented by food policy, food security presents a complex dilemma for policy-makers. This paper examines the contradictions presented by competing food security, food self-sufficiency and food sovereignty framings, the challenge of policy-making across multiple levels amidst competing agendas of agricultural commodity production and production for self-provisioning populations, and the need to balance economic development with sustainable food production. From an analysis of rice, palm oil and sugar cases in Indonesia, we conclude that the conflicted nature of food policy needs to be understood in terms of the way specific material and ideational, actor-specific and structural factors working across scale shape outcomes in a highly uneven fashion. We find that this produces a policy field highly resistant to single analytical approaches, opening up the wide range of internally conflicting, related policy questions encompassed by food security-related policy. © 2016 Discipline of Anthropology and Sociology, The University of Western Australia.</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>“We Plant Only Cotton to Maximize Our Earnings”: The Paradox of Food Sovereignty in Rural Telengana, India</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>This article critically examines the role of food sovereignty interventions in the mitigation of the impacts of neoliberal economic policies on poor farmers in the Telengana region of India. Findings based on eighteen months of ethnographic research in the Telengana region reveal that small and poor farmers face socioeconomic and cultural constraints to the adoption of food sovereignty practices and ideals. Food sovereignty prescriptions based on localized, sustainable, and subsistence agriculture paradoxically constrained farmers’ chances of maintaining viable rural livelihoods in a harsh economic climate. Based on these findings, I argue that contrary to assertions by advocates that food sovereignty is a precondition to genuine food security, farmers must first have food and livelihood security to exercise true food sovereignty that allows them more control over their livelihoods. © 2015, © Copyright 2015 by Association of American Geographers.</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>‘Quiet Food Sovereignty’ as Food Sovereignty without a Movement? Insights from Post-socialist Russia</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Abstract: What does food sovereignty look like in settings where rural social movements are weak or non-existent, such as in countries with post-socialist, semi-authoritarian regimes? Focusing on Russia, we present a divergent form of food sovereignty. Building on the concept of ‘quiet sustainability’, we present a dispersed, muted, but clearly bottom-up variant we term ‘quiet food sovereignty’. In the latter, the role of the very productive smallholdings is downplayed by the state and partly by the smallholders themselves. Those smallholdings are not seen as an alternative to industrial agriculture, but subsidiary to it (although superior in terms of sociality and healthy, environmentally friendly produce). As such, ‘quiet food sovereignty’ deviates from the overt struggle frequently associated with food sovereignty. We discuss the prospects of ‘quiet food sovereignty’ to develop into a full food sovereignty movement, and stress the importance of studying implicit everyday forms of food sovereignty. © 2015 Taylor &amp; Francis.</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Competing Sovereignties, Contested Processes: Insights from the Venezuelan Food Sovereignty Experiment</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Abstract: This article explores how ‘competing sovereignties’ are shaping the political construction of food sovereignty—broadly defined as ‘the right of peoples to healthy and culturally appropriate food produced through ecologically sound and sustainable methods, and their right to define their own food and agriculture systems'. This study was motivated by a lack of clarity on the ‘sovereignty’ of food sovereignty, as noted by numerous scholars—sovereignty for whom, and how? As there is a growing consensus that there are in fact ‘multiple sovereignties’ of food sovereignty that cut across jurisdictions and scales, there is the question of how these sovereignties are competing with each other in the attempted construction of food sovereignty. This question is becoming ever more relevant as food sovereignty is increasingly adopted into state policy at various levels, calling for state and societal actors to redefine their terms of engagement. This article explores questions of ‘competing sovereignties’ by developing an analytical framework, using the lenses of scale, geography, and institutions, and applying it to Venezuela, where for the past 15 years a food sovereignty experiment has been underway in the context of a dynamic shift in state–society relations. © 2015 Taylor &amp; Francis.</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Deconstructing homegardens: food security and sovereignty in northern Nicaragua</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Development scholars and practitioners are promoting food security, food sovereignty, and the localization of food systems to prepare for the projected negative impacts of climate change. The implementation of biodiverse homegardens is often seen as a way not only to localize food production but also as a strategy in alignment with a food sovereignty agenda. While much scholarship has characterized and critiqued food security and sovereignty conceptualizations, relatively little research has examined people’s lived experiences in order to test how such theoretical visions play out on the ground in farming communities. Based on a case study of four coffee cooperatives in northern Nicaragua, we examine a non-governmental organization (NGO)-supported project promoting food security and sovereignty through development of homegardens. We ask: To what extent are homegardens an effective strategy to reach food sovereignty? And, why may farmers be resistant to changing their food production and consumption strategies to embrace biodiverse homegardens when they improve food security? We discuss characteristics of agroecological homegardens, the distinctions between food security, food sovereignty and dominant discourses of development, the history of food sovereignty in Nicaragua, and farmer perspectives on homegarden implementation. Despite historic critiques, NGOs are poised to facilitate the transformation of food and agricultural development by employing counter development strategies, a necessary step if homegardens are to be successful in the long term. To conclude, we propose some strategies NGOs and communities might pursue to move forward with homegardens as a food sovereignty strategy. This research suggests that a food sovereignty approach still rooted in mainstream development models faces significant obstacles to moving beyond food security and into a farmer-led food sovereignty agenda. © 2015, Springer Science+Business Media Dordrecht.</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>1</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
           <t>Monitoring of food security in the Russian Federation: Methodology and assessment</t>
         </is>
       </c>
-      <c r="C94" t="n">
+      <c r="C116" t="n">
         <v>2016</v>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>The paper presents the results of food security research in the Russia Federation. Providing food security and country's independence becomes the core of keeping the national sovereignty under conditions of globalization and integration processes development. It determined the research relevance. The purpose of the research is the development of a new methodological approach to monitoring of food security as one of most important components of an efficient protection system of the latter. Integrative reproduction approach to monitoring of country's food security meeting stability criteria, economic and social ecological efficiency, competitive ability and safety is suggested. The composition of indicators arranged in four groups is developed within the framework of such approach in order to carry out all-round monitoring of Russian Federation's food security: agroindustrial complex production capacity and its efficient use; food accessibility; food affordability; food quality and level. The assessment of Russian Federation's agriculture facilities, agricultural products output dynamics, agricultural raw materials and provisions export and import, level of staple foods consumption by the population and Russians' diet is given based on indicative analysis. The main threats to Russia's food security are revealed (productive powers deindustrialization; low level of investment to the agricultural sector; labour force reduction; increase in dependence on imported foodstuff; population's low income level and living standards, etc.) Recommendations regarding Russian Federation's food security level increase are given (carrying out augmented technologic modernization, establishing a brand new enterprise network, development of associations and cooperatives, increase in government control combined with agricultural producers' business activity, development of market forms of cooperation and integration).</t>
         </is>
       </c>
-      <c r="E94" t="n">
-        <v>1</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
+      <c r="E116" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
         <is>
           <t>_</t>
         </is>
